--- a/backend/templates/234-18-micro-white.xlsx
+++ b/backend/templates/234-18-micro-white.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA72C04-5CEA-4AE1-AEB2-A2C074D59A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3202AF-EFD4-45C5-896E-EC03D86D8B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -1646,62 +1646,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1713,9 +1702,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,53 +1728,128 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1802,71 +1863,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1946,7 +1946,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1958,50 +1958,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6177,7 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -6191,86 +6147,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="43"/>
       <c r="L1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="46"/>
       <c r="L2" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:38" s="51" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="192"/>
+      <c r="F4" s="122"/>
       <c r="G4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="151" t="s">
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="151"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="94"/>
     </row>
     <row r="5" spans="1:38" s="51" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="102" t="s">
         <v>4</v>
       </c>
@@ -6278,66 +6234,66 @@
       <c r="G5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="152" t="s">
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="152"/>
+      <c r="K5" s="147"/>
       <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="110"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="98"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="164"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:38" s="54" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155" t="s">
+      <c r="A7" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="155" t="s">
+      <c r="E7" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="158" t="s">
+      <c r="H7" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161" t="s">
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="135" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="54" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="156"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="55">
         <v>1</v>
       </c>
@@ -6350,7 +6306,7 @@
       <c r="K8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="162"/>
+      <c r="L8" s="136"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
       <c r="A9" s="56"/>
@@ -6437,8 +6393,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="65"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
       <c r="A14" s="63"/>
@@ -6847,10 +6803,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="65"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
       <c r="A38" s="63"/>
@@ -6870,11 +6826,11 @@
       <c r="L38" s="61"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="158"/>
       <c r="D39" s="103" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -6891,24 +6847,24 @@
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="130" t="e">
+      <c r="H39" s="151" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
       <c r="L39" s="68" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
       <c r="D40" s="105">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -6925,24 +6881,24 @@
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="128" t="e">
+      <c r="H40" s="149" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="70">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="104">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -6959,13 +6915,13 @@
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="129" t="e">
+      <c r="H41" s="150" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
       <c r="L41" s="72">
         <f>MAX(L9:L38)</f>
         <v>0</v>
@@ -6975,56 +6931,56 @@
       <c r="A42" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="106" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="74"/>
       <c r="F42" s="62"/>
-      <c r="G42" s="166" t="s">
+      <c r="G42" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="166"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
       <c r="L42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="73"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="75"/>
       <c r="E43" s="73"/>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
       <c r="H43" s="76"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
     </row>
     <row r="44" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
       <c r="E44" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="165" t="s">
+      <c r="F44" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="165"/>
+      <c r="G44" s="125"/>
     </row>
     <row r="45" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="157"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="66"/>
       <c r="D45" s="62"/>
       <c r="E45" s="62"/>
@@ -7032,10 +6988,10 @@
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
-      <c r="J45" s="168" t="s">
+      <c r="J45" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="K45" s="168"/>
+      <c r="K45" s="129"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="B48" s="77" t="s">
@@ -7046,67 +7002,50 @@
       <c r="J52" s="78"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
-      <c r="L77" s="122"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="148"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="122"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="148"/>
+      <c r="L78" s="148"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="H40:K40"/>
@@ -7123,47 +7062,64 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="notBetween">
       <formula>15.7</formula>
       <formula>20.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="notBetween">
       <formula>0.1</formula>
       <formula>0.35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="notBetween">
       <formula>57</formula>
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notBetween">
       <formula>18.2</formula>
       <formula>31.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L41">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7176,7 +7132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:K6"/>
     </sheetView>
   </sheetViews>
@@ -7188,64 +7144,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
       <c r="J1" s="43"/>
       <c r="K1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="45" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" s="51" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="171">
+      <c r="B4" s="190"/>
+      <c r="C4" s="191">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="172"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="121" t="s">
         <v>3</v>
       </c>
@@ -7267,18 +7223,18 @@
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" spans="1:11" s="51" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="177">
+      <c r="B5" s="175"/>
+      <c r="C5" s="176">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="178"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="113" t="s">
         <v>4</v>
       </c>
@@ -7296,33 +7252,33 @@
       <c r="I5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="194">
+      <c r="J5" s="170">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
+      <c r="K5" s="171"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="191"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
     </row>
     <row r="7" spans="1:11" s="54" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
+      <c r="A7" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="111" t="s">
         <v>24</v>
       </c>
@@ -8009,119 +7965,119 @@
       <c r="K37" s="84"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="181" t="s">
+      <c r="A38" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="182"/>
       <c r="D38" s="118" t="e">
-        <f>AVERAGE(D8:D37)</f>
+        <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="118" t="e">
-        <f>AVERAGE(E8:E37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="118" t="e">
-        <f>AVERAGE(F8:F37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="118" t="e">
-        <f>AVERAGE(G8:G37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="67" t="e">
-        <f>AVERAGE(H8:H37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="67" t="e">
-        <f>AVERAGE(I8:I37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="67" t="e">
-        <f>AVERAGE(J8:J37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="88" t="e">
-        <f>AVERAGE(K8:K37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="185"/>
-      <c r="C39" s="186"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="185"/>
       <c r="D39" s="119">
-        <f>MIN(D8:D37)</f>
+        <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
       </c>
       <c r="E39" s="119">
-        <f>MIN(E8:E37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39" s="119">
-        <f>MIN(F8:F37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="119">
-        <f>MIN(G8:G37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="69">
-        <f>MIN(H8:H37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="69">
-        <f>MIN(I8:I37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="69">
-        <f>MIN(J8:J37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="89">
-        <f>MIN(K8:K37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="188"/>
-      <c r="C40" s="189"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="188"/>
       <c r="D40" s="117">
-        <f>MAX(D8:D37)</f>
+        <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
       </c>
       <c r="E40" s="117">
-        <f>MAX(E8:E37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40" s="117">
-        <f>MAX(F8:F37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="117">
-        <f>MAX(G8:G37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="71">
-        <f>MAX(H8:H37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="71">
-        <f>MAX(I8:I37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="71">
-        <f>MAX(J8:J37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K40" s="90">
-        <f>MAX(K8:K37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,55 +8085,55 @@
       <c r="A41" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
       <c r="D41" s="115" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="74"/>
       <c r="F41" s="62"/>
-      <c r="G41" s="166" t="s">
+      <c r="G41" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="166"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
       <c r="K41" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="73"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
       <c r="D42" s="75"/>
       <c r="E42" s="73"/>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="76"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
       <c r="K42" s="91"/>
     </row>
     <row r="43" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
       <c r="E43" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="165" t="s">
+      <c r="F43" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="165"/>
+      <c r="G43" s="125"/>
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="157"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="66"/>
       <c r="D44" s="62"/>
       <c r="E44" s="62"/>
@@ -8185,18 +8141,18 @@
       <c r="G44" s="62"/>
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="168" t="s">
+      <c r="J44" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="168"/>
+      <c r="K44" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="B41:C41"/>
@@ -8210,50 +8166,30 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="D6:G6"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D37">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="D8:D40">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
       <formula>1.77</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D40">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
-      <formula>1.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E37">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="E8:E40">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>9.07</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
-      <formula>9.07</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F37">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="F8:F40">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>1.49</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F40">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
-      <formula>1.49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G37">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
-      <formula>6.13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G40">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="G8:G40">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>6.13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/templates/234-18-micro-white.xlsx
+++ b/backend/templates/234-18-micro-white.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gauresh Chari\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E40E881-91C4-48D5-899D-4EC590BD770D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C039C-37ED-4E6A-BC48-19998D5FE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,12 +447,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1266,45 +1265,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,9 +1361,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1412,17 +1371,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1431,18 +1384,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,27 +1396,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1488,27 +1411,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,46 +1473,164 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,10 +1639,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1627,37 +1653,60 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1665,116 +1714,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -2330,932 +2329,915 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="94" customWidth="1"/>
-    <col min="4" max="7" width="21.42578125" style="94" customWidth="1"/>
-    <col min="8" max="11" width="10.42578125" style="94" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="94" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="3" width="12.85546875" style="65" customWidth="1"/>
+    <col min="4" max="7" width="21.42578125" style="65" customWidth="1"/>
+    <col min="8" max="11" width="10.42578125" style="65" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="65" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="64" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69" t="s">
+    <row r="3" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="1:38" s="81" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="129" t="s">
+      <c r="L3" s="55"/>
+    </row>
+    <row r="4" spans="1:38" s="60" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="75" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="77" t="s">
+      <c r="F4" s="89"/>
+      <c r="G4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="133" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
-    </row>
-    <row r="5" spans="1:38" s="81" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="K4" s="138"/>
+      <c r="L4" s="90"/>
+    </row>
+    <row r="5" spans="1:38" s="60" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141" t="s">
+      <c r="I5" s="137"/>
+      <c r="J5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="142"/>
-    </row>
-    <row r="6" spans="1:38" s="81" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="143" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="93"/>
+    </row>
+    <row r="6" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="150"/>
-    </row>
-    <row r="7" spans="1:38" s="99" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96" t="s">
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="96"/>
+    </row>
+    <row r="7" spans="1:38" s="68" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A7" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="151" t="s">
+      <c r="H7" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="127" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="99" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="156">
+    <row r="8" spans="1:38" s="68" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="161"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="97">
         <v>1</v>
       </c>
-      <c r="I8" s="156">
+      <c r="I8" s="97">
         <v>2</v>
       </c>
-      <c r="J8" s="156">
+      <c r="J8" s="97">
         <v>3</v>
       </c>
-      <c r="K8" s="156" t="s">
+      <c r="K8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="157"/>
+      <c r="L8" s="128"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A9" s="158"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="162" t="e">
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="102" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="163"/>
-      <c r="AL9" s="99"/>
+      <c r="L9" s="103"/>
+      <c r="AL9" s="68"/>
     </row>
     <row r="10" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="162" t="e">
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="102" t="e">
         <f t="shared" ref="K10:K38" si="0">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="165"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="162" t="e">
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="163"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="162" t="e">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="163"/>
+      <c r="L12" s="103"/>
     </row>
     <row r="13" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A13" s="158"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="162" t="e">
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="165"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
+      <c r="L13" s="105"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="162" t="e">
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="163"/>
+      <c r="L14" s="103"/>
     </row>
     <row r="15" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="162" t="e">
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="163"/>
+      <c r="L15" s="103"/>
     </row>
     <row r="16" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A16" s="158"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="162" t="e">
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="165"/>
+      <c r="L16" s="105"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="162" t="e">
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="163"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A18" s="158"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="162" t="e">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="165"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="162" t="e">
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="163"/>
+      <c r="L19" s="103"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="162" t="e">
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="165"/>
+      <c r="L20" s="105"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="158"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="162" t="e">
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="163"/>
+      <c r="L21" s="103"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="162" t="e">
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="165"/>
+      <c r="L22" s="105"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="162" t="e">
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="163"/>
+      <c r="L23" s="103"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="162" t="e">
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="163"/>
+      <c r="L24" s="103"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="162" t="e">
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="165"/>
+      <c r="L25" s="105"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="158"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="162" t="e">
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="163"/>
+      <c r="L26" s="103"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="162" t="e">
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="163"/>
+      <c r="L27" s="103"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="162" t="e">
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="165"/>
+      <c r="L28" s="105"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A29" s="158"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="162" t="e">
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="163"/>
+      <c r="L29" s="103"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="162" t="e">
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="165"/>
+      <c r="L30" s="105"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="162" t="e">
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="163"/>
+      <c r="L31" s="103"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="162" t="e">
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="165"/>
+      <c r="L32" s="105"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="164"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="162" t="e">
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="163"/>
+      <c r="L33" s="103"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A34" s="158"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="162" t="e">
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="165"/>
+      <c r="L34" s="105"/>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A35" s="164"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="162" t="e">
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="163"/>
+      <c r="L35" s="103"/>
     </row>
     <row r="36" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A36" s="164"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="162" t="e">
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="163"/>
+      <c r="L36" s="103"/>
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A37" s="158"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="162" t="e">
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="165"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
+      <c r="L37" s="105"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="164"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="162" t="e">
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="163"/>
+      <c r="L38" s="103"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="167" t="e">
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="107" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="167" t="e">
+      <c r="E39" s="107" t="e">
         <f>AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="167" t="e">
+      <c r="F39" s="107" t="e">
         <f>AVERAGE(F9:F38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="106" t="e">
+      <c r="G39" s="75" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="168" t="e">
+      <c r="H39" s="143" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="169" t="e">
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="108" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="170">
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="109">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="170">
+      <c r="E40" s="109">
         <f>MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="170">
+      <c r="F40" s="109">
         <f>MIN(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="109">
+      <c r="G40" s="78">
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="171" t="e">
+      <c r="H40" s="141" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="172">
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="110">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="173">
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="111">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="173">
+      <c r="E41" s="111">
         <f>MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="173">
+      <c r="F41" s="111">
         <f>MAX(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="81">
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="174" t="e">
+      <c r="H41" s="142" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="175">
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="112">
         <f>MAX(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="114" t="s">
+    <row r="42" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="116" t="s">
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="116"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="117" t="s">
+      <c r="E42" s="84"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="119" t="s">
+      <c r="H42" s="118"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="114"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="123" t="s">
+    <row r="43" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="83"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-    </row>
-    <row r="44" spans="1:19" s="81" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="125" t="s">
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+    </row>
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="E44" s="69" t="s">
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="E44" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="126" t="s">
+      <c r="F44" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="126"/>
-    </row>
-    <row r="45" spans="1:19" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="127" t="s">
+      <c r="G44" s="117"/>
+    </row>
+    <row r="45" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="128" t="s">
+      <c r="B45" s="120"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="K45" s="128"/>
+      <c r="K45" s="121"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B48" s="176"/>
+      <c r="B48" s="113"/>
     </row>
     <row r="52" spans="10:10" ht="15.75" customHeight="1">
-      <c r="J52" s="177"/>
+      <c r="J52" s="114"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
-      <c r="K76" s="178"/>
-      <c r="L76" s="178"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="178"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="140"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="178"/>
-      <c r="D78" s="178"/>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="178"/>
-      <c r="J78" s="178"/>
-      <c r="K78" s="178"/>
-      <c r="L78" s="178"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="G78" s="140"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="140"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="178"/>
-      <c r="D79" s="178"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="H40:K40"/>
@@ -3272,13 +3254,30 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3331,173 +3330,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="94" customWidth="1"/>
-    <col min="4" max="11" width="21.42578125" style="94" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="3" width="12.85546875" style="65" customWidth="1"/>
+    <col min="4" max="11" width="21.42578125" style="65" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="64" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="64" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+    <row r="3" spans="1:11" s="51" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:11" s="81" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" s="60" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73">
+      <c r="B4" s="173"/>
+      <c r="C4" s="174">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="175"/>
+      <c r="E4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="57">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="59">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="176">
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="82" t="s">
+      <c r="K4" s="177"/>
+    </row>
+    <row r="5" spans="1:11" s="60" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84">
+      <c r="B5" s="167"/>
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="169"/>
+      <c r="E5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="62">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="89" t="str">
+      <c r="H5" s="64" t="str">
         <f>Page1!H5</f>
         <v/>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="162">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="91"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="92" t="s">
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92" t="s">
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:11" s="99" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97" t="s">
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="165"/>
+    </row>
+    <row r="7" spans="1:11" s="68" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A7" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="67" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3514,14 +3513,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="18.95" customHeight="1">
       <c r="A9" s="13">
@@ -3536,14 +3535,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" ht="18.95" customHeight="1">
       <c r="A10" s="13">
@@ -3558,14 +3557,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="18.95" customHeight="1">
       <c r="A11" s="13">
@@ -3580,14 +3579,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="18.95" customHeight="1">
       <c r="A12" s="13">
@@ -3602,14 +3601,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="18.95" customHeight="1">
       <c r="A13" s="13">
@@ -3624,14 +3623,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="18.95" customHeight="1">
       <c r="A14" s="13">
@@ -3646,14 +3645,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" ht="18.95" customHeight="1">
       <c r="A15" s="13">
@@ -3668,14 +3667,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" ht="18.95" customHeight="1">
       <c r="A16" s="13">
@@ -3690,14 +3689,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:11" ht="18.95" customHeight="1">
       <c r="A17" s="13">
@@ -3712,14 +3711,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" ht="18.95" customHeight="1">
       <c r="A18" s="13">
@@ -3734,14 +3733,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" ht="18.95" customHeight="1">
       <c r="A19" s="13">
@@ -3756,14 +3755,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" ht="18.95" customHeight="1">
       <c r="A20" s="13">
@@ -3778,14 +3777,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" ht="18.95" customHeight="1">
       <c r="A21" s="13">
@@ -3800,14 +3799,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="18.95" customHeight="1">
       <c r="A22" s="13">
@@ -3822,14 +3821,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" ht="18.95" customHeight="1">
       <c r="A23" s="13">
@@ -3844,14 +3843,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="18.95" customHeight="1">
       <c r="A24" s="13">
@@ -3866,14 +3865,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1">
       <c r="A25" s="13">
@@ -3888,14 +3887,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" ht="18.95" customHeight="1">
       <c r="A26" s="13">
@@ -3910,14 +3909,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" ht="18.95" customHeight="1">
       <c r="A27" s="13">
@@ -3932,14 +3931,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" ht="18.95" customHeight="1">
       <c r="A28" s="13">
@@ -3954,14 +3953,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="104"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11" ht="18.95" customHeight="1">
       <c r="A29" s="13">
@@ -3976,14 +3975,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" ht="18.95" customHeight="1">
       <c r="A30" s="13">
@@ -3998,14 +3997,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="1:11" ht="18.95" customHeight="1">
       <c r="A31" s="13">
@@ -4020,14 +4019,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="102"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" ht="18.95" customHeight="1">
       <c r="A32" s="13">
@@ -4042,14 +4041,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="102"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" ht="18.95" customHeight="1">
       <c r="A33" s="13">
@@ -4064,14 +4063,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" ht="18.95" customHeight="1">
       <c r="A34" s="13">
@@ -4086,14 +4085,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="102"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" ht="18.95" customHeight="1">
       <c r="A35" s="13">
@@ -4108,14 +4107,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="102"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11" ht="18.95" customHeight="1">
       <c r="A36" s="13">
@@ -4130,14 +4129,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="104"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
     </row>
     <row r="37" spans="1:11" ht="18.95" customHeight="1" thickBot="1">
       <c r="A37" s="17">
@@ -4152,201 +4151,209 @@
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="105" t="e">
+      <c r="B38" s="149"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="74" t="e">
         <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="105" t="e">
+      <c r="E38" s="74" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="105" t="e">
+      <c r="F38" s="74" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="105" t="e">
+      <c r="G38" s="74" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="106" t="e">
+      <c r="H38" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="106" t="e">
+      <c r="I38" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="106" t="e">
+      <c r="J38" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="107" t="e">
+      <c r="K38" s="76" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="108">
+      <c r="B39" s="152"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="77">
         <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="108">
+      <c r="E39" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="108">
+      <c r="F39" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="108">
+      <c r="G39" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="109">
+      <c r="H39" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="109">
+      <c r="I39" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="109">
+      <c r="J39" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="110">
+      <c r="K39" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="111">
+      <c r="B40" s="155"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="80">
         <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="111">
+      <c r="E40" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="111">
+      <c r="F40" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="111">
+      <c r="G40" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="112">
+      <c r="H40" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="112">
+      <c r="I40" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="112">
+      <c r="J40" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="113">
+      <c r="K40" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="114" t="s">
+    <row r="41" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="116" t="s">
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="116"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="117" t="s">
+      <c r="E41" s="84"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="119" t="s">
+      <c r="H41" s="118"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="114"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="123" t="s">
+    <row r="42" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="83"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="123"/>
-      <c r="K42" s="124"/>
-    </row>
-    <row r="43" spans="1:11" s="81" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="125" t="s">
+      <c r="J42" s="147"/>
+      <c r="K42" s="88"/>
+    </row>
+    <row r="43" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="E43" s="69" t="s">
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="E43" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="126" t="s">
+      <c r="F43" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="126"/>
-    </row>
-    <row r="44" spans="1:11" s="64" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="127" t="s">
+      <c r="G43" s="117"/>
+    </row>
+    <row r="44" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="128" t="s">
+      <c r="B44" s="120"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="K44" s="128"/>
+      <c r="K44" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="J44:K44"/>
@@ -4363,14 +4370,6 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D40">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
@@ -4428,12 +4427,12 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -4478,1358 +4477,1358 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32">
+      <c r="A3" s="178"/>
+      <c r="B3" s="20">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="33">
+      <c r="C3" s="19"/>
+      <c r="D3" s="21">
         <f>Page1!D9</f>
         <v>0</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="21">
         <f>Page2!D8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="21">
         <f>Page2!F8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="21">
         <f>Page2!E8</f>
         <v>0</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="21">
         <f>Page2!G8</f>
         <v>0</v>
       </c>
-      <c r="I3" s="34" t="e">
+      <c r="I3" s="22" t="e">
         <f>Page1!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="21">
         <f>Page1!E9</f>
         <v>0</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="21">
         <f>Page1!F9</f>
         <v>0</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32">
+      <c r="A4" s="178"/>
+      <c r="B4" s="20">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="33">
+      <c r="C4" s="19"/>
+      <c r="D4" s="21">
         <f>Page1!D10</f>
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="21">
         <f>Page2!D9</f>
         <v>0</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="21">
         <f>Page2!F9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="21">
         <f>Page2!E9</f>
         <v>0</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="21">
         <f>Page2!G9</f>
         <v>0</v>
       </c>
-      <c r="I4" s="34" t="e">
+      <c r="I4" s="22" t="e">
         <f>Page1!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="21">
         <f>Page1!E10</f>
         <v>0</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="21">
         <f>Page1!F10</f>
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32">
+      <c r="A5" s="178"/>
+      <c r="B5" s="20">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="33">
+      <c r="C5" s="19"/>
+      <c r="D5" s="21">
         <f>Page1!D11</f>
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="21">
         <f>Page2!D10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="21">
         <f>Page2!F10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="21">
         <f>Page2!E10</f>
         <v>0</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="21">
         <f>Page2!G10</f>
         <v>0</v>
       </c>
-      <c r="I5" s="34" t="e">
+      <c r="I5" s="22" t="e">
         <f>Page1!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="21">
         <f>Page1!E11</f>
         <v>0</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="21">
         <f>Page1!F11</f>
         <v>0</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32">
+      <c r="A6" s="178"/>
+      <c r="B6" s="20">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="33">
+      <c r="C6" s="19"/>
+      <c r="D6" s="21">
         <f>Page1!D12</f>
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="21">
         <f>Page2!D11</f>
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="21">
         <f>Page2!F11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="21">
         <f>Page2!E11</f>
         <v>0</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="21">
         <f>Page2!G11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34" t="e">
+      <c r="I6" s="22" t="e">
         <f>Page1!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="21">
         <f>Page1!E12</f>
         <v>0</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="21">
         <f>Page1!F12</f>
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32">
+      <c r="A7" s="178"/>
+      <c r="B7" s="20">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="33">
+      <c r="C7" s="19"/>
+      <c r="D7" s="21">
         <f>Page1!D13</f>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="21">
         <f>Page2!D12</f>
         <v>0</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="21">
         <f>Page2!F12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="21">
         <f>Page2!E12</f>
         <v>0</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="21">
         <f>Page2!G12</f>
         <v>0</v>
       </c>
-      <c r="I7" s="34" t="e">
+      <c r="I7" s="22" t="e">
         <f>Page1!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="21">
         <f>Page1!E13</f>
         <v>0</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="21">
         <f>Page1!F13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32">
+      <c r="A8" s="178"/>
+      <c r="B8" s="20">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="33">
+      <c r="C8" s="19"/>
+      <c r="D8" s="21">
         <f>Page1!D14</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="21">
         <f>Page2!D13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="21">
         <f>Page2!F13</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="21">
         <f>Page2!E13</f>
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="21">
         <f>Page2!G13</f>
         <v>0</v>
       </c>
-      <c r="I8" s="34" t="e">
+      <c r="I8" s="22" t="e">
         <f>Page1!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="21">
         <f>Page1!E14</f>
         <v>0</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="21">
         <f>Page1!F14</f>
         <v>0</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32">
+      <c r="A9" s="178"/>
+      <c r="B9" s="20">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="33">
+      <c r="C9" s="19"/>
+      <c r="D9" s="21">
         <f>Page1!D15</f>
         <v>0</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="21">
         <f>Page2!D14</f>
         <v>0</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="21">
         <f>Page2!F14</f>
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="21">
         <f>Page2!E14</f>
         <v>0</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="21">
         <f>Page2!G14</f>
         <v>0</v>
       </c>
-      <c r="I9" s="34" t="e">
+      <c r="I9" s="22" t="e">
         <f>Page1!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="21">
         <f>Page1!E15</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="21">
         <f>Page1!F15</f>
         <v>0</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32">
+      <c r="A10" s="178"/>
+      <c r="B10" s="20">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="33">
+      <c r="C10" s="19"/>
+      <c r="D10" s="21">
         <f>Page1!D16</f>
         <v>0</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="21">
         <f>Page2!D15</f>
         <v>0</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="21">
         <f>Page2!F15</f>
         <v>0</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="21">
         <f>Page2!E15</f>
         <v>0</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="21">
         <f>Page2!G15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="e">
+      <c r="I10" s="22" t="e">
         <f>Page1!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="21">
         <f>Page1!E16</f>
         <v>0</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="21">
         <f>Page1!F16</f>
         <v>0</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32">
+      <c r="A11" s="178"/>
+      <c r="B11" s="20">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="33">
+      <c r="C11" s="19"/>
+      <c r="D11" s="21">
         <f>Page1!D17</f>
         <v>0</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="21">
         <f>Page2!D16</f>
         <v>0</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="21">
         <f>Page2!F16</f>
         <v>0</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="21">
         <f>Page2!E16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="21">
         <f>Page2!G16</f>
         <v>0</v>
       </c>
-      <c r="I11" s="34" t="e">
+      <c r="I11" s="22" t="e">
         <f>Page1!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="21">
         <f>Page1!E17</f>
         <v>0</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="21">
         <f>Page1!F17</f>
         <v>0</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32">
+      <c r="A12" s="178"/>
+      <c r="B12" s="20">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="33">
+      <c r="C12" s="19"/>
+      <c r="D12" s="21">
         <f>Page1!D18</f>
         <v>0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="21">
         <f>Page2!D17</f>
         <v>0</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="21">
         <f>Page2!F17</f>
         <v>0</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="21">
         <f>Page2!E17</f>
         <v>0</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="21">
         <f>Page2!G17</f>
         <v>0</v>
       </c>
-      <c r="I12" s="34" t="e">
+      <c r="I12" s="22" t="e">
         <f>Page1!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="21">
         <f>Page1!E18</f>
         <v>0</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="21">
         <f>Page1!F18</f>
         <v>0</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32">
+      <c r="A13" s="178"/>
+      <c r="B13" s="20">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="33">
+      <c r="C13" s="19"/>
+      <c r="D13" s="21">
         <f>Page1!D19</f>
         <v>0</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="21">
         <f>Page2!D18</f>
         <v>0</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="21">
         <f>Page2!F18</f>
         <v>0</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="21">
         <f>Page2!E18</f>
         <v>0</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="21">
         <f>Page2!G18</f>
         <v>0</v>
       </c>
-      <c r="I13" s="34" t="e">
+      <c r="I13" s="22" t="e">
         <f>Page1!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="21">
         <f>Page1!E19</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="21">
         <f>Page1!F19</f>
         <v>0</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32">
+      <c r="A14" s="178"/>
+      <c r="B14" s="20">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="33">
+      <c r="C14" s="19"/>
+      <c r="D14" s="21">
         <f>Page1!D20</f>
         <v>0</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="21">
         <f>Page2!D19</f>
         <v>0</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="21">
         <f>Page2!F19</f>
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="21">
         <f>Page2!E19</f>
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="21">
         <f>Page2!G19</f>
         <v>0</v>
       </c>
-      <c r="I14" s="34" t="e">
+      <c r="I14" s="22" t="e">
         <f>Page1!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="21">
         <f>Page1!E20</f>
         <v>0</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="21">
         <f>Page1!F20</f>
         <v>0</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32">
+      <c r="A15" s="178"/>
+      <c r="B15" s="20">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="33">
+      <c r="C15" s="19"/>
+      <c r="D15" s="21">
         <f>Page1!D21</f>
         <v>0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="21">
         <f>Page2!D20</f>
         <v>0</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="21">
         <f>Page2!F20</f>
         <v>0</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="21">
         <f>Page2!E20</f>
         <v>0</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="21">
         <f>Page2!G20</f>
         <v>0</v>
       </c>
-      <c r="I15" s="34" t="e">
+      <c r="I15" s="22" t="e">
         <f>Page1!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="21">
         <f>Page1!E21</f>
         <v>0</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="21">
         <f>Page1!F21</f>
         <v>0</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32">
+      <c r="A16" s="178"/>
+      <c r="B16" s="20">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="33">
+      <c r="C16" s="19"/>
+      <c r="D16" s="21">
         <f>Page1!D22</f>
         <v>0</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="21">
         <f>Page2!D21</f>
         <v>0</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="21">
         <f>Page2!F21</f>
         <v>0</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="21">
         <f>Page2!E21</f>
         <v>0</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="21">
         <f>Page2!G21</f>
         <v>0</v>
       </c>
-      <c r="I16" s="34" t="e">
+      <c r="I16" s="22" t="e">
         <f>Page1!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="21">
         <f>Page1!E22</f>
         <v>0</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="21">
         <f>Page1!F22</f>
         <v>0</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32">
+      <c r="A17" s="178"/>
+      <c r="B17" s="20">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="33">
+      <c r="C17" s="19"/>
+      <c r="D17" s="21">
         <f>Page1!D23</f>
         <v>0</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="21">
         <f>Page2!D22</f>
         <v>0</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="21">
         <f>Page2!F22</f>
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="21">
         <f>Page2!E22</f>
         <v>0</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="21">
         <f>Page2!G22</f>
         <v>0</v>
       </c>
-      <c r="I17" s="34" t="e">
+      <c r="I17" s="22" t="e">
         <f>Page1!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="21">
         <f>Page1!E23</f>
         <v>0</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="21">
         <f>Page1!F23</f>
         <v>0</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32">
+      <c r="A18" s="178"/>
+      <c r="B18" s="20">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="33">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21">
         <f>Page1!D24</f>
         <v>0</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="21">
         <f>Page2!D23</f>
         <v>0</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="21">
         <f>Page2!F23</f>
         <v>0</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="21">
         <f>Page2!E23</f>
         <v>0</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="21">
         <f>Page2!G23</f>
         <v>0</v>
       </c>
-      <c r="I18" s="34" t="e">
+      <c r="I18" s="22" t="e">
         <f>Page1!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="21">
         <f>Page1!E24</f>
         <v>0</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="21">
         <f>Page1!F24</f>
         <v>0</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32">
+      <c r="A19" s="178"/>
+      <c r="B19" s="20">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="33">
+      <c r="C19" s="19"/>
+      <c r="D19" s="21">
         <f>Page1!D25</f>
         <v>0</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="21">
         <f>Page2!D24</f>
         <v>0</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="21">
         <f>Page2!F24</f>
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="21">
         <f>Page2!E24</f>
         <v>0</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="21">
         <f>Page2!G24</f>
         <v>0</v>
       </c>
-      <c r="I19" s="34" t="e">
+      <c r="I19" s="22" t="e">
         <f>Page1!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="21">
         <f>Page1!E25</f>
         <v>0</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="21">
         <f>Page1!F25</f>
         <v>0</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32">
+      <c r="A20" s="178"/>
+      <c r="B20" s="20">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="33">
+      <c r="C20" s="19"/>
+      <c r="D20" s="21">
         <f>Page1!D26</f>
         <v>0</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="21">
         <f>Page2!D25</f>
         <v>0</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="21">
         <f>Page2!F25</f>
         <v>0</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="21">
         <f>Page2!E25</f>
         <v>0</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="21">
         <f>Page2!G25</f>
         <v>0</v>
       </c>
-      <c r="I20" s="34" t="e">
+      <c r="I20" s="22" t="e">
         <f>Page1!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="21">
         <f>Page1!E26</f>
         <v>0</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="21">
         <f>Page1!F26</f>
         <v>0</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32">
+      <c r="A21" s="178"/>
+      <c r="B21" s="20">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33">
+      <c r="C21" s="19"/>
+      <c r="D21" s="21">
         <f>Page1!D27</f>
         <v>0</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="21">
         <f>Page2!D26</f>
         <v>0</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="21">
         <f>Page2!F26</f>
         <v>0</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="21">
         <f>Page2!E26</f>
         <v>0</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="21">
         <f>Page2!G26</f>
         <v>0</v>
       </c>
-      <c r="I21" s="34" t="e">
+      <c r="I21" s="22" t="e">
         <f>Page1!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="21">
         <f>Page1!E27</f>
         <v>0</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="21">
         <f>Page1!F27</f>
         <v>0</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32">
+      <c r="A22" s="178"/>
+      <c r="B22" s="20">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="33">
+      <c r="C22" s="19"/>
+      <c r="D22" s="21">
         <f>Page1!D28</f>
         <v>0</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="21">
         <f>Page2!D27</f>
         <v>0</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="21">
         <f>Page2!F27</f>
         <v>0</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="21">
         <f>Page2!E27</f>
         <v>0</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="21">
         <f>Page2!G27</f>
         <v>0</v>
       </c>
-      <c r="I22" s="34" t="e">
+      <c r="I22" s="22" t="e">
         <f>Page1!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="21">
         <f>Page1!E28</f>
         <v>0</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="21">
         <f>Page1!F28</f>
         <v>0</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32">
+      <c r="A23" s="178"/>
+      <c r="B23" s="20">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="33">
+      <c r="C23" s="19"/>
+      <c r="D23" s="21">
         <f>Page1!D29</f>
         <v>0</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="21">
         <f>Page2!D28</f>
         <v>0</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="21">
         <f>Page2!F28</f>
         <v>0</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="21">
         <f>Page2!E28</f>
         <v>0</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="21">
         <f>Page2!G28</f>
         <v>0</v>
       </c>
-      <c r="I23" s="34" t="e">
+      <c r="I23" s="22" t="e">
         <f>Page1!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="21">
         <f>Page1!E29</f>
         <v>0</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="21">
         <f>Page1!F29</f>
         <v>0</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32">
+      <c r="A24" s="178"/>
+      <c r="B24" s="20">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="33">
+      <c r="C24" s="19"/>
+      <c r="D24" s="21">
         <f>Page1!D30</f>
         <v>0</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="21">
         <f>Page2!D29</f>
         <v>0</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="21">
         <f>Page2!F29</f>
         <v>0</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="21">
         <f>Page2!E29</f>
         <v>0</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="21">
         <f>Page2!G29</f>
         <v>0</v>
       </c>
-      <c r="I24" s="34" t="e">
+      <c r="I24" s="22" t="e">
         <f>Page1!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="21">
         <f>Page1!E30</f>
         <v>0</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="21">
         <f>Page1!F30</f>
         <v>0</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32">
+      <c r="A25" s="178"/>
+      <c r="B25" s="20">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="33">
+      <c r="C25" s="19"/>
+      <c r="D25" s="21">
         <f>Page1!D31</f>
         <v>0</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="21">
         <f>Page2!D30</f>
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="21">
         <f>Page2!F30</f>
         <v>0</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="21">
         <f>Page2!E30</f>
         <v>0</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="21">
         <f>Page2!G30</f>
         <v>0</v>
       </c>
-      <c r="I25" s="34" t="e">
+      <c r="I25" s="22" t="e">
         <f>Page1!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="21">
         <f>Page1!E31</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="21">
         <f>Page1!F31</f>
         <v>0</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32">
+      <c r="A26" s="178"/>
+      <c r="B26" s="20">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33">
+      <c r="C26" s="19"/>
+      <c r="D26" s="21">
         <f>Page1!D32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="21">
         <f>Page2!D31</f>
         <v>0</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="21">
         <f>Page2!F31</f>
         <v>0</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="21">
         <f>Page2!E31</f>
         <v>0</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="21">
         <f>Page2!G31</f>
         <v>0</v>
       </c>
-      <c r="I26" s="34" t="e">
+      <c r="I26" s="22" t="e">
         <f>Page1!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="21">
         <f>Page1!E32</f>
         <v>0</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="21">
         <f>Page1!F32</f>
         <v>0</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32">
+      <c r="A27" s="178"/>
+      <c r="B27" s="20">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="33">
+      <c r="C27" s="19"/>
+      <c r="D27" s="21">
         <f>Page1!D33</f>
         <v>0</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="21">
         <f>Page2!D32</f>
         <v>0</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="21">
         <f>Page2!F32</f>
         <v>0</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="21">
         <f>Page2!E32</f>
         <v>0</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="21">
         <f>Page2!G32</f>
         <v>0</v>
       </c>
-      <c r="I27" s="34" t="e">
+      <c r="I27" s="22" t="e">
         <f>Page1!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="21">
         <f>Page1!E33</f>
         <v>0</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="21">
         <f>Page1!F33</f>
         <v>0</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32">
+      <c r="A28" s="178"/>
+      <c r="B28" s="20">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33">
+      <c r="C28" s="19"/>
+      <c r="D28" s="21">
         <f>Page1!D34</f>
         <v>0</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="21">
         <f>Page2!D33</f>
         <v>0</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="21">
         <f>Page2!F33</f>
         <v>0</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="21">
         <f>Page2!E33</f>
         <v>0</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="21">
         <f>Page2!G33</f>
         <v>0</v>
       </c>
-      <c r="I28" s="34" t="e">
+      <c r="I28" s="22" t="e">
         <f>Page1!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="21">
         <f>Page1!E34</f>
         <v>0</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="21">
         <f>Page1!F34</f>
         <v>0</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32">
+      <c r="A29" s="178"/>
+      <c r="B29" s="20">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33">
+      <c r="C29" s="19"/>
+      <c r="D29" s="21">
         <f>Page1!D35</f>
         <v>0</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="21">
         <f>Page2!D34</f>
         <v>0</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="21">
         <f>Page2!F34</f>
         <v>0</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="21">
         <f>Page2!E34</f>
         <v>0</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="21">
         <f>Page2!G34</f>
         <v>0</v>
       </c>
-      <c r="I29" s="34" t="e">
+      <c r="I29" s="22" t="e">
         <f>Page1!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="21">
         <f>Page1!E35</f>
         <v>0</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="21">
         <f>Page1!F35</f>
         <v>0</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32">
+      <c r="A30" s="178"/>
+      <c r="B30" s="20">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="33">
+      <c r="C30" s="19"/>
+      <c r="D30" s="21">
         <f>Page1!D36</f>
         <v>0</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="21">
         <f>Page2!D35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="21">
         <f>Page2!F35</f>
         <v>0</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="21">
         <f>Page2!E35</f>
         <v>0</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="21">
         <f>Page2!G35</f>
         <v>0</v>
       </c>
-      <c r="I30" s="34" t="e">
+      <c r="I30" s="22" t="e">
         <f>Page1!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="21">
         <f>Page1!E36</f>
         <v>0</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="21">
         <f>Page1!F36</f>
         <v>0</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32">
+      <c r="A31" s="178"/>
+      <c r="B31" s="20">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="33">
+      <c r="C31" s="19"/>
+      <c r="D31" s="21">
         <f>Page1!D37</f>
         <v>0</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="21">
         <f>Page2!D36</f>
         <v>0</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="21">
         <f>Page2!F36</f>
         <v>0</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="21">
         <f>Page2!E36</f>
         <v>0</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="21">
         <f>Page2!G36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="34" t="e">
+      <c r="I31" s="22" t="e">
         <f>Page1!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="21">
         <f>Page1!E37</f>
         <v>0</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="21">
         <f>Page1!F37</f>
         <v>0</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32">
+      <c r="A32" s="178"/>
+      <c r="B32" s="20">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="33">
+      <c r="C32" s="19"/>
+      <c r="D32" s="21">
         <f>Page1!D38</f>
         <v>0</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="21">
         <f>Page2!D37</f>
         <v>0</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="21">
         <f>Page2!F37</f>
         <v>0</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="21">
         <f>Page2!E37</f>
         <v>0</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="21">
         <f>Page2!G37</f>
         <v>0</v>
       </c>
-      <c r="I32" s="34" t="e">
+      <c r="I32" s="22" t="e">
         <f>Page1!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="21">
         <f>Page1!E38</f>
         <v>0</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="21">
         <f>Page1!F38</f>
         <v>0</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="19">
         <f>L3</f>
         <v>0</v>
       </c>
@@ -5956,2641 +5955,2641 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="5"/>
     </row>
-    <row r="2" spans="1:49" s="40" customFormat="1" ht="24">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:49" s="28" customFormat="1" ht="24">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="25">
         <v>1</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="25">
         <v>2</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="25">
         <v>3</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="25">
         <v>4</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="25">
         <v>5</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="25">
         <v>6</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="25">
         <v>7</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="25">
         <v>8</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="25">
         <v>9</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="25">
         <v>10</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="25">
         <v>11</v>
       </c>
-      <c r="V2" s="37">
+      <c r="V2" s="25">
         <v>12</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="25">
         <v>13</v>
       </c>
-      <c r="X2" s="37">
+      <c r="X2" s="25">
         <v>14</v>
       </c>
-      <c r="Y2" s="37">
+      <c r="Y2" s="25">
         <v>15</v>
       </c>
-      <c r="Z2" s="37">
+      <c r="Z2" s="25">
         <v>16</v>
       </c>
-      <c r="AA2" s="37">
+      <c r="AA2" s="25">
         <v>17</v>
       </c>
-      <c r="AB2" s="37">
+      <c r="AB2" s="25">
         <v>18</v>
       </c>
-      <c r="AC2" s="37">
+      <c r="AC2" s="25">
         <v>19</v>
       </c>
-      <c r="AD2" s="37">
+      <c r="AD2" s="25">
         <v>20</v>
       </c>
-      <c r="AE2" s="37">
+      <c r="AE2" s="25">
         <v>21</v>
       </c>
-      <c r="AF2" s="37">
+      <c r="AF2" s="25">
         <v>22</v>
       </c>
-      <c r="AG2" s="37">
+      <c r="AG2" s="25">
         <v>23</v>
       </c>
-      <c r="AH2" s="37">
+      <c r="AH2" s="25">
         <v>24</v>
       </c>
-      <c r="AI2" s="37">
+      <c r="AI2" s="25">
         <v>25</v>
       </c>
-      <c r="AJ2" s="37">
+      <c r="AJ2" s="25">
         <v>26</v>
       </c>
-      <c r="AK2" s="37">
+      <c r="AK2" s="25">
         <v>27</v>
       </c>
-      <c r="AL2" s="37">
+      <c r="AL2" s="25">
         <v>28</v>
       </c>
-      <c r="AM2" s="37">
+      <c r="AM2" s="25">
         <v>29</v>
       </c>
-      <c r="AN2" s="37">
+      <c r="AN2" s="25">
         <v>30</v>
       </c>
-      <c r="AO2" s="38" t="s">
+      <c r="AO2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="38" t="s">
+      <c r="AP2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="37" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AR2" s="38" t="s">
+      <c r="AR2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="38" t="s">
+      <c r="AS2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AT2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-    </row>
-    <row r="3" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="42">
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+    </row>
+    <row r="3" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="33">
         <v>1</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="33">
         <v>0.01</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="34">
         <v>1.33</v>
       </c>
-      <c r="K3" s="59" cm="1">
+      <c r="K3" s="47" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$D$9:$D$38, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="59" cm="1">
+      <c r="L3" s="47" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$D$9:$D$38, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="59" cm="1">
+      <c r="M3" s="47" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$D$9:$D$38, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="59" cm="1">
+      <c r="N3" s="47" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$D$9:$D$38, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="59" cm="1">
+      <c r="O3" s="47" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$D$9:$D$38, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="59" cm="1">
+      <c r="P3" s="47" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$D$9:$D$38, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="59" cm="1">
+      <c r="Q3" s="47" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$D$9:$D$38, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="59" cm="1">
+      <c r="R3" s="47" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$D$9:$D$38, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="59" cm="1">
+      <c r="S3" s="47" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$D$9:$D$38, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="59" cm="1">
+      <c r="T3" s="47" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$D$9:$D$38, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="59" cm="1">
+      <c r="U3" s="47" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$D$9:$D$38, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="59" cm="1">
+      <c r="V3" s="47" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$D$9:$D$38, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="59" cm="1">
+      <c r="W3" s="47" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$D$9:$D$38, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="59" cm="1">
+      <c r="X3" s="47" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$D$9:$D$38, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="59" cm="1">
+      <c r="Y3" s="47" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$D$9:$D$38, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="59" cm="1">
+      <c r="Z3" s="47" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$D$9:$D$38, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="59" cm="1">
+      <c r="AA3" s="47" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$D$9:$D$38, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="59" cm="1">
+      <c r="AB3" s="47" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$D$9:$D$38, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="59" cm="1">
+      <c r="AC3" s="47" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$D$9:$D$38, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="59" cm="1">
+      <c r="AD3" s="47" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$D$9:$D$38, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="59" cm="1">
+      <c r="AE3" s="47" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$D$9:$D$38, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="59" cm="1">
+      <c r="AF3" s="47" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$D$9:$D$38, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="59" cm="1">
+      <c r="AG3" s="47" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$D$9:$D$38, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="59" cm="1">
+      <c r="AH3" s="47" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$D$9:$D$38, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="59" cm="1">
+      <c r="AI3" s="47" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$D$9:$D$38, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="59" cm="1">
+      <c r="AJ3" s="47" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$D$9:$D$38, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="59" cm="1">
+      <c r="AK3" s="47" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$D$9:$D$38, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="59" cm="1">
+      <c r="AL3" s="47" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$D$9:$D$38, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="59" cm="1">
+      <c r="AM3" s="47" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$D$9:$D$38, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="59" cm="1">
+      <c r="AN3" s="47" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$D$9:$D$38, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="47">
+      <c r="AO3" s="35">
         <f>AVERAGE(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="48">
+      <c r="AP3" s="36">
         <f t="shared" ref="AP3:AP16" si="0">STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="49" t="e">
+      <c r="AQ3" s="37" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="48">
+      <c r="AR3" s="36">
         <f t="shared" ref="AR3:AR16" si="1">MIN(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="48">
+      <c r="AS3" s="36">
         <f t="shared" ref="AS3:AS16" si="2">MAX(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="36" t="e">
+      <c r="AT3" s="24" t="e">
         <f>IF(AQ3&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-    </row>
-    <row r="4" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="42">
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+    </row>
+    <row r="4" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <v>1</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>0.01</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="59" cm="1">
+      <c r="K4" s="47" cm="1">
         <f t="array" ref="K4">INDEX(Page1!$E$9:$E$38, COLUMN(K4)-10)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="59" cm="1">
+      <c r="L4" s="47" cm="1">
         <f t="array" ref="L4">INDEX(Page1!$E$9:$E$38, COLUMN(L4)-10)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="59" cm="1">
+      <c r="M4" s="47" cm="1">
         <f t="array" ref="M4">INDEX(Page1!$E$9:$E$38, COLUMN(M4)-10)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="59" cm="1">
+      <c r="N4" s="47" cm="1">
         <f t="array" ref="N4">INDEX(Page1!$E$9:$E$38, COLUMN(N4)-10)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="59" cm="1">
+      <c r="O4" s="47" cm="1">
         <f t="array" ref="O4">INDEX(Page1!$E$9:$E$38, COLUMN(O4)-10)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="59" cm="1">
+      <c r="P4" s="47" cm="1">
         <f t="array" ref="P4">INDEX(Page1!$E$9:$E$38, COLUMN(P4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="59" cm="1">
+      <c r="Q4" s="47" cm="1">
         <f t="array" ref="Q4">INDEX(Page1!$E$9:$E$38, COLUMN(Q4)-10)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="59" cm="1">
+      <c r="R4" s="47" cm="1">
         <f t="array" ref="R4">INDEX(Page1!$E$9:$E$38, COLUMN(R4)-10)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="59" cm="1">
+      <c r="S4" s="47" cm="1">
         <f t="array" ref="S4">INDEX(Page1!$E$9:$E$38, COLUMN(S4)-10)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="59" cm="1">
+      <c r="T4" s="47" cm="1">
         <f t="array" ref="T4">INDEX(Page1!$E$9:$E$38, COLUMN(T4)-10)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="59" cm="1">
+      <c r="U4" s="47" cm="1">
         <f t="array" ref="U4">INDEX(Page1!$E$9:$E$38, COLUMN(U4)-10)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="59" cm="1">
+      <c r="V4" s="47" cm="1">
         <f t="array" ref="V4">INDEX(Page1!$E$9:$E$38, COLUMN(V4)-10)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="59" cm="1">
+      <c r="W4" s="47" cm="1">
         <f t="array" ref="W4">INDEX(Page1!$E$9:$E$38, COLUMN(W4)-10)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="59" cm="1">
+      <c r="X4" s="47" cm="1">
         <f t="array" ref="X4">INDEX(Page1!$E$9:$E$38, COLUMN(X4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="59" cm="1">
+      <c r="Y4" s="47" cm="1">
         <f t="array" ref="Y4">INDEX(Page1!$E$9:$E$38, COLUMN(Y4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="59" cm="1">
+      <c r="Z4" s="47" cm="1">
         <f t="array" ref="Z4">INDEX(Page1!$E$9:$E$38, COLUMN(Z4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="59" cm="1">
+      <c r="AA4" s="47" cm="1">
         <f t="array" ref="AA4">INDEX(Page1!$E$9:$E$38, COLUMN(AA4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="59" cm="1">
+      <c r="AB4" s="47" cm="1">
         <f t="array" ref="AB4">INDEX(Page1!$E$9:$E$38, COLUMN(AB4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="59" cm="1">
+      <c r="AC4" s="47" cm="1">
         <f t="array" ref="AC4">INDEX(Page1!$E$9:$E$38, COLUMN(AC4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="59" cm="1">
+      <c r="AD4" s="47" cm="1">
         <f t="array" ref="AD4">INDEX(Page1!$E$9:$E$38, COLUMN(AD4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="59" cm="1">
+      <c r="AE4" s="47" cm="1">
         <f t="array" ref="AE4">INDEX(Page1!$E$9:$E$38, COLUMN(AE4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="59" cm="1">
+      <c r="AF4" s="47" cm="1">
         <f t="array" ref="AF4">INDEX(Page1!$E$9:$E$38, COLUMN(AF4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="59" cm="1">
+      <c r="AG4" s="47" cm="1">
         <f t="array" ref="AG4">INDEX(Page1!$E$9:$E$38, COLUMN(AG4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="59" cm="1">
+      <c r="AH4" s="47" cm="1">
         <f t="array" ref="AH4">INDEX(Page1!$E$9:$E$38, COLUMN(AH4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="59" cm="1">
+      <c r="AI4" s="47" cm="1">
         <f t="array" ref="AI4">INDEX(Page1!$E$9:$E$38, COLUMN(AI4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="59" cm="1">
+      <c r="AJ4" s="47" cm="1">
         <f t="array" ref="AJ4">INDEX(Page1!$E$9:$E$38, COLUMN(AJ4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="59" cm="1">
+      <c r="AK4" s="47" cm="1">
         <f t="array" ref="AK4">INDEX(Page1!$E$9:$E$38, COLUMN(AK4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="59" cm="1">
+      <c r="AL4" s="47" cm="1">
         <f t="array" ref="AL4">INDEX(Page1!$E$9:$E$38, COLUMN(AL4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="59" cm="1">
+      <c r="AM4" s="47" cm="1">
         <f t="array" ref="AM4">INDEX(Page1!$E$9:$E$38, COLUMN(AM4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN4" s="59" cm="1">
+      <c r="AN4" s="47" cm="1">
         <f t="array" ref="AN4">INDEX(Page1!$E$9:$E$38, COLUMN(AN4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO4" s="47">
+      <c r="AO4" s="35">
         <f>AVERAGE(K4:AN4)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="48">
+      <c r="AP4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="49" t="e">
+      <c r="AQ4" s="37" t="e">
         <f>MIN((AO4-H4)/(3*AP4), (I4-AO4)/(3*AP4))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="48">
+      <c r="AR4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="48">
+      <c r="AS4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT4" s="36" t="e">
+      <c r="AT4" s="24" t="e">
         <f>IF(AQ4&gt;=1,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-    </row>
-    <row r="5" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="42">
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+    </row>
+    <row r="5" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="33">
         <v>1</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>0.01</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="34">
         <v>0.35</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="47" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$F$9:$F$38, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="59" cm="1">
+      <c r="L5" s="47" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$F$9:$F$38, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="59" cm="1">
+      <c r="M5" s="47" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$F$9:$F$38, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="59" cm="1">
+      <c r="N5" s="47" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$F$9:$F$38, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="59" cm="1">
+      <c r="O5" s="47" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$F$9:$F$38, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="59" cm="1">
+      <c r="P5" s="47" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$F$9:$F$38, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="59" cm="1">
+      <c r="Q5" s="47" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$F$9:$F$38, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="59" cm="1">
+      <c r="R5" s="47" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$F$9:$F$38, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="59" cm="1">
+      <c r="S5" s="47" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$F$9:$F$38, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="59" cm="1">
+      <c r="T5" s="47" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$F$9:$F$38, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="59" cm="1">
+      <c r="U5" s="47" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$F$9:$F$38, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="59" cm="1">
+      <c r="V5" s="47" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$F$9:$F$38, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="59" cm="1">
+      <c r="W5" s="47" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$F$9:$F$38, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="59" cm="1">
+      <c r="X5" s="47" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$F$9:$F$38, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="59" cm="1">
+      <c r="Y5" s="47" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$F$9:$F$38, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="59" cm="1">
+      <c r="Z5" s="47" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$F$9:$F$38, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="59" cm="1">
+      <c r="AA5" s="47" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$F$9:$F$38, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="59" cm="1">
+      <c r="AB5" s="47" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$F$9:$F$38, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="59" cm="1">
+      <c r="AC5" s="47" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$F$9:$F$38, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="59" cm="1">
+      <c r="AD5" s="47" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$F$9:$F$38, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="59" cm="1">
+      <c r="AE5" s="47" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$F$9:$F$38, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="59" cm="1">
+      <c r="AF5" s="47" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$F$9:$F$38, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="59" cm="1">
+      <c r="AG5" s="47" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$F$9:$F$38, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="59" cm="1">
+      <c r="AH5" s="47" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$F$9:$F$38, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="59" cm="1">
+      <c r="AI5" s="47" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$F$9:$F$38, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="59" cm="1">
+      <c r="AJ5" s="47" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$F$9:$F$38, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="59" cm="1">
+      <c r="AK5" s="47" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$F$9:$F$38, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="59" cm="1">
+      <c r="AL5" s="47" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$F$9:$F$38, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="59" cm="1">
+      <c r="AM5" s="47" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$F$9:$F$38, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="59" cm="1">
+      <c r="AN5" s="47" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$F$9:$F$38, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="47">
+      <c r="AO5" s="35">
         <f t="shared" ref="AO5:AO16" si="3">AVERAGE(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="48">
+      <c r="AP5" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ5" s="49" t="e">
+      <c r="AQ5" s="37" t="e">
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="48">
+      <c r="AR5" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="48">
+      <c r="AS5" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT5" s="36" t="e">
+      <c r="AT5" s="24" t="e">
         <f>IF(AQ5&gt;=1,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-    </row>
-    <row r="6" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="42">
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+    </row>
+    <row r="6" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <v>1</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>0.1</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="60" cm="1">
+      <c r="K6" s="48" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$G$9:$G$38, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="60" cm="1">
+      <c r="L6" s="48" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$G$9:$G$38, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="60" cm="1">
+      <c r="M6" s="48" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$G$9:$G$38, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="60" cm="1">
+      <c r="N6" s="48" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$G$9:$G$38, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="60" cm="1">
+      <c r="O6" s="48" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$G$9:$G$38, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="60" cm="1">
+      <c r="P6" s="48" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$G$9:$G$38, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="60" cm="1">
+      <c r="Q6" s="48" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$G$9:$G$38, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="60" cm="1">
+      <c r="R6" s="48" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$G$9:$G$38, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="60" cm="1">
+      <c r="S6" s="48" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$G$9:$G$38, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="60" cm="1">
+      <c r="T6" s="48" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$G$9:$G$38, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="60" cm="1">
+      <c r="U6" s="48" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$G$9:$G$38, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="60" cm="1">
+      <c r="V6" s="48" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$G$9:$G$38, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="60" cm="1">
+      <c r="W6" s="48" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$G$9:$G$38, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="60" cm="1">
+      <c r="X6" s="48" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$G$9:$G$38, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="60" cm="1">
+      <c r="Y6" s="48" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$G$9:$G$38, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="60" cm="1">
+      <c r="Z6" s="48" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$G$9:$G$38, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="60" cm="1">
+      <c r="AA6" s="48" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$G$9:$G$38, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="60" cm="1">
+      <c r="AB6" s="48" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$G$9:$G$38, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="60" cm="1">
+      <c r="AC6" s="48" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$G$9:$G$38, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="60" cm="1">
+      <c r="AD6" s="48" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$G$9:$G$38, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="60" cm="1">
+      <c r="AE6" s="48" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$G$9:$G$38, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="60" cm="1">
+      <c r="AF6" s="48" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$G$9:$G$38, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="60" cm="1">
+      <c r="AG6" s="48" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$G$9:$G$38, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="60" cm="1">
+      <c r="AH6" s="48" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$G$9:$G$38, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="60" cm="1">
+      <c r="AI6" s="48" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$G$9:$G$38, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="60" cm="1">
+      <c r="AJ6" s="48" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$G$9:$G$38, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="60" cm="1">
+      <c r="AK6" s="48" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$G$9:$G$38, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="60" cm="1">
+      <c r="AL6" s="48" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$G$9:$G$38, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="60" cm="1">
+      <c r="AM6" s="48" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$G$9:$G$38, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="60" cm="1">
+      <c r="AN6" s="48" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$G$9:$G$38, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="53">
+      <c r="AO6" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="48">
+      <c r="AP6" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="49" t="e">
+      <c r="AQ6" s="37" t="e">
         <f>MIN((AO6-H6)/(3*AP6), (I6-AO6)/(3*AP6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="54">
+      <c r="AR6" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="54">
+      <c r="AS6" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT6" s="36" t="e">
+      <c r="AT6" s="24" t="e">
         <f t="shared" ref="AT6:AT16" si="4">IF(AQ6&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-    </row>
-    <row r="7" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="42">
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+    </row>
+    <row r="7" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <v>3</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <v>0.1</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="34">
         <v>24.7</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="34">
         <v>18.2</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="34">
         <v>31.2</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="34">
         <v>1.33</v>
       </c>
-      <c r="K7" s="60" t="e" cm="1">
+      <c r="K7" s="48" t="e" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$K$9:$K$38, COLUMN(K7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="60" t="e" cm="1">
+      <c r="L7" s="48" t="e" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$K$9:$K$38, COLUMN(L7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="60" t="e" cm="1">
+      <c r="M7" s="48" t="e" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$K$9:$K$38, COLUMN(M7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="60" t="e" cm="1">
+      <c r="N7" s="48" t="e" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$K$9:$K$38, COLUMN(N7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="60" t="e" cm="1">
+      <c r="O7" s="48" t="e" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$K$9:$K$38, COLUMN(O7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="60" t="e" cm="1">
+      <c r="P7" s="48" t="e" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$K$9:$K$38, COLUMN(P7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="60" t="e" cm="1">
+      <c r="Q7" s="48" t="e" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$K$9:$K$38, COLUMN(Q7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="60" t="e" cm="1">
+      <c r="R7" s="48" t="e" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$K$9:$K$38, COLUMN(R7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="60" t="e" cm="1">
+      <c r="S7" s="48" t="e" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$K$9:$K$38, COLUMN(S7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="60" t="e" cm="1">
+      <c r="T7" s="48" t="e" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$K$9:$K$38, COLUMN(T7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="60" t="e" cm="1">
+      <c r="U7" s="48" t="e" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$K$9:$K$38, COLUMN(U7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V7" s="60" t="e" cm="1">
+      <c r="V7" s="48" t="e" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$K$9:$K$38, COLUMN(V7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W7" s="60" t="e" cm="1">
+      <c r="W7" s="48" t="e" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$K$9:$K$38, COLUMN(W7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X7" s="60" t="e" cm="1">
+      <c r="X7" s="48" t="e" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$K$9:$K$38, COLUMN(X7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y7" s="60" t="e" cm="1">
+      <c r="Y7" s="48" t="e" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$K$9:$K$38, COLUMN(Y7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z7" s="60" t="e" cm="1">
+      <c r="Z7" s="48" t="e" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$K$9:$K$38, COLUMN(Z7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA7" s="60" t="e" cm="1">
+      <c r="AA7" s="48" t="e" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$K$9:$K$38, COLUMN(AA7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB7" s="60" t="e" cm="1">
+      <c r="AB7" s="48" t="e" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$K$9:$K$38, COLUMN(AB7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="60" t="e" cm="1">
+      <c r="AC7" s="48" t="e" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$K$9:$K$38, COLUMN(AC7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="60" t="e" cm="1">
+      <c r="AD7" s="48" t="e" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$K$9:$K$38, COLUMN(AD7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="60" t="e" cm="1">
+      <c r="AE7" s="48" t="e" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$K$9:$K$38, COLUMN(AE7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF7" s="60" t="e" cm="1">
+      <c r="AF7" s="48" t="e" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$K$9:$K$38, COLUMN(AF7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="60" t="e" cm="1">
+      <c r="AG7" s="48" t="e" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$K$9:$K$38, COLUMN(AG7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH7" s="60" t="e" cm="1">
+      <c r="AH7" s="48" t="e" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$K$9:$K$38, COLUMN(AH7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI7" s="60" t="e" cm="1">
+      <c r="AI7" s="48" t="e" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$K$9:$K$38, COLUMN(AI7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ7" s="60" t="e" cm="1">
+      <c r="AJ7" s="48" t="e" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$K$9:$K$38, COLUMN(AJ7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK7" s="60" t="e" cm="1">
+      <c r="AK7" s="48" t="e" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$K$9:$K$38, COLUMN(AK7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL7" s="60" t="e" cm="1">
+      <c r="AL7" s="48" t="e" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$K$9:$K$38, COLUMN(AL7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM7" s="60" t="e" cm="1">
+      <c r="AM7" s="48" t="e" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$K$9:$K$38, COLUMN(AM7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN7" s="60" t="e" cm="1">
+      <c r="AN7" s="48" t="e" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$K$9:$K$38, COLUMN(AN7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="53" t="e">
+      <c r="AO7" s="41" t="e">
         <f>AVERAGE(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="48" t="e">
+      <c r="AP7" s="36" t="e">
         <f>STDEV(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="49" t="e">
+      <c r="AQ7" s="37" t="e">
         <f>MIN((AO7-H7)/(3*AP7), (I7-AO7)/(3*AP7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="54" t="e">
+      <c r="AR7" s="42" t="e">
         <f>MIN(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="54" t="e">
+      <c r="AS7" s="42" t="e">
         <f>MAX(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT7" s="36" t="e">
+      <c r="AT7" s="24" t="e">
         <f>IF(AQ7&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-    </row>
-    <row r="8" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="42">
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+    </row>
+    <row r="8" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="33">
         <v>1</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <v>0.1</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="60" cm="1">
+      <c r="K8" s="48" cm="1">
         <f t="array" ref="K8">INDEX(Page1!$L$9:$L$38, COLUMN(K8)-10)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="60" cm="1">
+      <c r="L8" s="48" cm="1">
         <f t="array" ref="L8">INDEX(Page1!$L$9:$L$38, COLUMN(L8)-10)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="60" cm="1">
+      <c r="M8" s="48" cm="1">
         <f t="array" ref="M8">INDEX(Page1!$L$9:$L$38, COLUMN(M8)-10)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="60" cm="1">
+      <c r="N8" s="48" cm="1">
         <f t="array" ref="N8">INDEX(Page1!$L$9:$L$38, COLUMN(N8)-10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="60" cm="1">
+      <c r="O8" s="48" cm="1">
         <f t="array" ref="O8">INDEX(Page1!$L$9:$L$38, COLUMN(O8)-10)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="60" cm="1">
+      <c r="P8" s="48" cm="1">
         <f t="array" ref="P8">INDEX(Page1!$L$9:$L$38, COLUMN(P8)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="60" cm="1">
+      <c r="Q8" s="48" cm="1">
         <f t="array" ref="Q8">INDEX(Page1!$L$9:$L$38, COLUMN(Q8)-10)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="60" cm="1">
+      <c r="R8" s="48" cm="1">
         <f t="array" ref="R8">INDEX(Page1!$L$9:$L$38, COLUMN(R8)-10)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="60" cm="1">
+      <c r="S8" s="48" cm="1">
         <f t="array" ref="S8">INDEX(Page1!$L$9:$L$38, COLUMN(S8)-10)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="60" cm="1">
+      <c r="T8" s="48" cm="1">
         <f t="array" ref="T8">INDEX(Page1!$L$9:$L$38, COLUMN(T8)-10)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="60" cm="1">
+      <c r="U8" s="48" cm="1">
         <f t="array" ref="U8">INDEX(Page1!$L$9:$L$38, COLUMN(U8)-10)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="60" cm="1">
+      <c r="V8" s="48" cm="1">
         <f t="array" ref="V8">INDEX(Page1!$L$9:$L$38, COLUMN(V8)-10)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="60" cm="1">
+      <c r="W8" s="48" cm="1">
         <f t="array" ref="W8">INDEX(Page1!$L$9:$L$38, COLUMN(W8)-10)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="60" cm="1">
+      <c r="X8" s="48" cm="1">
         <f t="array" ref="X8">INDEX(Page1!$L$9:$L$38, COLUMN(X8)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="60" cm="1">
+      <c r="Y8" s="48" cm="1">
         <f t="array" ref="Y8">INDEX(Page1!$L$9:$L$38, COLUMN(Y8)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="60" cm="1">
+      <c r="Z8" s="48" cm="1">
         <f t="array" ref="Z8">INDEX(Page1!$L$9:$L$38, COLUMN(Z8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="60" cm="1">
+      <c r="AA8" s="48" cm="1">
         <f t="array" ref="AA8">INDEX(Page1!$L$9:$L$38, COLUMN(AA8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="60" cm="1">
+      <c r="AB8" s="48" cm="1">
         <f t="array" ref="AB8">INDEX(Page1!$L$9:$L$38, COLUMN(AB8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="60" cm="1">
+      <c r="AC8" s="48" cm="1">
         <f t="array" ref="AC8">INDEX(Page1!$L$9:$L$38, COLUMN(AC8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="60" cm="1">
+      <c r="AD8" s="48" cm="1">
         <f t="array" ref="AD8">INDEX(Page1!$L$9:$L$38, COLUMN(AD8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="60" cm="1">
+      <c r="AE8" s="48" cm="1">
         <f t="array" ref="AE8">INDEX(Page1!$L$9:$L$38, COLUMN(AE8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="60" cm="1">
+      <c r="AF8" s="48" cm="1">
         <f t="array" ref="AF8">INDEX(Page1!$L$9:$L$38, COLUMN(AF8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="60" cm="1">
+      <c r="AG8" s="48" cm="1">
         <f t="array" ref="AG8">INDEX(Page1!$L$9:$L$38, COLUMN(AG8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="60" cm="1">
+      <c r="AH8" s="48" cm="1">
         <f t="array" ref="AH8">INDEX(Page1!$L$9:$L$38, COLUMN(AH8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="60" cm="1">
+      <c r="AI8" s="48" cm="1">
         <f t="array" ref="AI8">INDEX(Page1!$L$9:$L$38, COLUMN(AI8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="60" cm="1">
+      <c r="AJ8" s="48" cm="1">
         <f t="array" ref="AJ8">INDEX(Page1!$L$9:$L$38, COLUMN(AJ8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="60" cm="1">
+      <c r="AK8" s="48" cm="1">
         <f t="array" ref="AK8">INDEX(Page1!$L$9:$L$38, COLUMN(AK8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="60" cm="1">
+      <c r="AL8" s="48" cm="1">
         <f t="array" ref="AL8">INDEX(Page1!$L$9:$L$38, COLUMN(AL8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="60" cm="1">
+      <c r="AM8" s="48" cm="1">
         <f t="array" ref="AM8">INDEX(Page1!$L$9:$L$38, COLUMN(AM8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="60" cm="1">
+      <c r="AN8" s="48" cm="1">
         <f t="array" ref="AN8">INDEX(Page1!$L$9:$L$38, COLUMN(AN8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="53">
+      <c r="AO8" s="41">
         <f>AVERAGE(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="48">
+      <c r="AP8" s="36">
         <f>STDEV(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="49" t="e">
+      <c r="AQ8" s="37" t="e">
         <f>(I8-AO8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="54">
+      <c r="AR8" s="42">
         <f>MIN(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="54">
+      <c r="AS8" s="42">
         <f>MAX(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="36" t="e">
+      <c r="AT8" s="24" t="e">
         <f>IF(AQ8&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-    </row>
-    <row r="9" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="42">
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+    </row>
+    <row r="9" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>0.01</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="34">
         <v>2.77</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="34">
         <v>1.77</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
         <v>1.33</v>
       </c>
-      <c r="K9" s="59" cm="1">
+      <c r="K9" s="47" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$D$9:$D$38, COLUMN(K9)-10)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="59" cm="1">
+      <c r="L9" s="47" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$D$9:$D$38, COLUMN(L9)-10)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="59" cm="1">
+      <c r="M9" s="47" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$D$9:$D$38, COLUMN(M9)-10)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="59" cm="1">
+      <c r="N9" s="47" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$D$9:$D$38, COLUMN(N9)-10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="59" cm="1">
+      <c r="O9" s="47" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$D$9:$D$38, COLUMN(O9)-10)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="59" cm="1">
+      <c r="P9" s="47" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$D$9:$D$38, COLUMN(P9)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="59" cm="1">
+      <c r="Q9" s="47" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$D$9:$D$38, COLUMN(Q9)-10)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="59" cm="1">
+      <c r="R9" s="47" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$D$9:$D$38, COLUMN(R9)-10)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="59" cm="1">
+      <c r="S9" s="47" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$D$9:$D$38, COLUMN(S9)-10)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="59" cm="1">
+      <c r="T9" s="47" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$D$9:$D$38, COLUMN(T9)-10)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="59" cm="1">
+      <c r="U9" s="47" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$D$9:$D$38, COLUMN(U9)-10)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="59" cm="1">
+      <c r="V9" s="47" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$D$9:$D$38, COLUMN(V9)-10)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="59" cm="1">
+      <c r="W9" s="47" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$D$9:$D$38, COLUMN(W9)-10)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="59" cm="1">
+      <c r="X9" s="47" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$D$9:$D$38, COLUMN(X9)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="59" cm="1">
+      <c r="Y9" s="47" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$D$9:$D$38, COLUMN(Y9)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="59" cm="1">
+      <c r="Z9" s="47" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$D$9:$D$38, COLUMN(Z9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="59" cm="1">
+      <c r="AA9" s="47" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$D$9:$D$38, COLUMN(AA9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="59" cm="1">
+      <c r="AB9" s="47" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$D$9:$D$38, COLUMN(AB9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="59" cm="1">
+      <c r="AC9" s="47" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$D$9:$D$38, COLUMN(AC9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="59" cm="1">
+      <c r="AD9" s="47" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$D$9:$D$38, COLUMN(AD9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="59" cm="1">
+      <c r="AE9" s="47" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$D$9:$D$38, COLUMN(AE9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="59" cm="1">
+      <c r="AF9" s="47" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$D$9:$D$38, COLUMN(AF9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="59" cm="1">
+      <c r="AG9" s="47" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$D$9:$D$38, COLUMN(AG9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="59" cm="1">
+      <c r="AH9" s="47" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$D$9:$D$38, COLUMN(AH9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="59" cm="1">
+      <c r="AI9" s="47" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$D$9:$D$38, COLUMN(AI9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="59" cm="1">
+      <c r="AJ9" s="47" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$D$9:$D$38, COLUMN(AJ9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="59" cm="1">
+      <c r="AK9" s="47" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$D$9:$D$38, COLUMN(AK9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="59" cm="1">
+      <c r="AL9" s="47" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$D$9:$D$38, COLUMN(AL9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="59" cm="1">
+      <c r="AM9" s="47" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$D$9:$D$38, COLUMN(AM9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="59" t="e" cm="1">
+      <c r="AN9" s="47" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$D$9:$D$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="47" t="e">
+      <c r="AO9" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="48" t="e">
+      <c r="AP9" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="49" t="e">
+      <c r="AQ9" s="37" t="e">
         <f>(AO9-H9)/(3*AP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="48" t="e">
+      <c r="AR9" s="36" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="48" t="e">
+      <c r="AS9" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT9" s="36" t="e">
+      <c r="AT9" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-    </row>
-    <row r="10" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="42">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+    </row>
+    <row r="10" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <v>1</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>0.01</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="34">
         <v>12.57</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="34">
         <v>9.07</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34">
         <v>1.33</v>
       </c>
-      <c r="K10" s="59" cm="1">
+      <c r="K10" s="47" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$E$9:$E$38, COLUMN(K10)-10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="59" cm="1">
+      <c r="L10" s="47" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$E$9:$E$38, COLUMN(L10)-10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="59" cm="1">
+      <c r="M10" s="47" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$E$9:$E$38, COLUMN(M10)-10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="59" cm="1">
+      <c r="N10" s="47" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$E$9:$E$38, COLUMN(N10)-10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="59" cm="1">
+      <c r="O10" s="47" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$E$9:$E$38, COLUMN(O10)-10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="59" cm="1">
+      <c r="P10" s="47" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$E$9:$E$38, COLUMN(P10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="59" cm="1">
+      <c r="Q10" s="47" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$E$9:$E$38, COLUMN(Q10)-10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="59" cm="1">
+      <c r="R10" s="47" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$E$9:$E$38, COLUMN(R10)-10)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="59" cm="1">
+      <c r="S10" s="47" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$E$9:$E$38, COLUMN(S10)-10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="59" cm="1">
+      <c r="T10" s="47" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$E$9:$E$38, COLUMN(T10)-10)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="59" cm="1">
+      <c r="U10" s="47" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$E$9:$E$38, COLUMN(U10)-10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="59" cm="1">
+      <c r="V10" s="47" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$E$9:$E$38, COLUMN(V10)-10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="59" cm="1">
+      <c r="W10" s="47" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$E$9:$E$38, COLUMN(W10)-10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="59" cm="1">
+      <c r="X10" s="47" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$E$9:$E$38, COLUMN(X10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="59" cm="1">
+      <c r="Y10" s="47" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$E$9:$E$38, COLUMN(Y10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="59" cm="1">
+      <c r="Z10" s="47" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$E$9:$E$38, COLUMN(Z10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="59" cm="1">
+      <c r="AA10" s="47" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$E$9:$E$38, COLUMN(AA10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="59" cm="1">
+      <c r="AB10" s="47" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$E$9:$E$38, COLUMN(AB10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="59" cm="1">
+      <c r="AC10" s="47" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$E$9:$E$38, COLUMN(AC10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="59" cm="1">
+      <c r="AD10" s="47" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$E$9:$E$38, COLUMN(AD10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="59" cm="1">
+      <c r="AE10" s="47" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$E$9:$E$38, COLUMN(AE10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="59" cm="1">
+      <c r="AF10" s="47" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$E$9:$E$38, COLUMN(AF10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="59" cm="1">
+      <c r="AG10" s="47" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$E$9:$E$38, COLUMN(AG10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="59" cm="1">
+      <c r="AH10" s="47" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$E$9:$E$38, COLUMN(AH10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="59" cm="1">
+      <c r="AI10" s="47" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$E$9:$E$38, COLUMN(AI10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="59" cm="1">
+      <c r="AJ10" s="47" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$E$9:$E$38, COLUMN(AJ10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="59" cm="1">
+      <c r="AK10" s="47" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$E$9:$E$38, COLUMN(AK10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="59" cm="1">
+      <c r="AL10" s="47" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$E$9:$E$38, COLUMN(AL10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="59" cm="1">
+      <c r="AM10" s="47" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$E$9:$E$38, COLUMN(AM10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="59" t="e" cm="1">
+      <c r="AN10" s="47" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$E$9:$E$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="47" t="e">
+      <c r="AO10" s="35" t="e">
         <f>AVERAGE(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="48" t="e">
+      <c r="AP10" s="36" t="e">
         <f>STDEV(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="49" t="e">
+      <c r="AQ10" s="37" t="e">
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="48" t="e">
+      <c r="AR10" s="36" t="e">
         <f>MIN(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="48" t="e">
+      <c r="AS10" s="36" t="e">
         <f>MAX(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="36" t="e">
+      <c r="AT10" s="24" t="e">
         <f>IF(AQ10&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-    </row>
-    <row r="11" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="42">
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+    </row>
+    <row r="11" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <v>0.01</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="34">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="34">
         <v>1.49</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="56">
+      <c r="I11" s="34"/>
+      <c r="J11" s="44">
         <v>1.33</v>
       </c>
-      <c r="K11" s="59" cm="1">
+      <c r="K11" s="47" cm="1">
         <f t="array" ref="K11">INDEX(Page2!$F$9:$F$38, COLUMN(K11)-10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="59" cm="1">
+      <c r="L11" s="47" cm="1">
         <f t="array" ref="L11">INDEX(Page2!$F$9:$F$38, COLUMN(L11)-10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="59" cm="1">
+      <c r="M11" s="47" cm="1">
         <f t="array" ref="M11">INDEX(Page2!$F$9:$F$38, COLUMN(M11)-10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="59" cm="1">
+      <c r="N11" s="47" cm="1">
         <f t="array" ref="N11">INDEX(Page2!$F$9:$F$38, COLUMN(N11)-10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="59" cm="1">
+      <c r="O11" s="47" cm="1">
         <f t="array" ref="O11">INDEX(Page2!$F$9:$F$38, COLUMN(O11)-10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="59" cm="1">
+      <c r="P11" s="47" cm="1">
         <f t="array" ref="P11">INDEX(Page2!$F$9:$F$38, COLUMN(P11)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="59" cm="1">
+      <c r="Q11" s="47" cm="1">
         <f t="array" ref="Q11">INDEX(Page2!$F$9:$F$38, COLUMN(Q11)-10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="59" cm="1">
+      <c r="R11" s="47" cm="1">
         <f t="array" ref="R11">INDEX(Page2!$F$9:$F$38, COLUMN(R11)-10)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="59" cm="1">
+      <c r="S11" s="47" cm="1">
         <f t="array" ref="S11">INDEX(Page2!$F$9:$F$38, COLUMN(S11)-10)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="59" cm="1">
+      <c r="T11" s="47" cm="1">
         <f t="array" ref="T11">INDEX(Page2!$F$9:$F$38, COLUMN(T11)-10)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="59" cm="1">
+      <c r="U11" s="47" cm="1">
         <f t="array" ref="U11">INDEX(Page2!$F$9:$F$38, COLUMN(U11)-10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="59" cm="1">
+      <c r="V11" s="47" cm="1">
         <f t="array" ref="V11">INDEX(Page2!$F$9:$F$38, COLUMN(V11)-10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="59" cm="1">
+      <c r="W11" s="47" cm="1">
         <f t="array" ref="W11">INDEX(Page2!$F$9:$F$38, COLUMN(W11)-10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="59" cm="1">
+      <c r="X11" s="47" cm="1">
         <f t="array" ref="X11">INDEX(Page2!$F$9:$F$38, COLUMN(X11)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="59" cm="1">
+      <c r="Y11" s="47" cm="1">
         <f t="array" ref="Y11">INDEX(Page2!$F$9:$F$38, COLUMN(Y11)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="59" cm="1">
+      <c r="Z11" s="47" cm="1">
         <f t="array" ref="Z11">INDEX(Page2!$F$9:$F$38, COLUMN(Z11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="59" cm="1">
+      <c r="AA11" s="47" cm="1">
         <f t="array" ref="AA11">INDEX(Page2!$F$9:$F$38, COLUMN(AA11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="59" cm="1">
+      <c r="AB11" s="47" cm="1">
         <f t="array" ref="AB11">INDEX(Page2!$F$9:$F$38, COLUMN(AB11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="59" cm="1">
+      <c r="AC11" s="47" cm="1">
         <f t="array" ref="AC11">INDEX(Page2!$F$9:$F$38, COLUMN(AC11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="59" cm="1">
+      <c r="AD11" s="47" cm="1">
         <f t="array" ref="AD11">INDEX(Page2!$F$9:$F$38, COLUMN(AD11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="59" cm="1">
+      <c r="AE11" s="47" cm="1">
         <f t="array" ref="AE11">INDEX(Page2!$F$9:$F$38, COLUMN(AE11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="59" cm="1">
+      <c r="AF11" s="47" cm="1">
         <f t="array" ref="AF11">INDEX(Page2!$F$9:$F$38, COLUMN(AF11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="59" cm="1">
+      <c r="AG11" s="47" cm="1">
         <f t="array" ref="AG11">INDEX(Page2!$F$9:$F$38, COLUMN(AG11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="59" cm="1">
+      <c r="AH11" s="47" cm="1">
         <f t="array" ref="AH11">INDEX(Page2!$F$9:$F$38, COLUMN(AH11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="59" cm="1">
+      <c r="AI11" s="47" cm="1">
         <f t="array" ref="AI11">INDEX(Page2!$F$9:$F$38, COLUMN(AI11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="59" cm="1">
+      <c r="AJ11" s="47" cm="1">
         <f t="array" ref="AJ11">INDEX(Page2!$F$9:$F$38, COLUMN(AJ11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="59" cm="1">
+      <c r="AK11" s="47" cm="1">
         <f t="array" ref="AK11">INDEX(Page2!$F$9:$F$38, COLUMN(AK11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="59" cm="1">
+      <c r="AL11" s="47" cm="1">
         <f t="array" ref="AL11">INDEX(Page2!$F$9:$F$38, COLUMN(AL11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="59" cm="1">
+      <c r="AM11" s="47" cm="1">
         <f t="array" ref="AM11">INDEX(Page2!$F$9:$F$38, COLUMN(AM11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="59" t="e" cm="1">
+      <c r="AN11" s="47" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page2!$F$9:$F$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="47" t="e">
+      <c r="AO11" s="35" t="e">
         <f>AVERAGE(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="57" t="e">
+      <c r="AP11" s="45" t="e">
         <f>STDEV(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="49" t="e">
+      <c r="AQ11" s="37" t="e">
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="48" t="e">
+      <c r="AR11" s="36" t="e">
         <f>MIN(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="48" t="e">
+      <c r="AS11" s="36" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="36" t="e">
+      <c r="AT11" s="24" t="e">
         <f>IF(AQ11&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-    </row>
-    <row r="12" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="42">
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+    </row>
+    <row r="12" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <v>1</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <v>0.01</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="46">
         <v>9.6300000000000008</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="46">
         <v>6.13</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="56">
+      <c r="I12" s="46"/>
+      <c r="J12" s="44">
         <v>1.33</v>
       </c>
-      <c r="K12" s="59" cm="1">
+      <c r="K12" s="47" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$G$9:$G$38, COLUMN(K12)-10)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="59" cm="1">
+      <c r="L12" s="47" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$G$9:$G$38, COLUMN(L12)-10)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="59" cm="1">
+      <c r="M12" s="47" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$G$9:$G$38, COLUMN(M12)-10)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="59" cm="1">
+      <c r="N12" s="47" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$G$9:$G$38, COLUMN(N12)-10)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="59" cm="1">
+      <c r="O12" s="47" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$G$9:$G$38, COLUMN(O12)-10)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="59" cm="1">
+      <c r="P12" s="47" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$G$9:$G$38, COLUMN(P12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="59" cm="1">
+      <c r="Q12" s="47" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$G$9:$G$38, COLUMN(Q12)-10)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="59" cm="1">
+      <c r="R12" s="47" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$G$9:$G$38, COLUMN(R12)-10)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="59" cm="1">
+      <c r="S12" s="47" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$G$9:$G$38, COLUMN(S12)-10)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="59" cm="1">
+      <c r="T12" s="47" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$G$9:$G$38, COLUMN(T12)-10)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="59" cm="1">
+      <c r="U12" s="47" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$G$9:$G$38, COLUMN(U12)-10)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="59" cm="1">
+      <c r="V12" s="47" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$G$9:$G$38, COLUMN(V12)-10)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="59" cm="1">
+      <c r="W12" s="47" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$G$9:$G$38, COLUMN(W12)-10)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="59" cm="1">
+      <c r="X12" s="47" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$G$9:$G$38, COLUMN(X12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="59" cm="1">
+      <c r="Y12" s="47" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$G$9:$G$38, COLUMN(Y12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="59" cm="1">
+      <c r="Z12" s="47" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$G$9:$G$38, COLUMN(Z12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="59" cm="1">
+      <c r="AA12" s="47" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$G$9:$G$38, COLUMN(AA12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="59" cm="1">
+      <c r="AB12" s="47" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$G$9:$G$38, COLUMN(AB12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="59" cm="1">
+      <c r="AC12" s="47" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$G$9:$G$38, COLUMN(AC12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="59" cm="1">
+      <c r="AD12" s="47" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$G$9:$G$38, COLUMN(AD12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="59" cm="1">
+      <c r="AE12" s="47" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$G$9:$G$38, COLUMN(AE12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="59" cm="1">
+      <c r="AF12" s="47" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$G$9:$G$38, COLUMN(AF12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="59" cm="1">
+      <c r="AG12" s="47" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$G$9:$G$38, COLUMN(AG12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="59" cm="1">
+      <c r="AH12" s="47" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$G$9:$G$38, COLUMN(AH12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="59" cm="1">
+      <c r="AI12" s="47" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$G$9:$G$38, COLUMN(AI12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="59" cm="1">
+      <c r="AJ12" s="47" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$G$9:$G$38, COLUMN(AJ12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="59" cm="1">
+      <c r="AK12" s="47" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$G$9:$G$38, COLUMN(AK12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="59" cm="1">
+      <c r="AL12" s="47" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$G$9:$G$38, COLUMN(AL12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="59" cm="1">
+      <c r="AM12" s="47" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$G$9:$G$38, COLUMN(AM12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="59" t="e" cm="1">
+      <c r="AN12" s="47" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$G$9:$G$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO12" s="47" t="e">
+      <c r="AO12" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="57" t="e">
+      <c r="AP12" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="49" t="e">
+      <c r="AQ12" s="37" t="e">
         <f>(AO12-H12)/(3*AP12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="48" t="e">
+      <c r="AR12" s="36" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="48" t="e">
+      <c r="AS12" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="36" t="e">
+      <c r="AT12" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-    </row>
-    <row r="13" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="42">
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+    </row>
+    <row r="13" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <v>1</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="33">
         <v>0.1</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="33">
         <v>95.5</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <v>91.5</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>99.5</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="60" cm="1">
+      <c r="K13" s="48" cm="1">
         <f t="array" ref="K13">INDEX(Page2!$H$9:$H$38, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="60" cm="1">
+      <c r="L13" s="48" cm="1">
         <f t="array" ref="L13">INDEX(Page2!$H$9:$H$38, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="60" cm="1">
+      <c r="M13" s="48" cm="1">
         <f t="array" ref="M13">INDEX(Page2!$H$9:$H$38, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="60" cm="1">
+      <c r="N13" s="48" cm="1">
         <f t="array" ref="N13">INDEX(Page2!$H$9:$H$38, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="60" cm="1">
+      <c r="O13" s="48" cm="1">
         <f t="array" ref="O13">INDEX(Page2!$H$9:$H$38, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="60" cm="1">
+      <c r="P13" s="48" cm="1">
         <f t="array" ref="P13">INDEX(Page2!$H$9:$H$38, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="60" cm="1">
+      <c r="Q13" s="48" cm="1">
         <f t="array" ref="Q13">INDEX(Page2!$H$9:$H$38, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="60" cm="1">
+      <c r="R13" s="48" cm="1">
         <f t="array" ref="R13">INDEX(Page2!$H$9:$H$38, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="60" cm="1">
+      <c r="S13" s="48" cm="1">
         <f t="array" ref="S13">INDEX(Page2!$H$9:$H$38, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="60" cm="1">
+      <c r="T13" s="48" cm="1">
         <f t="array" ref="T13">INDEX(Page2!$H$9:$H$38, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="60" cm="1">
+      <c r="U13" s="48" cm="1">
         <f t="array" ref="U13">INDEX(Page2!$H$9:$H$38, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="60" cm="1">
+      <c r="V13" s="48" cm="1">
         <f t="array" ref="V13">INDEX(Page2!$H$9:$H$38, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="60" cm="1">
+      <c r="W13" s="48" cm="1">
         <f t="array" ref="W13">INDEX(Page2!$H$9:$H$38, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="60" cm="1">
+      <c r="X13" s="48" cm="1">
         <f t="array" ref="X13">INDEX(Page2!$H$9:$H$38, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="60" cm="1">
+      <c r="Y13" s="48" cm="1">
         <f t="array" ref="Y13">INDEX(Page2!$H$9:$H$38, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="60" cm="1">
+      <c r="Z13" s="48" cm="1">
         <f t="array" ref="Z13">INDEX(Page2!$H$9:$H$38, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="60" cm="1">
+      <c r="AA13" s="48" cm="1">
         <f t="array" ref="AA13">INDEX(Page2!$H$9:$H$38, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="60" cm="1">
+      <c r="AB13" s="48" cm="1">
         <f t="array" ref="AB13">INDEX(Page2!$H$9:$H$38, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="60" cm="1">
+      <c r="AC13" s="48" cm="1">
         <f t="array" ref="AC13">INDEX(Page2!$H$9:$H$38, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="60" cm="1">
+      <c r="AD13" s="48" cm="1">
         <f t="array" ref="AD13">INDEX(Page2!$H$9:$H$38, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="60" cm="1">
+      <c r="AE13" s="48" cm="1">
         <f t="array" ref="AE13">INDEX(Page2!$H$9:$H$38, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="60" cm="1">
+      <c r="AF13" s="48" cm="1">
         <f t="array" ref="AF13">INDEX(Page2!$H$9:$H$38, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="60" cm="1">
+      <c r="AG13" s="48" cm="1">
         <f t="array" ref="AG13">INDEX(Page2!$H$9:$H$38, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="60" cm="1">
+      <c r="AH13" s="48" cm="1">
         <f t="array" ref="AH13">INDEX(Page2!$H$9:$H$38, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="60" cm="1">
+      <c r="AI13" s="48" cm="1">
         <f t="array" ref="AI13">INDEX(Page2!$H$9:$H$38, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="60" cm="1">
+      <c r="AJ13" s="48" cm="1">
         <f t="array" ref="AJ13">INDEX(Page2!$H$9:$H$38, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="60" cm="1">
+      <c r="AK13" s="48" cm="1">
         <f t="array" ref="AK13">INDEX(Page2!$H$9:$H$38, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="60" cm="1">
+      <c r="AL13" s="48" cm="1">
         <f t="array" ref="AL13">INDEX(Page2!$H$9:$H$38, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="60" cm="1">
+      <c r="AM13" s="48" cm="1">
         <f t="array" ref="AM13">INDEX(Page2!$H$9:$H$38, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="60" t="e" cm="1">
+      <c r="AN13" s="48" t="e" cm="1">
         <f t="array" ref="AN13">INDEX(Page2!$H$9:$H$38, COLUMN(AN13)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO13" s="53" t="e">
+      <c r="AO13" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="48" t="e">
+      <c r="AP13" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ13" s="49" t="e">
+      <c r="AQ13" s="37" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="54" t="e">
+      <c r="AR13" s="42" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS13" s="54" t="e">
+      <c r="AS13" s="42" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT13" s="36" t="e">
+      <c r="AT13" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-    </row>
-    <row r="14" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="42">
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+    </row>
+    <row r="14" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="33">
         <v>1</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="33">
         <v>0.1</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="33">
         <v>-0.4</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="33">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="33">
         <v>3.6</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="60" cm="1">
+      <c r="K14" s="48" cm="1">
         <f t="array" ref="K14">INDEX(Page2!$I$9:$I$38, COLUMN(K14)-10)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="60" cm="1">
+      <c r="L14" s="48" cm="1">
         <f t="array" ref="L14">INDEX(Page2!$I$9:$I$38, COLUMN(L14)-10)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="60" cm="1">
+      <c r="M14" s="48" cm="1">
         <f t="array" ref="M14">INDEX(Page2!$I$9:$I$38, COLUMN(M14)-10)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="60" cm="1">
+      <c r="N14" s="48" cm="1">
         <f t="array" ref="N14">INDEX(Page2!$I$9:$I$38, COLUMN(N14)-10)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="60" cm="1">
+      <c r="O14" s="48" cm="1">
         <f t="array" ref="O14">INDEX(Page2!$I$9:$I$38, COLUMN(O14)-10)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="60" cm="1">
+      <c r="P14" s="48" cm="1">
         <f t="array" ref="P14">INDEX(Page2!$I$9:$I$38, COLUMN(P14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="60" cm="1">
+      <c r="Q14" s="48" cm="1">
         <f t="array" ref="Q14">INDEX(Page2!$I$9:$I$38, COLUMN(Q14)-10)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="60" cm="1">
+      <c r="R14" s="48" cm="1">
         <f t="array" ref="R14">INDEX(Page2!$I$9:$I$38, COLUMN(R14)-10)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="60" cm="1">
+      <c r="S14" s="48" cm="1">
         <f t="array" ref="S14">INDEX(Page2!$I$9:$I$38, COLUMN(S14)-10)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="60" cm="1">
+      <c r="T14" s="48" cm="1">
         <f t="array" ref="T14">INDEX(Page2!$I$9:$I$38, COLUMN(T14)-10)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="60" cm="1">
+      <c r="U14" s="48" cm="1">
         <f t="array" ref="U14">INDEX(Page2!$I$9:$I$38, COLUMN(U14)-10)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="60" cm="1">
+      <c r="V14" s="48" cm="1">
         <f t="array" ref="V14">INDEX(Page2!$I$9:$I$38, COLUMN(V14)-10)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="60" cm="1">
+      <c r="W14" s="48" cm="1">
         <f t="array" ref="W14">INDEX(Page2!$I$9:$I$38, COLUMN(W14)-10)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="60" cm="1">
+      <c r="X14" s="48" cm="1">
         <f t="array" ref="X14">INDEX(Page2!$I$9:$I$38, COLUMN(X14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="60" cm="1">
+      <c r="Y14" s="48" cm="1">
         <f t="array" ref="Y14">INDEX(Page2!$I$9:$I$38, COLUMN(Y14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="60" cm="1">
+      <c r="Z14" s="48" cm="1">
         <f t="array" ref="Z14">INDEX(Page2!$I$9:$I$38, COLUMN(Z14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="60" cm="1">
+      <c r="AA14" s="48" cm="1">
         <f t="array" ref="AA14">INDEX(Page2!$I$9:$I$38, COLUMN(AA14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="60" cm="1">
+      <c r="AB14" s="48" cm="1">
         <f t="array" ref="AB14">INDEX(Page2!$I$9:$I$38, COLUMN(AB14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="60" cm="1">
+      <c r="AC14" s="48" cm="1">
         <f t="array" ref="AC14">INDEX(Page2!$I$9:$I$38, COLUMN(AC14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="60" cm="1">
+      <c r="AD14" s="48" cm="1">
         <f t="array" ref="AD14">INDEX(Page2!$I$9:$I$38, COLUMN(AD14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="60" cm="1">
+      <c r="AE14" s="48" cm="1">
         <f t="array" ref="AE14">INDEX(Page2!$I$9:$I$38, COLUMN(AE14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="60" cm="1">
+      <c r="AF14" s="48" cm="1">
         <f t="array" ref="AF14">INDEX(Page2!$I$9:$I$38, COLUMN(AF14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="60" cm="1">
+      <c r="AG14" s="48" cm="1">
         <f t="array" ref="AG14">INDEX(Page2!$I$9:$I$38, COLUMN(AG14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="60" cm="1">
+      <c r="AH14" s="48" cm="1">
         <f t="array" ref="AH14">INDEX(Page2!$I$9:$I$38, COLUMN(AH14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="60" cm="1">
+      <c r="AI14" s="48" cm="1">
         <f t="array" ref="AI14">INDEX(Page2!$I$9:$I$38, COLUMN(AI14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="60" cm="1">
+      <c r="AJ14" s="48" cm="1">
         <f t="array" ref="AJ14">INDEX(Page2!$I$9:$I$38, COLUMN(AJ14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="60" cm="1">
+      <c r="AK14" s="48" cm="1">
         <f t="array" ref="AK14">INDEX(Page2!$I$9:$I$38, COLUMN(AK14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="60" cm="1">
+      <c r="AL14" s="48" cm="1">
         <f t="array" ref="AL14">INDEX(Page2!$I$9:$I$38, COLUMN(AL14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="60" cm="1">
+      <c r="AM14" s="48" cm="1">
         <f t="array" ref="AM14">INDEX(Page2!$I$9:$I$38, COLUMN(AM14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="60" t="e" cm="1">
+      <c r="AN14" s="48" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page2!$I$9:$I$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="53" t="e">
+      <c r="AO14" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="48" t="e">
+      <c r="AP14" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="49" t="e">
+      <c r="AQ14" s="37" t="e">
         <f>MIN((AO14-H14)/(3*AP14), (I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="54" t="e">
+      <c r="AR14" s="42" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="54" t="e">
+      <c r="AS14" s="42" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT14" s="36" t="e">
+      <c r="AT14" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-    </row>
-    <row r="15" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="42">
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+    </row>
+    <row r="15" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="33">
         <v>1</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="33">
         <v>0.1</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="33">
         <v>-0.5</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="33">
         <v>-4.5</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="33">
         <v>3.5</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="60" cm="1">
+      <c r="K15" s="48" cm="1">
         <f t="array" ref="K15">INDEX(Page2!$J$9:$J$38, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="60" cm="1">
+      <c r="L15" s="48" cm="1">
         <f t="array" ref="L15">INDEX(Page2!$J$9:$J$38, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="60" cm="1">
+      <c r="M15" s="48" cm="1">
         <f t="array" ref="M15">INDEX(Page2!$J$9:$J$38, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="60" cm="1">
+      <c r="N15" s="48" cm="1">
         <f t="array" ref="N15">INDEX(Page2!$J$9:$J$38, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="60" cm="1">
+      <c r="O15" s="48" cm="1">
         <f t="array" ref="O15">INDEX(Page2!$J$9:$J$38, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="60" cm="1">
+      <c r="P15" s="48" cm="1">
         <f t="array" ref="P15">INDEX(Page2!$J$9:$J$38, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="60" cm="1">
+      <c r="Q15" s="48" cm="1">
         <f t="array" ref="Q15">INDEX(Page2!$J$9:$J$38, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="60" cm="1">
+      <c r="R15" s="48" cm="1">
         <f t="array" ref="R15">INDEX(Page2!$J$9:$J$38, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="60" cm="1">
+      <c r="S15" s="48" cm="1">
         <f t="array" ref="S15">INDEX(Page2!$J$9:$J$38, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="60" cm="1">
+      <c r="T15" s="48" cm="1">
         <f t="array" ref="T15">INDEX(Page2!$J$9:$J$38, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="60" cm="1">
+      <c r="U15" s="48" cm="1">
         <f t="array" ref="U15">INDEX(Page2!$J$9:$J$38, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="60" cm="1">
+      <c r="V15" s="48" cm="1">
         <f t="array" ref="V15">INDEX(Page2!$J$9:$J$38, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="60" cm="1">
+      <c r="W15" s="48" cm="1">
         <f t="array" ref="W15">INDEX(Page2!$J$9:$J$38, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="60" cm="1">
+      <c r="X15" s="48" cm="1">
         <f t="array" ref="X15">INDEX(Page2!$J$9:$J$38, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="60" cm="1">
+      <c r="Y15" s="48" cm="1">
         <f t="array" ref="Y15">INDEX(Page2!$J$9:$J$38, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="60" cm="1">
+      <c r="Z15" s="48" cm="1">
         <f t="array" ref="Z15">INDEX(Page2!$J$9:$J$38, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="60" cm="1">
+      <c r="AA15" s="48" cm="1">
         <f t="array" ref="AA15">INDEX(Page2!$J$9:$J$38, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="60" cm="1">
+      <c r="AB15" s="48" cm="1">
         <f t="array" ref="AB15">INDEX(Page2!$J$9:$J$38, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="60" cm="1">
+      <c r="AC15" s="48" cm="1">
         <f t="array" ref="AC15">INDEX(Page2!$J$9:$J$38, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="60" cm="1">
+      <c r="AD15" s="48" cm="1">
         <f t="array" ref="AD15">INDEX(Page2!$J$9:$J$38, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="60" cm="1">
+      <c r="AE15" s="48" cm="1">
         <f t="array" ref="AE15">INDEX(Page2!$J$9:$J$38, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="60" cm="1">
+      <c r="AF15" s="48" cm="1">
         <f t="array" ref="AF15">INDEX(Page2!$J$9:$J$38, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="60" cm="1">
+      <c r="AG15" s="48" cm="1">
         <f t="array" ref="AG15">INDEX(Page2!$J$9:$J$38, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="60" cm="1">
+      <c r="AH15" s="48" cm="1">
         <f t="array" ref="AH15">INDEX(Page2!$J$9:$J$38, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="60" cm="1">
+      <c r="AI15" s="48" cm="1">
         <f t="array" ref="AI15">INDEX(Page2!$J$9:$J$38, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="60" cm="1">
+      <c r="AJ15" s="48" cm="1">
         <f t="array" ref="AJ15">INDEX(Page2!$J$9:$J$38, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="60" cm="1">
+      <c r="AK15" s="48" cm="1">
         <f t="array" ref="AK15">INDEX(Page2!$J$9:$J$38, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="60" cm="1">
+      <c r="AL15" s="48" cm="1">
         <f t="array" ref="AL15">INDEX(Page2!$J$9:$J$38, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="60" cm="1">
+      <c r="AM15" s="48" cm="1">
         <f t="array" ref="AM15">INDEX(Page2!$J$9:$J$38, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="60" t="e" cm="1">
+      <c r="AN15" s="48" t="e" cm="1">
         <f t="array" ref="AN15">INDEX(Page2!$J$9:$J$38, COLUMN(AN15)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO15" s="53" t="e">
+      <c r="AO15" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="48" t="e">
+      <c r="AP15" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="49" t="e">
+      <c r="AQ15" s="37" t="e">
         <f>MIN((AO15-H15)/(3*AP15), (I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="54" t="e">
+      <c r="AR15" s="42" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="54" t="e">
+      <c r="AS15" s="42" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT15" s="36" t="e">
+      <c r="AT15" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-    </row>
-    <row r="16" spans="1:49" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="42">
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+    </row>
+    <row r="16" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="33">
         <v>0.01</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="59" cm="1">
+      <c r="K16" s="47" cm="1">
         <f t="array" ref="K16">INDEX(Page2!$K$9:$K$38, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="59" cm="1">
+      <c r="L16" s="47" cm="1">
         <f t="array" ref="L16">INDEX(Page2!$K$9:$K$38, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="59" cm="1">
+      <c r="M16" s="47" cm="1">
         <f t="array" ref="M16">INDEX(Page2!$K$9:$K$38, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="59" cm="1">
+      <c r="N16" s="47" cm="1">
         <f t="array" ref="N16">INDEX(Page2!$K$9:$K$38, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="59" cm="1">
+      <c r="O16" s="47" cm="1">
         <f t="array" ref="O16">INDEX(Page2!$K$9:$K$38, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="59" cm="1">
+      <c r="P16" s="47" cm="1">
         <f t="array" ref="P16">INDEX(Page2!$K$9:$K$38, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="59" cm="1">
+      <c r="Q16" s="47" cm="1">
         <f t="array" ref="Q16">INDEX(Page2!$K$9:$K$38, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="59" cm="1">
+      <c r="R16" s="47" cm="1">
         <f t="array" ref="R16">INDEX(Page2!$K$9:$K$38, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="59" cm="1">
+      <c r="S16" s="47" cm="1">
         <f t="array" ref="S16">INDEX(Page2!$K$9:$K$38, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="59" cm="1">
+      <c r="T16" s="47" cm="1">
         <f t="array" ref="T16">INDEX(Page2!$K$9:$K$38, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="59" cm="1">
+      <c r="U16" s="47" cm="1">
         <f t="array" ref="U16">INDEX(Page2!$K$9:$K$38, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="59" cm="1">
+      <c r="V16" s="47" cm="1">
         <f t="array" ref="V16">INDEX(Page2!$K$9:$K$38, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="59" cm="1">
+      <c r="W16" s="47" cm="1">
         <f t="array" ref="W16">INDEX(Page2!$K$9:$K$38, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="59" cm="1">
+      <c r="X16" s="47" cm="1">
         <f t="array" ref="X16">INDEX(Page2!$K$9:$K$38, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="59" cm="1">
+      <c r="Y16" s="47" cm="1">
         <f t="array" ref="Y16">INDEX(Page2!$K$9:$K$38, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="59" cm="1">
+      <c r="Z16" s="47" cm="1">
         <f t="array" ref="Z16">INDEX(Page2!$K$9:$K$38, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="59" cm="1">
+      <c r="AA16" s="47" cm="1">
         <f t="array" ref="AA16">INDEX(Page2!$K$9:$K$38, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="59" cm="1">
+      <c r="AB16" s="47" cm="1">
         <f t="array" ref="AB16">INDEX(Page2!$K$9:$K$38, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="59" cm="1">
+      <c r="AC16" s="47" cm="1">
         <f t="array" ref="AC16">INDEX(Page2!$K$9:$K$38, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="59" cm="1">
+      <c r="AD16" s="47" cm="1">
         <f t="array" ref="AD16">INDEX(Page2!$K$9:$K$38, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="59" cm="1">
+      <c r="AE16" s="47" cm="1">
         <f t="array" ref="AE16">INDEX(Page2!$K$9:$K$38, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="59" cm="1">
+      <c r="AF16" s="47" cm="1">
         <f t="array" ref="AF16">INDEX(Page2!$K$9:$K$38, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="59" cm="1">
+      <c r="AG16" s="47" cm="1">
         <f t="array" ref="AG16">INDEX(Page2!$K$9:$K$38, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="59" cm="1">
+      <c r="AH16" s="47" cm="1">
         <f t="array" ref="AH16">INDEX(Page2!$K$9:$K$38, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="59" cm="1">
+      <c r="AI16" s="47" cm="1">
         <f t="array" ref="AI16">INDEX(Page2!$K$9:$K$38, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="59" cm="1">
+      <c r="AJ16" s="47" cm="1">
         <f t="array" ref="AJ16">INDEX(Page2!$K$9:$K$38, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="59" cm="1">
+      <c r="AK16" s="47" cm="1">
         <f t="array" ref="AK16">INDEX(Page2!$K$9:$K$38, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="59" cm="1">
+      <c r="AL16" s="47" cm="1">
         <f t="array" ref="AL16">INDEX(Page2!$K$9:$K$38, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="59" cm="1">
+      <c r="AM16" s="47" cm="1">
         <f t="array" ref="AM16">INDEX(Page2!$K$9:$K$38, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="59" t="e" cm="1">
+      <c r="AN16" s="47" t="e" cm="1">
         <f t="array" ref="AN16">INDEX(Page2!$K$9:$K$38, COLUMN(AN16)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO16" s="47" t="e">
+      <c r="AO16" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP16" s="48" t="e">
+      <c r="AP16" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ16" s="49" t="e">
+      <c r="AQ16" s="37" t="e">
         <f>(I16-AO16)/(3*AP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="48" t="e">
+      <c r="AR16" s="36" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS16" s="48" t="e">
+      <c r="AS16" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT16" s="36" t="e">
+      <c r="AT16" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
     </row>
     <row r="19" spans="41:49">
       <c r="AV19" s="10"/>

--- a/backend/templates/234-18-micro-white.xlsx
+++ b/backend/templates/234-18-micro-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C039C-37ED-4E6A-BC48-19998D5FE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18522DA7-AF63-41B7-91D5-1C883C31EE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,11 +447,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1579,47 +1580,77 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1657,81 +1688,69 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1753,25 +1772,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2324,7 +2325,7 @@
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2337,64 +2338,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="49"/>
       <c r="L1" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="52"/>
       <c r="L2" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
       <c r="K3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:38" s="60" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="56" t="s">
         <v>3</v>
       </c>
@@ -2402,21 +2403,21 @@
       <c r="G4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="138" t="s">
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="138"/>
+      <c r="K4" s="148"/>
       <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:38" s="60" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="61" t="s">
         <v>4</v>
       </c>
@@ -2424,68 +2425,68 @@
       <c r="G5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="139" t="s">
+      <c r="I5" s="147"/>
+      <c r="J5" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="139"/>
+      <c r="K5" s="149"/>
       <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="94"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="95"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
       <c r="L6" s="96"/>
     </row>
     <row r="7" spans="1:38" s="68" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125" t="s">
+      <c r="A7" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="127" t="s">
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="160" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="68" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
       <c r="H8" s="97">
         <v>1</v>
       </c>
@@ -2498,7 +2499,7 @@
       <c r="K8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="128"/>
+      <c r="L8" s="161"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
       <c r="A9" s="98"/>
@@ -2585,8 +2586,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="105"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
       <c r="A14" s="104"/>
@@ -2995,10 +2996,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="105"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="152"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
       <c r="A38" s="104"/>
@@ -3018,11 +3019,11 @@
       <c r="L38" s="103"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="107" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3039,24 +3040,24 @@
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="143" t="e">
+      <c r="H39" s="128" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
       <c r="L39" s="108" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="109">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3073,24 +3074,24 @@
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="141" t="e">
+      <c r="H40" s="126" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
       <c r="L40" s="110">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="111">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3107,13 +3108,13 @@
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="142" t="e">
+      <c r="H41" s="127" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="142"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
       <c r="L41" s="112">
         <f>MAX(L9:L38)</f>
         <v>0</v>
@@ -3123,58 +3124,58 @@
       <c r="A42" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="84"/>
       <c r="F42" s="65"/>
-      <c r="G42" s="118" t="s">
+      <c r="G42" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
       <c r="L42" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="83"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="86"/>
       <c r="E43" s="83"/>
       <c r="F43" s="65"/>
       <c r="G43" s="65"/>
       <c r="H43" s="87"/>
-      <c r="I43" s="147" t="s">
+      <c r="I43" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
     </row>
     <row r="44" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="119" t="s">
+      <c r="A44" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
       <c r="E44" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="117" t="s">
+      <c r="F44" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="117"/>
+      <c r="G44" s="152"/>
     </row>
     <row r="45" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="120" t="s">
+      <c r="A45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="120"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="85"/>
       <c r="D45" s="65"/>
       <c r="E45" s="65"/>
@@ -3182,10 +3183,10 @@
       <c r="G45" s="65"/>
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
-      <c r="J45" s="121" t="s">
+      <c r="J45" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="K45" s="121"/>
+      <c r="K45" s="156"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="B48" s="113"/>
@@ -3194,50 +3195,67 @@
       <c r="J52" s="114"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="140"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="115"/>
+      <c r="L78" s="115"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="115"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="H40:K40"/>
@@ -3254,30 +3272,13 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3336,64 +3337,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
       <c r="J1" s="49"/>
       <c r="K1" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="52"/>
       <c r="K2" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="51" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="J3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" s="60" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="174">
+      <c r="B4" s="166"/>
+      <c r="C4" s="167">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="175"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="56" t="s">
         <v>3</v>
       </c>
@@ -3411,22 +3412,22 @@
       <c r="I4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="176">
+      <c r="J4" s="162">
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="177"/>
+      <c r="K4" s="163"/>
     </row>
     <row r="5" spans="1:11" s="60" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168">
+      <c r="B5" s="173"/>
+      <c r="C5" s="174">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="175"/>
       <c r="E5" s="61" t="s">
         <v>4</v>
       </c>
@@ -3444,18 +3445,18 @@
       <c r="I5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="162">
+      <c r="J5" s="169">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="163"/>
+      <c r="K5" s="170"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="164" t="s">
         <v>121</v>
       </c>
@@ -3467,14 +3468,14 @@
       </c>
       <c r="I6" s="164"/>
       <c r="J6" s="164"/>
-      <c r="K6" s="165"/>
+      <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:11" s="68" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="66" t="s">
         <v>23</v>
       </c>
@@ -4161,11 +4162,11 @@
       <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="74" t="e">
         <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
@@ -4200,11 +4201,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="152"/>
-      <c r="C39" s="153"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="138"/>
       <c r="D39" s="77">
         <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
@@ -4239,11 +4240,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="155"/>
-      <c r="C40" s="156"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="80">
         <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
@@ -4281,57 +4282,57 @@
       <c r="A41" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="84"/>
       <c r="F41" s="65"/>
-      <c r="G41" s="118" t="s">
+      <c r="G41" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="118"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="86"/>
       <c r="E42" s="83"/>
       <c r="F42" s="65"/>
       <c r="G42" s="65"/>
       <c r="H42" s="87"/>
-      <c r="I42" s="147" t="s">
+      <c r="I42" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="147"/>
+      <c r="J42" s="132"/>
       <c r="K42" s="88"/>
     </row>
     <row r="43" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
       <c r="E43" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="117" t="s">
+      <c r="F43" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="117"/>
+      <c r="G43" s="152"/>
     </row>
     <row r="44" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="120"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="85"/>
       <c r="D44" s="65"/>
       <c r="E44" s="65"/>
@@ -4339,21 +4340,13 @@
       <c r="G44" s="65"/>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
-      <c r="J44" s="121" t="s">
+      <c r="J44" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="K44" s="121"/>
+      <c r="K44" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="J44:K44"/>
@@ -4370,6 +4363,14 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D40">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
@@ -4427,12 +4428,12 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>

--- a/backend/templates/234-18-micro-white.xlsx
+++ b/backend/templates/234-18-micro-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18522DA7-AF63-41B7-91D5-1C883C31EE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B0B38B-C61C-4DB4-AA4B-6568C1FBDEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>Sample No.</t>
   </si>
@@ -435,12 +435,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>UTM-IN-01-06A-0001</t>
-  </si>
-  <si>
-    <t>STM-IN-01-06A-0001</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1211,7 +1205,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1269,19 +1263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1388,9 +1369,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1403,9 +1381,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1415,12 +1390,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1497,10 +1466,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1511,9 +1476,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1580,77 +1542,86 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1688,51 +1659,108 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,37 +1772,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -2322,940 +2319,926 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="65" customWidth="1"/>
-    <col min="4" max="7" width="21.42578125" style="65" customWidth="1"/>
-    <col min="8" max="11" width="10.42578125" style="65" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="65" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="3" width="12.85546875" style="59" customWidth="1"/>
+    <col min="4" max="7" width="21.42578125" style="59" customWidth="1"/>
+    <col min="8" max="11" width="10.42578125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="59" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:38" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="140" t="s">
+    <row r="2" spans="1:38" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="54" t="s">
+    <row r="3" spans="1:38" s="47" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="55"/>
-    </row>
-    <row r="4" spans="1:38" s="60" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:38" s="55" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="81"/>
+      <c r="G4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="148" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="148"/>
-      <c r="L4" s="90"/>
-    </row>
-    <row r="5" spans="1:38" s="60" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="145" t="s">
+      <c r="K4" s="140"/>
+      <c r="L4" s="82"/>
+    </row>
+    <row r="5" spans="1:38" s="55" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="61" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="147"/>
-      <c r="J5" s="149" t="s">
+      <c r="I5" s="139"/>
+      <c r="J5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="149"/>
-      <c r="L5" s="93"/>
-    </row>
-    <row r="6" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="119" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="1:38" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="96"/>
-    </row>
-    <row r="7" spans="1:38" s="68" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123" t="s">
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="86"/>
+    </row>
+    <row r="7" spans="1:38" s="60" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A7" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="157" t="s">
+      <c r="H7" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="160" t="s">
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="129" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="68" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="124"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="97">
+    <row r="8" spans="1:38" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="163"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="87">
         <v>1</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I8" s="87">
         <v>2</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="87">
         <v>3</v>
       </c>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="161"/>
+      <c r="L8" s="130"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="102" t="e">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="92" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="AL9" s="68"/>
+      <c r="L9" s="93"/>
+      <c r="AL9" s="60"/>
     </row>
     <row r="10" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="102" t="e">
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="92" t="e">
         <f t="shared" ref="K10:K38" si="0">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="95"/>
     </row>
     <row r="11" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="102" t="e">
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="103"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="102" t="e">
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="102" t="e">
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="105"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
+      <c r="L13" s="95"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="102" t="e">
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="103"/>
+      <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="102" t="e">
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="103"/>
+      <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="102" t="e">
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="105"/>
+      <c r="L16" s="95"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="102" t="e">
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="103"/>
+      <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="102" t="e">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="105"/>
+      <c r="L18" s="95"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="102" t="e">
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="103"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="102" t="e">
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="105"/>
+      <c r="L20" s="95"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="102" t="e">
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="103"/>
+      <c r="L21" s="93"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="102" t="e">
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="105"/>
+      <c r="L22" s="95"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="102" t="e">
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="103"/>
+      <c r="L23" s="93"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="102" t="e">
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="103"/>
+      <c r="L24" s="93"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="102" t="e">
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="105"/>
+      <c r="L25" s="95"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="102" t="e">
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="103"/>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="102" t="e">
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="103"/>
+      <c r="L27" s="93"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="102" t="e">
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="105"/>
+      <c r="L28" s="95"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="102" t="e">
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="103"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="102" t="e">
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="105"/>
+      <c r="L30" s="95"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="102" t="e">
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="103"/>
+      <c r="L31" s="93"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="102" t="e">
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="105"/>
+      <c r="L32" s="95"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="102" t="e">
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="103"/>
+      <c r="L33" s="93"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="102" t="e">
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="95"/>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="102" t="e">
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="103"/>
+      <c r="L35" s="93"/>
     </row>
     <row r="36" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="102" t="e">
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="103"/>
+      <c r="L36" s="93"/>
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="102" t="e">
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="105"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="152"/>
+      <c r="L37" s="95"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="102" t="e">
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="103"/>
+      <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="134"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="107" t="e">
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="97" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="107" t="e">
+      <c r="E39" s="97" t="e">
         <f>AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="107" t="e">
+      <c r="F39" s="97" t="e">
         <f>AVERAGE(F9:F38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="75" t="e">
+      <c r="G39" s="67" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="128" t="e">
+      <c r="H39" s="145" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="108" t="e">
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="98" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="137"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="109">
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="99">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="109">
+      <c r="E40" s="99">
         <f>MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="109">
+      <c r="F40" s="99">
         <f>MIN(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="78">
+      <c r="G40" s="70">
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="126" t="e">
+      <c r="H40" s="143" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="110">
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="100">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="111">
+      <c r="B41" s="157"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="101">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="111">
+      <c r="E41" s="101">
         <f>MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="111">
+      <c r="F41" s="101">
         <f>MAX(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="73">
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="127" t="e">
+      <c r="H41" s="144" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="112">
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="102">
         <f>MAX(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="83" t="s">
+    <row r="42" spans="1:19" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="129"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="84" t="s">
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="153" t="s">
+      <c r="E42" s="76"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="153"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="85" t="s">
+      <c r="H42" s="120"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="83"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="132" t="s">
+    <row r="43" spans="1:19" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="75"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-    </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="154" t="s">
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+    </row>
+    <row r="44" spans="1:19" s="55" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="E44" s="54" t="s">
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="E44" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="152" t="s">
+      <c r="F44" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="152"/>
-    </row>
-    <row r="45" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="155" t="s">
+      <c r="G44" s="119"/>
+    </row>
+    <row r="45" spans="1:19" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="156" t="s">
+      <c r="B45" s="122"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="K45" s="156"/>
+      <c r="K45" s="123"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B48" s="113"/>
+      <c r="B48" s="103"/>
     </row>
     <row r="52" spans="10:10" ht="15.75" customHeight="1">
-      <c r="J52" s="114"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="G76" s="142"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="142"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="142"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="142"/>
+      <c r="J77" s="142"/>
+      <c r="K77" s="142"/>
+      <c r="L77" s="142"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="115"/>
-      <c r="L78" s="115"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="142"/>
+      <c r="L78" s="142"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="142"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="H40:K40"/>
@@ -3272,13 +3255,30 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3316,188 +3316,188 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="1.5748031496062993" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="65" customWidth="1"/>
-    <col min="4" max="11" width="21.42578125" style="65" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="3" width="12.85546875" style="59" customWidth="1"/>
+    <col min="4" max="11" width="21.42578125" style="59" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:11" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="140" t="s">
+    <row r="2" spans="1:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="51" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="54" t="s">
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" s="60" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="165" t="s">
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167">
+      <c r="B4" s="177"/>
+      <c r="C4" s="178">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="179"/>
+      <c r="E4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="115">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="54">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="162">
+      <c r="J4" s="174">
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="163"/>
-    </row>
-    <row r="5" spans="1:11" s="60" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="172" t="s">
+      <c r="K4" s="175"/>
+    </row>
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174">
+      <c r="B5" s="169"/>
+      <c r="C5" s="170">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="175"/>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="171"/>
+      <c r="E5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="116">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="64" t="str">
+      <c r="H5" s="58" t="str">
         <f>Page1!H5</f>
         <v/>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="169">
+      <c r="J5" s="164">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="170"/>
+      <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="164" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="171"/>
-    </row>
-    <row r="7" spans="1:11" s="68" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="66" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+    </row>
+    <row r="7" spans="1:11" s="60" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A7" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="114" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3514,14 +3514,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:11" ht="18.95" customHeight="1">
       <c r="A9" s="13">
@@ -3536,14 +3536,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" ht="18.95" customHeight="1">
       <c r="A10" s="13">
@@ -3558,14 +3558,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" ht="18.95" customHeight="1">
       <c r="A11" s="13">
@@ -3580,14 +3580,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="18.95" customHeight="1">
       <c r="A12" s="13">
@@ -3602,14 +3602,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" ht="18.95" customHeight="1">
       <c r="A13" s="13">
@@ -3624,14 +3624,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="18.95" customHeight="1">
       <c r="A14" s="13">
@@ -3646,14 +3646,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="18.95" customHeight="1">
       <c r="A15" s="13">
@@ -3668,14 +3668,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="18.95" customHeight="1">
       <c r="A16" s="13">
@@ -3690,14 +3690,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" ht="18.95" customHeight="1">
       <c r="A17" s="13">
@@ -3712,14 +3712,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="18.95" customHeight="1">
       <c r="A18" s="13">
@@ -3734,14 +3734,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11" ht="18.95" customHeight="1">
       <c r="A19" s="13">
@@ -3756,14 +3756,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="18.95" customHeight="1">
       <c r="A20" s="13">
@@ -3778,14 +3778,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="18.95" customHeight="1">
       <c r="A21" s="13">
@@ -3800,14 +3800,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" ht="18.95" customHeight="1">
       <c r="A22" s="13">
@@ -3822,14 +3822,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:11" ht="18.95" customHeight="1">
       <c r="A23" s="13">
@@ -3844,14 +3844,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" ht="18.95" customHeight="1">
       <c r="A24" s="13">
@@ -3866,14 +3866,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1">
       <c r="A25" s="13">
@@ -3888,14 +3888,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" ht="18.95" customHeight="1">
       <c r="A26" s="13">
@@ -3910,14 +3910,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" ht="18.95" customHeight="1">
       <c r="A27" s="13">
@@ -3932,14 +3932,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" spans="1:11" ht="18.95" customHeight="1">
       <c r="A28" s="13">
@@ -3954,14 +3954,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" ht="18.95" customHeight="1">
       <c r="A29" s="13">
@@ -3976,14 +3976,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11" ht="18.95" customHeight="1">
       <c r="A30" s="13">
@@ -3998,14 +3998,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" ht="18.95" customHeight="1">
       <c r="A31" s="13">
@@ -4020,14 +4020,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="71"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:11" ht="18.95" customHeight="1">
       <c r="A32" s="13">
@@ -4042,14 +4042,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="71"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" ht="18.95" customHeight="1">
       <c r="A33" s="13">
@@ -4064,14 +4064,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="1:11" ht="18.95" customHeight="1">
       <c r="A34" s="13">
@@ -4086,14 +4086,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="71"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
     </row>
     <row r="35" spans="1:11" ht="18.95" customHeight="1">
       <c r="A35" s="13">
@@ -4108,14 +4108,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
     </row>
     <row r="36" spans="1:11" ht="18.95" customHeight="1">
       <c r="A36" s="13">
@@ -4130,14 +4130,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="73"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="1:11" ht="18.95" customHeight="1" thickBot="1">
       <c r="A37" s="17">
@@ -4152,201 +4152,209 @@
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="71"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="74" t="e">
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="66" t="e">
         <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="74" t="e">
+      <c r="E38" s="66" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="74" t="e">
+      <c r="F38" s="66" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="74" t="e">
+      <c r="G38" s="66" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="75" t="e">
+      <c r="H38" s="67" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="75" t="e">
+      <c r="I38" s="67" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="75" t="e">
+      <c r="J38" s="67" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="76" t="e">
+      <c r="K38" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="77">
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="69">
         <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="77">
+      <c r="E39" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="78">
+      <c r="H39" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="78">
+      <c r="J39" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="79">
+      <c r="K39" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="116" t="s">
+      <c r="A40" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="80">
+      <c r="B40" s="157"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="72">
         <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="81">
+      <c r="H40" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="81">
+      <c r="I40" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="81">
+      <c r="J40" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="82">
+      <c r="K40" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="83" t="s">
+    <row r="41" spans="1:11" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="84" t="s">
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="84"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="153" t="s">
+      <c r="E41" s="76"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="153"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="85" t="s">
+      <c r="H41" s="120"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="83"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="132" t="s">
+    <row r="42" spans="1:11" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="75"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="132"/>
-      <c r="K42" s="88"/>
-    </row>
-    <row r="43" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="154" t="s">
+      <c r="J42" s="149"/>
+      <c r="K42" s="80"/>
+    </row>
+    <row r="43" spans="1:11" s="55" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="E43" s="54" t="s">
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="E43" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="152" t="s">
+      <c r="F43" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="152"/>
-    </row>
-    <row r="44" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="155" t="s">
+      <c r="G43" s="119"/>
+    </row>
+    <row r="44" spans="1:11" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="156" t="s">
+      <c r="B44" s="122"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="K44" s="156"/>
+      <c r="K44" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="J44:K44"/>
@@ -4363,14 +4371,6 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D40">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
@@ -4418,17 +4418,21 @@
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.98425196850393704" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId2"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF90AF6-8B1F-42C4-A7A9-FF6CDF45EBB6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4516,1320 +4520,1320 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="178"/>
-      <c r="B3" s="20">
+      <c r="A3" s="105"/>
+      <c r="B3" s="106">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="21">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108">
         <f>Page1!D9</f>
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="108">
         <f>Page2!D8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="108">
         <f>Page2!F8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="108">
         <f>Page2!E8</f>
         <v>0</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="108">
         <f>Page2!G8</f>
         <v>0</v>
       </c>
-      <c r="I3" s="22" t="e">
+      <c r="I3" s="109" t="e">
         <f>Page1!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="108">
         <f>Page1!E9</f>
         <v>0</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="108">
         <f>Page1!F9</f>
         <v>0</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="110">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="178"/>
-      <c r="B4" s="20">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <f>Page1!D10</f>
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="108">
         <f>Page2!D9</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="108">
         <f>Page2!F9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="108">
         <f>Page2!E9</f>
         <v>0</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="108">
         <f>Page2!G9</f>
         <v>0</v>
       </c>
-      <c r="I4" s="22" t="e">
+      <c r="I4" s="109" t="e">
         <f>Page1!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="108">
         <f>Page1!E10</f>
         <v>0</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="108">
         <f>Page1!F10</f>
         <v>0</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="178"/>
-      <c r="B5" s="20">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="21">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108">
         <f>Page1!D11</f>
         <v>0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="108">
         <f>Page2!D10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="108">
         <f>Page2!F10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="108">
         <f>Page2!E10</f>
         <v>0</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="108">
         <f>Page2!G10</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="e">
+      <c r="I5" s="109" t="e">
         <f>Page1!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="108">
         <f>Page1!E11</f>
         <v>0</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="108">
         <f>Page1!F11</f>
         <v>0</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="178"/>
-      <c r="B6" s="20">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21">
+      <c r="C6" s="107"/>
+      <c r="D6" s="108">
         <f>Page1!D12</f>
         <v>0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="108">
         <f>Page2!D11</f>
         <v>0</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="108">
         <f>Page2!F11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="108">
         <f>Page2!E11</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="108">
         <f>Page2!G11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="22" t="e">
+      <c r="I6" s="109" t="e">
         <f>Page1!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="108">
         <f>Page1!E12</f>
         <v>0</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="108">
         <f>Page1!F12</f>
         <v>0</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="178"/>
-      <c r="B7" s="20">
+      <c r="A7" s="105"/>
+      <c r="B7" s="106">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21">
+      <c r="C7" s="107"/>
+      <c r="D7" s="108">
         <f>Page1!D13</f>
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="108">
         <f>Page2!D12</f>
         <v>0</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="108">
         <f>Page2!F12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="108">
         <f>Page2!E12</f>
         <v>0</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="108">
         <f>Page2!G12</f>
         <v>0</v>
       </c>
-      <c r="I7" s="22" t="e">
+      <c r="I7" s="109" t="e">
         <f>Page1!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="108">
         <f>Page1!E13</f>
         <v>0</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="108">
         <f>Page1!F13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="178"/>
-      <c r="B8" s="20">
+      <c r="A8" s="105"/>
+      <c r="B8" s="106">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108">
         <f>Page1!D14</f>
         <v>0</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="108">
         <f>Page2!D13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="108">
         <f>Page2!F13</f>
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="108">
         <f>Page2!E13</f>
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="108">
         <f>Page2!G13</f>
         <v>0</v>
       </c>
-      <c r="I8" s="22" t="e">
+      <c r="I8" s="109" t="e">
         <f>Page1!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="108">
         <f>Page1!E14</f>
         <v>0</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="108">
         <f>Page1!F14</f>
         <v>0</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="178"/>
-      <c r="B9" s="20">
+      <c r="A9" s="105"/>
+      <c r="B9" s="106">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21">
+      <c r="C9" s="107"/>
+      <c r="D9" s="108">
         <f>Page1!D15</f>
         <v>0</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="108">
         <f>Page2!D14</f>
         <v>0</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="108">
         <f>Page2!F14</f>
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="108">
         <f>Page2!E14</f>
         <v>0</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="108">
         <f>Page2!G14</f>
         <v>0</v>
       </c>
-      <c r="I9" s="22" t="e">
+      <c r="I9" s="109" t="e">
         <f>Page1!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="108">
         <f>Page1!E15</f>
         <v>0</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="108">
         <f>Page1!F15</f>
         <v>0</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="178"/>
-      <c r="B10" s="20">
+      <c r="A10" s="105"/>
+      <c r="B10" s="106">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21">
+      <c r="C10" s="107"/>
+      <c r="D10" s="108">
         <f>Page1!D16</f>
         <v>0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="108">
         <f>Page2!D15</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="108">
         <f>Page2!F15</f>
         <v>0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="108">
         <f>Page2!E15</f>
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="108">
         <f>Page2!G15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="22" t="e">
+      <c r="I10" s="109" t="e">
         <f>Page1!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="108">
         <f>Page1!E16</f>
         <v>0</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="108">
         <f>Page1!F16</f>
         <v>0</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="178"/>
-      <c r="B11" s="20">
+      <c r="A11" s="105"/>
+      <c r="B11" s="106">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21">
+      <c r="C11" s="107"/>
+      <c r="D11" s="108">
         <f>Page1!D17</f>
         <v>0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="108">
         <f>Page2!D16</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="108">
         <f>Page2!F16</f>
         <v>0</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="108">
         <f>Page2!E16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="108">
         <f>Page2!G16</f>
         <v>0</v>
       </c>
-      <c r="I11" s="22" t="e">
+      <c r="I11" s="109" t="e">
         <f>Page1!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="108">
         <f>Page1!E17</f>
         <v>0</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="108">
         <f>Page1!F17</f>
         <v>0</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="178"/>
-      <c r="B12" s="20">
+      <c r="A12" s="105"/>
+      <c r="B12" s="106">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21">
+      <c r="C12" s="107"/>
+      <c r="D12" s="108">
         <f>Page1!D18</f>
         <v>0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="108">
         <f>Page2!D17</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="108">
         <f>Page2!F17</f>
         <v>0</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="108">
         <f>Page2!E17</f>
         <v>0</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="108">
         <f>Page2!G17</f>
         <v>0</v>
       </c>
-      <c r="I12" s="22" t="e">
+      <c r="I12" s="109" t="e">
         <f>Page1!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="108">
         <f>Page1!E18</f>
         <v>0</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="108">
         <f>Page1!F18</f>
         <v>0</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="178"/>
-      <c r="B13" s="20">
+      <c r="A13" s="105"/>
+      <c r="B13" s="106">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21">
+      <c r="C13" s="107"/>
+      <c r="D13" s="108">
         <f>Page1!D19</f>
         <v>0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="108">
         <f>Page2!D18</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="108">
         <f>Page2!F18</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="108">
         <f>Page2!E18</f>
         <v>0</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="108">
         <f>Page2!G18</f>
         <v>0</v>
       </c>
-      <c r="I13" s="22" t="e">
+      <c r="I13" s="109" t="e">
         <f>Page1!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="108">
         <f>Page1!E19</f>
         <v>0</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="108">
         <f>Page1!F19</f>
         <v>0</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="178"/>
-      <c r="B14" s="20">
+      <c r="A14" s="105"/>
+      <c r="B14" s="106">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21">
+      <c r="C14" s="107"/>
+      <c r="D14" s="108">
         <f>Page1!D20</f>
         <v>0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="108">
         <f>Page2!D19</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="108">
         <f>Page2!F19</f>
         <v>0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="108">
         <f>Page2!E19</f>
         <v>0</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="108">
         <f>Page2!G19</f>
         <v>0</v>
       </c>
-      <c r="I14" s="22" t="e">
+      <c r="I14" s="109" t="e">
         <f>Page1!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="108">
         <f>Page1!E20</f>
         <v>0</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="108">
         <f>Page1!F20</f>
         <v>0</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="178"/>
-      <c r="B15" s="20">
+      <c r="A15" s="105"/>
+      <c r="B15" s="106">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21">
+      <c r="C15" s="107"/>
+      <c r="D15" s="108">
         <f>Page1!D21</f>
         <v>0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="108">
         <f>Page2!D20</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="108">
         <f>Page2!F20</f>
         <v>0</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="108">
         <f>Page2!E20</f>
         <v>0</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="108">
         <f>Page2!G20</f>
         <v>0</v>
       </c>
-      <c r="I15" s="22" t="e">
+      <c r="I15" s="109" t="e">
         <f>Page1!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="108">
         <f>Page1!E21</f>
         <v>0</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="108">
         <f>Page1!F21</f>
         <v>0</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="178"/>
-      <c r="B16" s="20">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21">
+      <c r="C16" s="107"/>
+      <c r="D16" s="108">
         <f>Page1!D22</f>
         <v>0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="108">
         <f>Page2!D21</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="108">
         <f>Page2!F21</f>
         <v>0</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="108">
         <f>Page2!E21</f>
         <v>0</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="108">
         <f>Page2!G21</f>
         <v>0</v>
       </c>
-      <c r="I16" s="22" t="e">
+      <c r="I16" s="109" t="e">
         <f>Page1!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="108">
         <f>Page1!E22</f>
         <v>0</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="108">
         <f>Page1!F22</f>
         <v>0</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="178"/>
-      <c r="B17" s="20">
+      <c r="A17" s="105"/>
+      <c r="B17" s="106">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21">
+      <c r="C17" s="107"/>
+      <c r="D17" s="108">
         <f>Page1!D23</f>
         <v>0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="108">
         <f>Page2!D22</f>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="108">
         <f>Page2!F22</f>
         <v>0</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="108">
         <f>Page2!E22</f>
         <v>0</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="108">
         <f>Page2!G22</f>
         <v>0</v>
       </c>
-      <c r="I17" s="22" t="e">
+      <c r="I17" s="109" t="e">
         <f>Page1!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="108">
         <f>Page1!E23</f>
         <v>0</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="108">
         <f>Page1!F23</f>
         <v>0</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="178"/>
-      <c r="B18" s="20">
+      <c r="A18" s="105"/>
+      <c r="B18" s="106">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21">
+      <c r="C18" s="107"/>
+      <c r="D18" s="108">
         <f>Page1!D24</f>
         <v>0</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="108">
         <f>Page2!D23</f>
         <v>0</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="108">
         <f>Page2!F23</f>
         <v>0</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="108">
         <f>Page2!E23</f>
         <v>0</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="108">
         <f>Page2!G23</f>
         <v>0</v>
       </c>
-      <c r="I18" s="22" t="e">
+      <c r="I18" s="109" t="e">
         <f>Page1!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="108">
         <f>Page1!E24</f>
         <v>0</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="108">
         <f>Page1!F24</f>
         <v>0</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="178"/>
-      <c r="B19" s="20">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21">
+      <c r="C19" s="107"/>
+      <c r="D19" s="108">
         <f>Page1!D25</f>
         <v>0</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="108">
         <f>Page2!D24</f>
         <v>0</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="108">
         <f>Page2!F24</f>
         <v>0</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="108">
         <f>Page2!E24</f>
         <v>0</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="108">
         <f>Page2!G24</f>
         <v>0</v>
       </c>
-      <c r="I19" s="22" t="e">
+      <c r="I19" s="109" t="e">
         <f>Page1!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="108">
         <f>Page1!E25</f>
         <v>0</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="108">
         <f>Page1!F25</f>
         <v>0</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="178"/>
-      <c r="B20" s="20">
+      <c r="A20" s="105"/>
+      <c r="B20" s="106">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="21">
+      <c r="C20" s="107"/>
+      <c r="D20" s="108">
         <f>Page1!D26</f>
         <v>0</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="108">
         <f>Page2!D25</f>
         <v>0</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="108">
         <f>Page2!F25</f>
         <v>0</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="108">
         <f>Page2!E25</f>
         <v>0</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="108">
         <f>Page2!G25</f>
         <v>0</v>
       </c>
-      <c r="I20" s="22" t="e">
+      <c r="I20" s="109" t="e">
         <f>Page1!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="108">
         <f>Page1!E26</f>
         <v>0</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="108">
         <f>Page1!F26</f>
         <v>0</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="178"/>
-      <c r="B21" s="20">
+      <c r="A21" s="105"/>
+      <c r="B21" s="106">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21">
+      <c r="C21" s="107"/>
+      <c r="D21" s="108">
         <f>Page1!D27</f>
         <v>0</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="108">
         <f>Page2!D26</f>
         <v>0</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="108">
         <f>Page2!F26</f>
         <v>0</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="108">
         <f>Page2!E26</f>
         <v>0</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="108">
         <f>Page2!G26</f>
         <v>0</v>
       </c>
-      <c r="I21" s="22" t="e">
+      <c r="I21" s="109" t="e">
         <f>Page1!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="108">
         <f>Page1!E27</f>
         <v>0</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="108">
         <f>Page1!F27</f>
         <v>0</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="178"/>
-      <c r="B22" s="20">
+      <c r="A22" s="105"/>
+      <c r="B22" s="106">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21">
+      <c r="C22" s="107"/>
+      <c r="D22" s="108">
         <f>Page1!D28</f>
         <v>0</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="108">
         <f>Page2!D27</f>
         <v>0</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="108">
         <f>Page2!F27</f>
         <v>0</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="108">
         <f>Page2!E27</f>
         <v>0</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="108">
         <f>Page2!G27</f>
         <v>0</v>
       </c>
-      <c r="I22" s="22" t="e">
+      <c r="I22" s="109" t="e">
         <f>Page1!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="108">
         <f>Page1!E28</f>
         <v>0</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="108">
         <f>Page1!F28</f>
         <v>0</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="178"/>
-      <c r="B23" s="20">
+      <c r="A23" s="105"/>
+      <c r="B23" s="106">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="21">
+      <c r="C23" s="107"/>
+      <c r="D23" s="108">
         <f>Page1!D29</f>
         <v>0</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="108">
         <f>Page2!D28</f>
         <v>0</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="108">
         <f>Page2!F28</f>
         <v>0</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="108">
         <f>Page2!E28</f>
         <v>0</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="108">
         <f>Page2!G28</f>
         <v>0</v>
       </c>
-      <c r="I23" s="22" t="e">
+      <c r="I23" s="109" t="e">
         <f>Page1!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="108">
         <f>Page1!E29</f>
         <v>0</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="108">
         <f>Page1!F29</f>
         <v>0</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="178"/>
-      <c r="B24" s="20">
+      <c r="A24" s="105"/>
+      <c r="B24" s="106">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="21">
+      <c r="C24" s="107"/>
+      <c r="D24" s="108">
         <f>Page1!D30</f>
         <v>0</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="108">
         <f>Page2!D29</f>
         <v>0</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="108">
         <f>Page2!F29</f>
         <v>0</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="108">
         <f>Page2!E29</f>
         <v>0</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="108">
         <f>Page2!G29</f>
         <v>0</v>
       </c>
-      <c r="I24" s="22" t="e">
+      <c r="I24" s="109" t="e">
         <f>Page1!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="108">
         <f>Page1!E30</f>
         <v>0</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="108">
         <f>Page1!F30</f>
         <v>0</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="178"/>
-      <c r="B25" s="20">
+      <c r="A25" s="105"/>
+      <c r="B25" s="106">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="21">
+      <c r="C25" s="107"/>
+      <c r="D25" s="108">
         <f>Page1!D31</f>
         <v>0</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="108">
         <f>Page2!D30</f>
         <v>0</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="108">
         <f>Page2!F30</f>
         <v>0</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="108">
         <f>Page2!E30</f>
         <v>0</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="108">
         <f>Page2!G30</f>
         <v>0</v>
       </c>
-      <c r="I25" s="22" t="e">
+      <c r="I25" s="109" t="e">
         <f>Page1!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="108">
         <f>Page1!E31</f>
         <v>0</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="108">
         <f>Page1!F31</f>
         <v>0</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="178"/>
-      <c r="B26" s="20">
+      <c r="A26" s="105"/>
+      <c r="B26" s="106">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="21">
+      <c r="C26" s="107"/>
+      <c r="D26" s="108">
         <f>Page1!D32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="108">
         <f>Page2!D31</f>
         <v>0</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="108">
         <f>Page2!F31</f>
         <v>0</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="108">
         <f>Page2!E31</f>
         <v>0</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="108">
         <f>Page2!G31</f>
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="e">
+      <c r="I26" s="109" t="e">
         <f>Page1!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="108">
         <f>Page1!E32</f>
         <v>0</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="108">
         <f>Page1!F32</f>
         <v>0</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="178"/>
-      <c r="B27" s="20">
+      <c r="A27" s="105"/>
+      <c r="B27" s="106">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="21">
+      <c r="C27" s="107"/>
+      <c r="D27" s="108">
         <f>Page1!D33</f>
         <v>0</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="108">
         <f>Page2!D32</f>
         <v>0</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="108">
         <f>Page2!F32</f>
         <v>0</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="108">
         <f>Page2!E32</f>
         <v>0</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="108">
         <f>Page2!G32</f>
         <v>0</v>
       </c>
-      <c r="I27" s="22" t="e">
+      <c r="I27" s="109" t="e">
         <f>Page1!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="108">
         <f>Page1!E33</f>
         <v>0</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="108">
         <f>Page1!F33</f>
         <v>0</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="178"/>
-      <c r="B28" s="20">
+      <c r="A28" s="105"/>
+      <c r="B28" s="106">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="21">
+      <c r="C28" s="107"/>
+      <c r="D28" s="108">
         <f>Page1!D34</f>
         <v>0</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="108">
         <f>Page2!D33</f>
         <v>0</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="108">
         <f>Page2!F33</f>
         <v>0</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="108">
         <f>Page2!E33</f>
         <v>0</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="108">
         <f>Page2!G33</f>
         <v>0</v>
       </c>
-      <c r="I28" s="22" t="e">
+      <c r="I28" s="109" t="e">
         <f>Page1!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="108">
         <f>Page1!E34</f>
         <v>0</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="108">
         <f>Page1!F34</f>
         <v>0</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="178"/>
-      <c r="B29" s="20">
+      <c r="A29" s="105"/>
+      <c r="B29" s="106">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="21">
+      <c r="C29" s="107"/>
+      <c r="D29" s="108">
         <f>Page1!D35</f>
         <v>0</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="108">
         <f>Page2!D34</f>
         <v>0</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="108">
         <f>Page2!F34</f>
         <v>0</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="108">
         <f>Page2!E34</f>
         <v>0</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="108">
         <f>Page2!G34</f>
         <v>0</v>
       </c>
-      <c r="I29" s="22" t="e">
+      <c r="I29" s="109" t="e">
         <f>Page1!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="108">
         <f>Page1!E35</f>
         <v>0</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="108">
         <f>Page1!F35</f>
         <v>0</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="178"/>
-      <c r="B30" s="20">
+      <c r="A30" s="105"/>
+      <c r="B30" s="106">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="21">
+      <c r="C30" s="107"/>
+      <c r="D30" s="108">
         <f>Page1!D36</f>
         <v>0</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="108">
         <f>Page2!D35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="108">
         <f>Page2!F35</f>
         <v>0</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="108">
         <f>Page2!E35</f>
         <v>0</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="108">
         <f>Page2!G35</f>
         <v>0</v>
       </c>
-      <c r="I30" s="22" t="e">
+      <c r="I30" s="109" t="e">
         <f>Page1!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="108">
         <f>Page1!E36</f>
         <v>0</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="108">
         <f>Page1!F36</f>
         <v>0</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="178"/>
-      <c r="B31" s="20">
+      <c r="A31" s="105"/>
+      <c r="B31" s="106">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="21">
+      <c r="C31" s="107"/>
+      <c r="D31" s="108">
         <f>Page1!D37</f>
         <v>0</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="108">
         <f>Page2!D36</f>
         <v>0</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="108">
         <f>Page2!F36</f>
         <v>0</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="108">
         <f>Page2!E36</f>
         <v>0</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="108">
         <f>Page2!G36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="22" t="e">
+      <c r="I31" s="109" t="e">
         <f>Page1!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="108">
         <f>Page1!E37</f>
         <v>0</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="108">
         <f>Page1!F37</f>
         <v>0</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="178"/>
-      <c r="B32" s="20">
+      <c r="A32" s="105"/>
+      <c r="B32" s="106">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="21">
+      <c r="C32" s="107"/>
+      <c r="D32" s="108">
         <f>Page1!D38</f>
         <v>0</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="108">
         <f>Page2!D37</f>
         <v>0</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="108">
         <f>Page2!F37</f>
         <v>0</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="108">
         <f>Page2!E37</f>
         <v>0</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="108">
         <f>Page2!G37</f>
         <v>0</v>
       </c>
-      <c r="I32" s="22" t="e">
+      <c r="I32" s="109" t="e">
         <f>Page1!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="108">
         <f>Page1!E38</f>
         <v>0</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="108">
         <f>Page1!F38</f>
         <v>0</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="107">
         <f>L3</f>
         <v>0</v>
       </c>
@@ -5893,11 +5897,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AW199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5956,2641 +5964,2641 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="5"/>
     </row>
-    <row r="2" spans="1:49" s="28" customFormat="1" ht="24">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:49" s="24" customFormat="1" ht="24">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="21">
         <v>1</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="21">
         <v>2</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="21">
         <v>3</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="21">
         <v>4</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="21">
         <v>5</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="21">
         <v>6</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="21">
         <v>7</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="21">
         <v>8</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="21">
         <v>9</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="21">
         <v>10</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="21">
         <v>11</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="21">
         <v>12</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="21">
         <v>13</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="21">
         <v>14</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="21">
         <v>15</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="21">
         <v>16</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="21">
         <v>17</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="21">
         <v>18</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="21">
         <v>19</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AD2" s="21">
         <v>20</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AE2" s="21">
         <v>21</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AF2" s="21">
         <v>22</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AG2" s="21">
         <v>23</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AH2" s="21">
         <v>24</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AI2" s="21">
         <v>25</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AJ2" s="21">
         <v>26</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AK2" s="21">
         <v>27</v>
       </c>
-      <c r="AL2" s="25">
+      <c r="AL2" s="21">
         <v>28</v>
       </c>
-      <c r="AM2" s="25">
+      <c r="AM2" s="21">
         <v>29</v>
       </c>
-      <c r="AN2" s="25">
+      <c r="AN2" s="21">
         <v>30</v>
       </c>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AP2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AR2" s="26" t="s">
+      <c r="AR2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AS2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="27" t="s">
+      <c r="AT2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-    </row>
-    <row r="3" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="30">
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+    </row>
+    <row r="3" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <v>0.01</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="30">
         <v>1.33</v>
       </c>
-      <c r="K3" s="47" cm="1">
+      <c r="K3" s="43" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$D$9:$D$38, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="47" cm="1">
+      <c r="L3" s="43" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$D$9:$D$38, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="47" cm="1">
+      <c r="M3" s="43" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$D$9:$D$38, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="47" cm="1">
+      <c r="N3" s="43" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$D$9:$D$38, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="47" cm="1">
+      <c r="O3" s="43" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$D$9:$D$38, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="47" cm="1">
+      <c r="P3" s="43" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$D$9:$D$38, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="47" cm="1">
+      <c r="Q3" s="43" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$D$9:$D$38, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="47" cm="1">
+      <c r="R3" s="43" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$D$9:$D$38, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="47" cm="1">
+      <c r="S3" s="43" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$D$9:$D$38, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="47" cm="1">
+      <c r="T3" s="43" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$D$9:$D$38, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="47" cm="1">
+      <c r="U3" s="43" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$D$9:$D$38, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="47" cm="1">
+      <c r="V3" s="43" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$D$9:$D$38, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="47" cm="1">
+      <c r="W3" s="43" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$D$9:$D$38, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="47" cm="1">
+      <c r="X3" s="43" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$D$9:$D$38, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="47" cm="1">
+      <c r="Y3" s="43" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$D$9:$D$38, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="47" cm="1">
+      <c r="Z3" s="43" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$D$9:$D$38, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="47" cm="1">
+      <c r="AA3" s="43" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$D$9:$D$38, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="47" cm="1">
+      <c r="AB3" s="43" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$D$9:$D$38, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="47" cm="1">
+      <c r="AC3" s="43" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$D$9:$D$38, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="47" cm="1">
+      <c r="AD3" s="43" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$D$9:$D$38, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="47" cm="1">
+      <c r="AE3" s="43" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$D$9:$D$38, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="47" cm="1">
+      <c r="AF3" s="43" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$D$9:$D$38, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="47" cm="1">
+      <c r="AG3" s="43" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$D$9:$D$38, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="47" cm="1">
+      <c r="AH3" s="43" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$D$9:$D$38, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="47" cm="1">
+      <c r="AI3" s="43" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$D$9:$D$38, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="47" cm="1">
+      <c r="AJ3" s="43" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$D$9:$D$38, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="47" cm="1">
+      <c r="AK3" s="43" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$D$9:$D$38, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="47" cm="1">
+      <c r="AL3" s="43" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$D$9:$D$38, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="47" cm="1">
+      <c r="AM3" s="43" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$D$9:$D$38, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="47" cm="1">
+      <c r="AN3" s="43" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$D$9:$D$38, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="35">
+      <c r="AO3" s="31">
         <f>AVERAGE(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AP3" s="32">
         <f t="shared" ref="AP3:AP16" si="0">STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="37" t="e">
+      <c r="AQ3" s="33" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="36">
+      <c r="AR3" s="32">
         <f t="shared" ref="AR3:AR16" si="1">MIN(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="36">
+      <c r="AS3" s="32">
         <f t="shared" ref="AS3:AS16" si="2">MAX(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="24" t="e">
+      <c r="AT3" s="20" t="e">
         <f>IF(AQ3&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-    </row>
-    <row r="4" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="30">
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+    </row>
+    <row r="4" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="29">
         <v>1</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="29">
         <v>0.01</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="47" cm="1">
+      <c r="K4" s="43" cm="1">
         <f t="array" ref="K4">INDEX(Page1!$E$9:$E$38, COLUMN(K4)-10)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="47" cm="1">
+      <c r="L4" s="43" cm="1">
         <f t="array" ref="L4">INDEX(Page1!$E$9:$E$38, COLUMN(L4)-10)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="47" cm="1">
+      <c r="M4" s="43" cm="1">
         <f t="array" ref="M4">INDEX(Page1!$E$9:$E$38, COLUMN(M4)-10)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="47" cm="1">
+      <c r="N4" s="43" cm="1">
         <f t="array" ref="N4">INDEX(Page1!$E$9:$E$38, COLUMN(N4)-10)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="47" cm="1">
+      <c r="O4" s="43" cm="1">
         <f t="array" ref="O4">INDEX(Page1!$E$9:$E$38, COLUMN(O4)-10)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="47" cm="1">
+      <c r="P4" s="43" cm="1">
         <f t="array" ref="P4">INDEX(Page1!$E$9:$E$38, COLUMN(P4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="47" cm="1">
+      <c r="Q4" s="43" cm="1">
         <f t="array" ref="Q4">INDEX(Page1!$E$9:$E$38, COLUMN(Q4)-10)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="47" cm="1">
+      <c r="R4" s="43" cm="1">
         <f t="array" ref="R4">INDEX(Page1!$E$9:$E$38, COLUMN(R4)-10)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="47" cm="1">
+      <c r="S4" s="43" cm="1">
         <f t="array" ref="S4">INDEX(Page1!$E$9:$E$38, COLUMN(S4)-10)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="47" cm="1">
+      <c r="T4" s="43" cm="1">
         <f t="array" ref="T4">INDEX(Page1!$E$9:$E$38, COLUMN(T4)-10)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="47" cm="1">
+      <c r="U4" s="43" cm="1">
         <f t="array" ref="U4">INDEX(Page1!$E$9:$E$38, COLUMN(U4)-10)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="47" cm="1">
+      <c r="V4" s="43" cm="1">
         <f t="array" ref="V4">INDEX(Page1!$E$9:$E$38, COLUMN(V4)-10)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="47" cm="1">
+      <c r="W4" s="43" cm="1">
         <f t="array" ref="W4">INDEX(Page1!$E$9:$E$38, COLUMN(W4)-10)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="47" cm="1">
+      <c r="X4" s="43" cm="1">
         <f t="array" ref="X4">INDEX(Page1!$E$9:$E$38, COLUMN(X4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="47" cm="1">
+      <c r="Y4" s="43" cm="1">
         <f t="array" ref="Y4">INDEX(Page1!$E$9:$E$38, COLUMN(Y4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="47" cm="1">
+      <c r="Z4" s="43" cm="1">
         <f t="array" ref="Z4">INDEX(Page1!$E$9:$E$38, COLUMN(Z4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="47" cm="1">
+      <c r="AA4" s="43" cm="1">
         <f t="array" ref="AA4">INDEX(Page1!$E$9:$E$38, COLUMN(AA4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="47" cm="1">
+      <c r="AB4" s="43" cm="1">
         <f t="array" ref="AB4">INDEX(Page1!$E$9:$E$38, COLUMN(AB4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="47" cm="1">
+      <c r="AC4" s="43" cm="1">
         <f t="array" ref="AC4">INDEX(Page1!$E$9:$E$38, COLUMN(AC4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="47" cm="1">
+      <c r="AD4" s="43" cm="1">
         <f t="array" ref="AD4">INDEX(Page1!$E$9:$E$38, COLUMN(AD4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="47" cm="1">
+      <c r="AE4" s="43" cm="1">
         <f t="array" ref="AE4">INDEX(Page1!$E$9:$E$38, COLUMN(AE4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="47" cm="1">
+      <c r="AF4" s="43" cm="1">
         <f t="array" ref="AF4">INDEX(Page1!$E$9:$E$38, COLUMN(AF4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="47" cm="1">
+      <c r="AG4" s="43" cm="1">
         <f t="array" ref="AG4">INDEX(Page1!$E$9:$E$38, COLUMN(AG4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="47" cm="1">
+      <c r="AH4" s="43" cm="1">
         <f t="array" ref="AH4">INDEX(Page1!$E$9:$E$38, COLUMN(AH4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="47" cm="1">
+      <c r="AI4" s="43" cm="1">
         <f t="array" ref="AI4">INDEX(Page1!$E$9:$E$38, COLUMN(AI4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="47" cm="1">
+      <c r="AJ4" s="43" cm="1">
         <f t="array" ref="AJ4">INDEX(Page1!$E$9:$E$38, COLUMN(AJ4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="47" cm="1">
+      <c r="AK4" s="43" cm="1">
         <f t="array" ref="AK4">INDEX(Page1!$E$9:$E$38, COLUMN(AK4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="47" cm="1">
+      <c r="AL4" s="43" cm="1">
         <f t="array" ref="AL4">INDEX(Page1!$E$9:$E$38, COLUMN(AL4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="47" cm="1">
+      <c r="AM4" s="43" cm="1">
         <f t="array" ref="AM4">INDEX(Page1!$E$9:$E$38, COLUMN(AM4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN4" s="47" cm="1">
+      <c r="AN4" s="43" cm="1">
         <f t="array" ref="AN4">INDEX(Page1!$E$9:$E$38, COLUMN(AN4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO4" s="35">
+      <c r="AO4" s="31">
         <f>AVERAGE(K4:AN4)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="36">
+      <c r="AP4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="37" t="e">
+      <c r="AQ4" s="33" t="e">
         <f>MIN((AO4-H4)/(3*AP4), (I4-AO4)/(3*AP4))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="36">
+      <c r="AR4" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="36">
+      <c r="AS4" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT4" s="24" t="e">
+      <c r="AT4" s="20" t="e">
         <f>IF(AQ4&gt;=1,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-    </row>
-    <row r="5" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="30">
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+    </row>
+    <row r="5" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="29">
         <v>1</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="29">
         <v>0.01</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="30">
         <v>0.35</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="47" cm="1">
+      <c r="K5" s="43" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$F$9:$F$38, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="47" cm="1">
+      <c r="L5" s="43" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$F$9:$F$38, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="47" cm="1">
+      <c r="M5" s="43" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$F$9:$F$38, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="47" cm="1">
+      <c r="N5" s="43" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$F$9:$F$38, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="47" cm="1">
+      <c r="O5" s="43" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$F$9:$F$38, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="47" cm="1">
+      <c r="P5" s="43" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$F$9:$F$38, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="47" cm="1">
+      <c r="Q5" s="43" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$F$9:$F$38, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="47" cm="1">
+      <c r="R5" s="43" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$F$9:$F$38, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="47" cm="1">
+      <c r="S5" s="43" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$F$9:$F$38, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="47" cm="1">
+      <c r="T5" s="43" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$F$9:$F$38, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="47" cm="1">
+      <c r="U5" s="43" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$F$9:$F$38, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="47" cm="1">
+      <c r="V5" s="43" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$F$9:$F$38, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="47" cm="1">
+      <c r="W5" s="43" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$F$9:$F$38, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="47" cm="1">
+      <c r="X5" s="43" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$F$9:$F$38, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="47" cm="1">
+      <c r="Y5" s="43" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$F$9:$F$38, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="47" cm="1">
+      <c r="Z5" s="43" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$F$9:$F$38, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="47" cm="1">
+      <c r="AA5" s="43" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$F$9:$F$38, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="47" cm="1">
+      <c r="AB5" s="43" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$F$9:$F$38, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="47" cm="1">
+      <c r="AC5" s="43" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$F$9:$F$38, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="47" cm="1">
+      <c r="AD5" s="43" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$F$9:$F$38, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="47" cm="1">
+      <c r="AE5" s="43" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$F$9:$F$38, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="47" cm="1">
+      <c r="AF5" s="43" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$F$9:$F$38, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="47" cm="1">
+      <c r="AG5" s="43" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$F$9:$F$38, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="47" cm="1">
+      <c r="AH5" s="43" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$F$9:$F$38, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="47" cm="1">
+      <c r="AI5" s="43" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$F$9:$F$38, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="47" cm="1">
+      <c r="AJ5" s="43" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$F$9:$F$38, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="47" cm="1">
+      <c r="AK5" s="43" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$F$9:$F$38, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="47" cm="1">
+      <c r="AL5" s="43" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$F$9:$F$38, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="47" cm="1">
+      <c r="AM5" s="43" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$F$9:$F$38, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="47" cm="1">
+      <c r="AN5" s="43" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$F$9:$F$38, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AO5" s="31">
         <f t="shared" ref="AO5:AO16" si="3">AVERAGE(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="36">
+      <c r="AP5" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ5" s="37" t="e">
+      <c r="AQ5" s="33" t="e">
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="36">
+      <c r="AR5" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="36">
+      <c r="AS5" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT5" s="24" t="e">
+      <c r="AT5" s="20" t="e">
         <f>IF(AQ5&gt;=1,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-    </row>
-    <row r="6" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="30">
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+    </row>
+    <row r="6" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="29">
         <v>1</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="29">
         <v>0.1</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="48" cm="1">
+      <c r="K6" s="44" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$G$9:$G$38, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="48" cm="1">
+      <c r="L6" s="44" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$G$9:$G$38, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="48" cm="1">
+      <c r="M6" s="44" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$G$9:$G$38, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="48" cm="1">
+      <c r="N6" s="44" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$G$9:$G$38, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="48" cm="1">
+      <c r="O6" s="44" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$G$9:$G$38, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="48" cm="1">
+      <c r="P6" s="44" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$G$9:$G$38, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="48" cm="1">
+      <c r="Q6" s="44" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$G$9:$G$38, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="48" cm="1">
+      <c r="R6" s="44" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$G$9:$G$38, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="48" cm="1">
+      <c r="S6" s="44" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$G$9:$G$38, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="48" cm="1">
+      <c r="T6" s="44" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$G$9:$G$38, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="48" cm="1">
+      <c r="U6" s="44" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$G$9:$G$38, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="48" cm="1">
+      <c r="V6" s="44" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$G$9:$G$38, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="48" cm="1">
+      <c r="W6" s="44" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$G$9:$G$38, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="48" cm="1">
+      <c r="X6" s="44" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$G$9:$G$38, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="48" cm="1">
+      <c r="Y6" s="44" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$G$9:$G$38, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="48" cm="1">
+      <c r="Z6" s="44" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$G$9:$G$38, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="48" cm="1">
+      <c r="AA6" s="44" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$G$9:$G$38, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="48" cm="1">
+      <c r="AB6" s="44" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$G$9:$G$38, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="48" cm="1">
+      <c r="AC6" s="44" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$G$9:$G$38, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="48" cm="1">
+      <c r="AD6" s="44" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$G$9:$G$38, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="48" cm="1">
+      <c r="AE6" s="44" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$G$9:$G$38, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="48" cm="1">
+      <c r="AF6" s="44" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$G$9:$G$38, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="48" cm="1">
+      <c r="AG6" s="44" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$G$9:$G$38, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="48" cm="1">
+      <c r="AH6" s="44" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$G$9:$G$38, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="48" cm="1">
+      <c r="AI6" s="44" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$G$9:$G$38, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="48" cm="1">
+      <c r="AJ6" s="44" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$G$9:$G$38, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="48" cm="1">
+      <c r="AK6" s="44" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$G$9:$G$38, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="48" cm="1">
+      <c r="AL6" s="44" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$G$9:$G$38, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="48" cm="1">
+      <c r="AM6" s="44" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$G$9:$G$38, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="48" cm="1">
+      <c r="AN6" s="44" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$G$9:$G$38, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="41">
+      <c r="AO6" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="36">
+      <c r="AP6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="37" t="e">
+      <c r="AQ6" s="33" t="e">
         <f>MIN((AO6-H6)/(3*AP6), (I6-AO6)/(3*AP6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="42">
+      <c r="AR6" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="42">
+      <c r="AS6" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT6" s="24" t="e">
+      <c r="AT6" s="20" t="e">
         <f t="shared" ref="AT6:AT16" si="4">IF(AQ6&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-    </row>
-    <row r="7" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="30">
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+    </row>
+    <row r="7" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="29">
         <v>3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>0.1</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="30">
         <v>24.7</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <v>18.2</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="30">
         <v>31.2</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="30">
         <v>1.33</v>
       </c>
-      <c r="K7" s="48" t="e" cm="1">
+      <c r="K7" s="44" t="e" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$K$9:$K$38, COLUMN(K7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="48" t="e" cm="1">
+      <c r="L7" s="44" t="e" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$K$9:$K$38, COLUMN(L7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="48" t="e" cm="1">
+      <c r="M7" s="44" t="e" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$K$9:$K$38, COLUMN(M7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="48" t="e" cm="1">
+      <c r="N7" s="44" t="e" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$K$9:$K$38, COLUMN(N7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="48" t="e" cm="1">
+      <c r="O7" s="44" t="e" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$K$9:$K$38, COLUMN(O7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="48" t="e" cm="1">
+      <c r="P7" s="44" t="e" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$K$9:$K$38, COLUMN(P7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="48" t="e" cm="1">
+      <c r="Q7" s="44" t="e" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$K$9:$K$38, COLUMN(Q7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="48" t="e" cm="1">
+      <c r="R7" s="44" t="e" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$K$9:$K$38, COLUMN(R7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="48" t="e" cm="1">
+      <c r="S7" s="44" t="e" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$K$9:$K$38, COLUMN(S7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="48" t="e" cm="1">
+      <c r="T7" s="44" t="e" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$K$9:$K$38, COLUMN(T7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="48" t="e" cm="1">
+      <c r="U7" s="44" t="e" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$K$9:$K$38, COLUMN(U7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V7" s="48" t="e" cm="1">
+      <c r="V7" s="44" t="e" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$K$9:$K$38, COLUMN(V7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W7" s="48" t="e" cm="1">
+      <c r="W7" s="44" t="e" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$K$9:$K$38, COLUMN(W7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X7" s="48" t="e" cm="1">
+      <c r="X7" s="44" t="e" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$K$9:$K$38, COLUMN(X7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y7" s="48" t="e" cm="1">
+      <c r="Y7" s="44" t="e" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$K$9:$K$38, COLUMN(Y7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z7" s="48" t="e" cm="1">
+      <c r="Z7" s="44" t="e" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$K$9:$K$38, COLUMN(Z7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA7" s="48" t="e" cm="1">
+      <c r="AA7" s="44" t="e" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$K$9:$K$38, COLUMN(AA7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB7" s="48" t="e" cm="1">
+      <c r="AB7" s="44" t="e" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$K$9:$K$38, COLUMN(AB7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="48" t="e" cm="1">
+      <c r="AC7" s="44" t="e" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$K$9:$K$38, COLUMN(AC7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="48" t="e" cm="1">
+      <c r="AD7" s="44" t="e" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$K$9:$K$38, COLUMN(AD7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="48" t="e" cm="1">
+      <c r="AE7" s="44" t="e" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$K$9:$K$38, COLUMN(AE7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF7" s="48" t="e" cm="1">
+      <c r="AF7" s="44" t="e" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$K$9:$K$38, COLUMN(AF7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="48" t="e" cm="1">
+      <c r="AG7" s="44" t="e" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$K$9:$K$38, COLUMN(AG7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH7" s="48" t="e" cm="1">
+      <c r="AH7" s="44" t="e" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$K$9:$K$38, COLUMN(AH7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI7" s="48" t="e" cm="1">
+      <c r="AI7" s="44" t="e" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$K$9:$K$38, COLUMN(AI7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ7" s="48" t="e" cm="1">
+      <c r="AJ7" s="44" t="e" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$K$9:$K$38, COLUMN(AJ7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK7" s="48" t="e" cm="1">
+      <c r="AK7" s="44" t="e" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$K$9:$K$38, COLUMN(AK7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL7" s="48" t="e" cm="1">
+      <c r="AL7" s="44" t="e" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$K$9:$K$38, COLUMN(AL7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM7" s="48" t="e" cm="1">
+      <c r="AM7" s="44" t="e" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$K$9:$K$38, COLUMN(AM7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN7" s="48" t="e" cm="1">
+      <c r="AN7" s="44" t="e" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$K$9:$K$38, COLUMN(AN7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="41" t="e">
+      <c r="AO7" s="37" t="e">
         <f>AVERAGE(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="36" t="e">
+      <c r="AP7" s="32" t="e">
         <f>STDEV(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="37" t="e">
+      <c r="AQ7" s="33" t="e">
         <f>MIN((AO7-H7)/(3*AP7), (I7-AO7)/(3*AP7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="42" t="e">
+      <c r="AR7" s="38" t="e">
         <f>MIN(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="42" t="e">
+      <c r="AS7" s="38" t="e">
         <f>MAX(K7:AN7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT7" s="24" t="e">
+      <c r="AT7" s="20" t="e">
         <f>IF(AQ7&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-    </row>
-    <row r="8" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="30">
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+    </row>
+    <row r="8" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="29">
         <v>1</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="29">
         <v>0.1</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="48" cm="1">
+      <c r="K8" s="44" cm="1">
         <f t="array" ref="K8">INDEX(Page1!$L$9:$L$38, COLUMN(K8)-10)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="48" cm="1">
+      <c r="L8" s="44" cm="1">
         <f t="array" ref="L8">INDEX(Page1!$L$9:$L$38, COLUMN(L8)-10)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="48" cm="1">
+      <c r="M8" s="44" cm="1">
         <f t="array" ref="M8">INDEX(Page1!$L$9:$L$38, COLUMN(M8)-10)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="48" cm="1">
+      <c r="N8" s="44" cm="1">
         <f t="array" ref="N8">INDEX(Page1!$L$9:$L$38, COLUMN(N8)-10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="48" cm="1">
+      <c r="O8" s="44" cm="1">
         <f t="array" ref="O8">INDEX(Page1!$L$9:$L$38, COLUMN(O8)-10)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="48" cm="1">
+      <c r="P8" s="44" cm="1">
         <f t="array" ref="P8">INDEX(Page1!$L$9:$L$38, COLUMN(P8)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="48" cm="1">
+      <c r="Q8" s="44" cm="1">
         <f t="array" ref="Q8">INDEX(Page1!$L$9:$L$38, COLUMN(Q8)-10)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="48" cm="1">
+      <c r="R8" s="44" cm="1">
         <f t="array" ref="R8">INDEX(Page1!$L$9:$L$38, COLUMN(R8)-10)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="48" cm="1">
+      <c r="S8" s="44" cm="1">
         <f t="array" ref="S8">INDEX(Page1!$L$9:$L$38, COLUMN(S8)-10)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="48" cm="1">
+      <c r="T8" s="44" cm="1">
         <f t="array" ref="T8">INDEX(Page1!$L$9:$L$38, COLUMN(T8)-10)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="48" cm="1">
+      <c r="U8" s="44" cm="1">
         <f t="array" ref="U8">INDEX(Page1!$L$9:$L$38, COLUMN(U8)-10)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="48" cm="1">
+      <c r="V8" s="44" cm="1">
         <f t="array" ref="V8">INDEX(Page1!$L$9:$L$38, COLUMN(V8)-10)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="48" cm="1">
+      <c r="W8" s="44" cm="1">
         <f t="array" ref="W8">INDEX(Page1!$L$9:$L$38, COLUMN(W8)-10)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="48" cm="1">
+      <c r="X8" s="44" cm="1">
         <f t="array" ref="X8">INDEX(Page1!$L$9:$L$38, COLUMN(X8)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="48" cm="1">
+      <c r="Y8" s="44" cm="1">
         <f t="array" ref="Y8">INDEX(Page1!$L$9:$L$38, COLUMN(Y8)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="48" cm="1">
+      <c r="Z8" s="44" cm="1">
         <f t="array" ref="Z8">INDEX(Page1!$L$9:$L$38, COLUMN(Z8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="48" cm="1">
+      <c r="AA8" s="44" cm="1">
         <f t="array" ref="AA8">INDEX(Page1!$L$9:$L$38, COLUMN(AA8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="48" cm="1">
+      <c r="AB8" s="44" cm="1">
         <f t="array" ref="AB8">INDEX(Page1!$L$9:$L$38, COLUMN(AB8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="48" cm="1">
+      <c r="AC8" s="44" cm="1">
         <f t="array" ref="AC8">INDEX(Page1!$L$9:$L$38, COLUMN(AC8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="48" cm="1">
+      <c r="AD8" s="44" cm="1">
         <f t="array" ref="AD8">INDEX(Page1!$L$9:$L$38, COLUMN(AD8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="48" cm="1">
+      <c r="AE8" s="44" cm="1">
         <f t="array" ref="AE8">INDEX(Page1!$L$9:$L$38, COLUMN(AE8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="48" cm="1">
+      <c r="AF8" s="44" cm="1">
         <f t="array" ref="AF8">INDEX(Page1!$L$9:$L$38, COLUMN(AF8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="48" cm="1">
+      <c r="AG8" s="44" cm="1">
         <f t="array" ref="AG8">INDEX(Page1!$L$9:$L$38, COLUMN(AG8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="48" cm="1">
+      <c r="AH8" s="44" cm="1">
         <f t="array" ref="AH8">INDEX(Page1!$L$9:$L$38, COLUMN(AH8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="48" cm="1">
+      <c r="AI8" s="44" cm="1">
         <f t="array" ref="AI8">INDEX(Page1!$L$9:$L$38, COLUMN(AI8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="48" cm="1">
+      <c r="AJ8" s="44" cm="1">
         <f t="array" ref="AJ8">INDEX(Page1!$L$9:$L$38, COLUMN(AJ8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="48" cm="1">
+      <c r="AK8" s="44" cm="1">
         <f t="array" ref="AK8">INDEX(Page1!$L$9:$L$38, COLUMN(AK8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="48" cm="1">
+      <c r="AL8" s="44" cm="1">
         <f t="array" ref="AL8">INDEX(Page1!$L$9:$L$38, COLUMN(AL8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="48" cm="1">
+      <c r="AM8" s="44" cm="1">
         <f t="array" ref="AM8">INDEX(Page1!$L$9:$L$38, COLUMN(AM8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="48" cm="1">
+      <c r="AN8" s="44" cm="1">
         <f t="array" ref="AN8">INDEX(Page1!$L$9:$L$38, COLUMN(AN8)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="41">
+      <c r="AO8" s="37">
         <f>AVERAGE(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="36">
+      <c r="AP8" s="32">
         <f>STDEV(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="37" t="e">
+      <c r="AQ8" s="33" t="e">
         <f>(I8-AO8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="42">
+      <c r="AR8" s="38">
         <f>MIN(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="42">
+      <c r="AS8" s="38">
         <f>MAX(K8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="24" t="e">
+      <c r="AT8" s="20" t="e">
         <f>IF(AQ8&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-    </row>
-    <row r="9" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="30">
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+    </row>
+    <row r="9" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <v>0.01</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="30">
         <v>2.77</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="30">
         <v>1.77</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>1.33</v>
       </c>
-      <c r="K9" s="47" cm="1">
+      <c r="K9" s="43" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$D$9:$D$38, COLUMN(K9)-10)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="47" cm="1">
+      <c r="L9" s="43" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$D$9:$D$38, COLUMN(L9)-10)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="47" cm="1">
+      <c r="M9" s="43" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$D$9:$D$38, COLUMN(M9)-10)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47" cm="1">
+      <c r="N9" s="43" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$D$9:$D$38, COLUMN(N9)-10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="47" cm="1">
+      <c r="O9" s="43" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$D$9:$D$38, COLUMN(O9)-10)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="47" cm="1">
+      <c r="P9" s="43" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$D$9:$D$38, COLUMN(P9)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="47" cm="1">
+      <c r="Q9" s="43" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$D$9:$D$38, COLUMN(Q9)-10)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="47" cm="1">
+      <c r="R9" s="43" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$D$9:$D$38, COLUMN(R9)-10)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="47" cm="1">
+      <c r="S9" s="43" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$D$9:$D$38, COLUMN(S9)-10)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="47" cm="1">
+      <c r="T9" s="43" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$D$9:$D$38, COLUMN(T9)-10)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="47" cm="1">
+      <c r="U9" s="43" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$D$9:$D$38, COLUMN(U9)-10)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="47" cm="1">
+      <c r="V9" s="43" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$D$9:$D$38, COLUMN(V9)-10)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="47" cm="1">
+      <c r="W9" s="43" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$D$9:$D$38, COLUMN(W9)-10)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="47" cm="1">
+      <c r="X9" s="43" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$D$9:$D$38, COLUMN(X9)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="47" cm="1">
+      <c r="Y9" s="43" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$D$9:$D$38, COLUMN(Y9)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="47" cm="1">
+      <c r="Z9" s="43" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$D$9:$D$38, COLUMN(Z9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="47" cm="1">
+      <c r="AA9" s="43" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$D$9:$D$38, COLUMN(AA9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="47" cm="1">
+      <c r="AB9" s="43" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$D$9:$D$38, COLUMN(AB9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="47" cm="1">
+      <c r="AC9" s="43" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$D$9:$D$38, COLUMN(AC9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="47" cm="1">
+      <c r="AD9" s="43" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$D$9:$D$38, COLUMN(AD9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="47" cm="1">
+      <c r="AE9" s="43" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$D$9:$D$38, COLUMN(AE9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="47" cm="1">
+      <c r="AF9" s="43" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$D$9:$D$38, COLUMN(AF9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="47" cm="1">
+      <c r="AG9" s="43" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$D$9:$D$38, COLUMN(AG9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="47" cm="1">
+      <c r="AH9" s="43" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$D$9:$D$38, COLUMN(AH9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="47" cm="1">
+      <c r="AI9" s="43" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$D$9:$D$38, COLUMN(AI9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="47" cm="1">
+      <c r="AJ9" s="43" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$D$9:$D$38, COLUMN(AJ9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="47" cm="1">
+      <c r="AK9" s="43" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$D$9:$D$38, COLUMN(AK9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="47" cm="1">
+      <c r="AL9" s="43" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$D$9:$D$38, COLUMN(AL9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="47" cm="1">
+      <c r="AM9" s="43" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$D$9:$D$38, COLUMN(AM9)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="47" t="e" cm="1">
+      <c r="AN9" s="43" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$D$9:$D$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="35" t="e">
+      <c r="AO9" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="36" t="e">
+      <c r="AP9" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="37" t="e">
+      <c r="AQ9" s="33" t="e">
         <f>(AO9-H9)/(3*AP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="36" t="e">
+      <c r="AR9" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="36" t="e">
+      <c r="AS9" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT9" s="24" t="e">
+      <c r="AT9" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-    </row>
-    <row r="10" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="30">
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+    </row>
+    <row r="10" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="29">
         <v>0.01</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="30">
         <v>12.57</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>9.07</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30">
         <v>1.33</v>
       </c>
-      <c r="K10" s="47" cm="1">
+      <c r="K10" s="43" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$E$9:$E$38, COLUMN(K10)-10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="47" cm="1">
+      <c r="L10" s="43" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$E$9:$E$38, COLUMN(L10)-10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="47" cm="1">
+      <c r="M10" s="43" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$E$9:$E$38, COLUMN(M10)-10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="47" cm="1">
+      <c r="N10" s="43" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$E$9:$E$38, COLUMN(N10)-10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="47" cm="1">
+      <c r="O10" s="43" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$E$9:$E$38, COLUMN(O10)-10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="47" cm="1">
+      <c r="P10" s="43" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$E$9:$E$38, COLUMN(P10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="47" cm="1">
+      <c r="Q10" s="43" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$E$9:$E$38, COLUMN(Q10)-10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="47" cm="1">
+      <c r="R10" s="43" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$E$9:$E$38, COLUMN(R10)-10)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="47" cm="1">
+      <c r="S10" s="43" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$E$9:$E$38, COLUMN(S10)-10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="47" cm="1">
+      <c r="T10" s="43" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$E$9:$E$38, COLUMN(T10)-10)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="47" cm="1">
+      <c r="U10" s="43" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$E$9:$E$38, COLUMN(U10)-10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="47" cm="1">
+      <c r="V10" s="43" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$E$9:$E$38, COLUMN(V10)-10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="47" cm="1">
+      <c r="W10" s="43" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$E$9:$E$38, COLUMN(W10)-10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="47" cm="1">
+      <c r="X10" s="43" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$E$9:$E$38, COLUMN(X10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="47" cm="1">
+      <c r="Y10" s="43" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$E$9:$E$38, COLUMN(Y10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="47" cm="1">
+      <c r="Z10" s="43" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$E$9:$E$38, COLUMN(Z10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="47" cm="1">
+      <c r="AA10" s="43" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$E$9:$E$38, COLUMN(AA10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="47" cm="1">
+      <c r="AB10" s="43" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$E$9:$E$38, COLUMN(AB10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="47" cm="1">
+      <c r="AC10" s="43" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$E$9:$E$38, COLUMN(AC10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="47" cm="1">
+      <c r="AD10" s="43" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$E$9:$E$38, COLUMN(AD10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="47" cm="1">
+      <c r="AE10" s="43" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$E$9:$E$38, COLUMN(AE10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="47" cm="1">
+      <c r="AF10" s="43" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$E$9:$E$38, COLUMN(AF10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="47" cm="1">
+      <c r="AG10" s="43" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$E$9:$E$38, COLUMN(AG10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="47" cm="1">
+      <c r="AH10" s="43" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$E$9:$E$38, COLUMN(AH10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="47" cm="1">
+      <c r="AI10" s="43" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$E$9:$E$38, COLUMN(AI10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="47" cm="1">
+      <c r="AJ10" s="43" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$E$9:$E$38, COLUMN(AJ10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="47" cm="1">
+      <c r="AK10" s="43" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$E$9:$E$38, COLUMN(AK10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="47" cm="1">
+      <c r="AL10" s="43" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$E$9:$E$38, COLUMN(AL10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="47" cm="1">
+      <c r="AM10" s="43" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$E$9:$E$38, COLUMN(AM10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="47" t="e" cm="1">
+      <c r="AN10" s="43" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$E$9:$E$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="35" t="e">
+      <c r="AO10" s="31" t="e">
         <f>AVERAGE(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="36" t="e">
+      <c r="AP10" s="32" t="e">
         <f>STDEV(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="37" t="e">
+      <c r="AQ10" s="33" t="e">
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="36" t="e">
+      <c r="AR10" s="32" t="e">
         <f>MIN(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="36" t="e">
+      <c r="AS10" s="32" t="e">
         <f>MAX(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="24" t="e">
+      <c r="AT10" s="20" t="e">
         <f>IF(AQ10&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-    </row>
-    <row r="11" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="30">
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+    </row>
+    <row r="11" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <v>0.01</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="30">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="30">
         <v>1.49</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="44">
+      <c r="I11" s="30"/>
+      <c r="J11" s="40">
         <v>1.33</v>
       </c>
-      <c r="K11" s="47" cm="1">
+      <c r="K11" s="43" cm="1">
         <f t="array" ref="K11">INDEX(Page2!$F$9:$F$38, COLUMN(K11)-10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="47" cm="1">
+      <c r="L11" s="43" cm="1">
         <f t="array" ref="L11">INDEX(Page2!$F$9:$F$38, COLUMN(L11)-10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="47" cm="1">
+      <c r="M11" s="43" cm="1">
         <f t="array" ref="M11">INDEX(Page2!$F$9:$F$38, COLUMN(M11)-10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="47" cm="1">
+      <c r="N11" s="43" cm="1">
         <f t="array" ref="N11">INDEX(Page2!$F$9:$F$38, COLUMN(N11)-10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="47" cm="1">
+      <c r="O11" s="43" cm="1">
         <f t="array" ref="O11">INDEX(Page2!$F$9:$F$38, COLUMN(O11)-10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="47" cm="1">
+      <c r="P11" s="43" cm="1">
         <f t="array" ref="P11">INDEX(Page2!$F$9:$F$38, COLUMN(P11)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="47" cm="1">
+      <c r="Q11" s="43" cm="1">
         <f t="array" ref="Q11">INDEX(Page2!$F$9:$F$38, COLUMN(Q11)-10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="47" cm="1">
+      <c r="R11" s="43" cm="1">
         <f t="array" ref="R11">INDEX(Page2!$F$9:$F$38, COLUMN(R11)-10)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="47" cm="1">
+      <c r="S11" s="43" cm="1">
         <f t="array" ref="S11">INDEX(Page2!$F$9:$F$38, COLUMN(S11)-10)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="47" cm="1">
+      <c r="T11" s="43" cm="1">
         <f t="array" ref="T11">INDEX(Page2!$F$9:$F$38, COLUMN(T11)-10)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="47" cm="1">
+      <c r="U11" s="43" cm="1">
         <f t="array" ref="U11">INDEX(Page2!$F$9:$F$38, COLUMN(U11)-10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="47" cm="1">
+      <c r="V11" s="43" cm="1">
         <f t="array" ref="V11">INDEX(Page2!$F$9:$F$38, COLUMN(V11)-10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="47" cm="1">
+      <c r="W11" s="43" cm="1">
         <f t="array" ref="W11">INDEX(Page2!$F$9:$F$38, COLUMN(W11)-10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="47" cm="1">
+      <c r="X11" s="43" cm="1">
         <f t="array" ref="X11">INDEX(Page2!$F$9:$F$38, COLUMN(X11)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="47" cm="1">
+      <c r="Y11" s="43" cm="1">
         <f t="array" ref="Y11">INDEX(Page2!$F$9:$F$38, COLUMN(Y11)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="47" cm="1">
+      <c r="Z11" s="43" cm="1">
         <f t="array" ref="Z11">INDEX(Page2!$F$9:$F$38, COLUMN(Z11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="47" cm="1">
+      <c r="AA11" s="43" cm="1">
         <f t="array" ref="AA11">INDEX(Page2!$F$9:$F$38, COLUMN(AA11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="47" cm="1">
+      <c r="AB11" s="43" cm="1">
         <f t="array" ref="AB11">INDEX(Page2!$F$9:$F$38, COLUMN(AB11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="47" cm="1">
+      <c r="AC11" s="43" cm="1">
         <f t="array" ref="AC11">INDEX(Page2!$F$9:$F$38, COLUMN(AC11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="47" cm="1">
+      <c r="AD11" s="43" cm="1">
         <f t="array" ref="AD11">INDEX(Page2!$F$9:$F$38, COLUMN(AD11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="47" cm="1">
+      <c r="AE11" s="43" cm="1">
         <f t="array" ref="AE11">INDEX(Page2!$F$9:$F$38, COLUMN(AE11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="47" cm="1">
+      <c r="AF11" s="43" cm="1">
         <f t="array" ref="AF11">INDEX(Page2!$F$9:$F$38, COLUMN(AF11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="47" cm="1">
+      <c r="AG11" s="43" cm="1">
         <f t="array" ref="AG11">INDEX(Page2!$F$9:$F$38, COLUMN(AG11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="47" cm="1">
+      <c r="AH11" s="43" cm="1">
         <f t="array" ref="AH11">INDEX(Page2!$F$9:$F$38, COLUMN(AH11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="47" cm="1">
+      <c r="AI11" s="43" cm="1">
         <f t="array" ref="AI11">INDEX(Page2!$F$9:$F$38, COLUMN(AI11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="47" cm="1">
+      <c r="AJ11" s="43" cm="1">
         <f t="array" ref="AJ11">INDEX(Page2!$F$9:$F$38, COLUMN(AJ11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="47" cm="1">
+      <c r="AK11" s="43" cm="1">
         <f t="array" ref="AK11">INDEX(Page2!$F$9:$F$38, COLUMN(AK11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="47" cm="1">
+      <c r="AL11" s="43" cm="1">
         <f t="array" ref="AL11">INDEX(Page2!$F$9:$F$38, COLUMN(AL11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="47" cm="1">
+      <c r="AM11" s="43" cm="1">
         <f t="array" ref="AM11">INDEX(Page2!$F$9:$F$38, COLUMN(AM11)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="47" t="e" cm="1">
+      <c r="AN11" s="43" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page2!$F$9:$F$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="35" t="e">
+      <c r="AO11" s="31" t="e">
         <f>AVERAGE(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="45" t="e">
+      <c r="AP11" s="41" t="e">
         <f>STDEV(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="37" t="e">
+      <c r="AQ11" s="33" t="e">
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="36" t="e">
+      <c r="AR11" s="32" t="e">
         <f>MIN(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="36" t="e">
+      <c r="AS11" s="32" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="24" t="e">
+      <c r="AT11" s="20" t="e">
         <f>IF(AQ11&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-    </row>
-    <row r="12" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="30">
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+    </row>
+    <row r="12" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="29">
         <v>0.01</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="42">
         <v>9.6300000000000008</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="42">
         <v>6.13</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="44">
+      <c r="I12" s="42"/>
+      <c r="J12" s="40">
         <v>1.33</v>
       </c>
-      <c r="K12" s="47" cm="1">
+      <c r="K12" s="43" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$G$9:$G$38, COLUMN(K12)-10)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="47" cm="1">
+      <c r="L12" s="43" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$G$9:$G$38, COLUMN(L12)-10)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="47" cm="1">
+      <c r="M12" s="43" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$G$9:$G$38, COLUMN(M12)-10)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="47" cm="1">
+      <c r="N12" s="43" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$G$9:$G$38, COLUMN(N12)-10)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="47" cm="1">
+      <c r="O12" s="43" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$G$9:$G$38, COLUMN(O12)-10)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="47" cm="1">
+      <c r="P12" s="43" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$G$9:$G$38, COLUMN(P12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="47" cm="1">
+      <c r="Q12" s="43" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$G$9:$G$38, COLUMN(Q12)-10)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="47" cm="1">
+      <c r="R12" s="43" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$G$9:$G$38, COLUMN(R12)-10)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="47" cm="1">
+      <c r="S12" s="43" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$G$9:$G$38, COLUMN(S12)-10)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="47" cm="1">
+      <c r="T12" s="43" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$G$9:$G$38, COLUMN(T12)-10)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="47" cm="1">
+      <c r="U12" s="43" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$G$9:$G$38, COLUMN(U12)-10)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="47" cm="1">
+      <c r="V12" s="43" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$G$9:$G$38, COLUMN(V12)-10)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="47" cm="1">
+      <c r="W12" s="43" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$G$9:$G$38, COLUMN(W12)-10)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="47" cm="1">
+      <c r="X12" s="43" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$G$9:$G$38, COLUMN(X12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="47" cm="1">
+      <c r="Y12" s="43" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$G$9:$G$38, COLUMN(Y12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="47" cm="1">
+      <c r="Z12" s="43" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$G$9:$G$38, COLUMN(Z12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="47" cm="1">
+      <c r="AA12" s="43" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$G$9:$G$38, COLUMN(AA12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="47" cm="1">
+      <c r="AB12" s="43" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$G$9:$G$38, COLUMN(AB12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="47" cm="1">
+      <c r="AC12" s="43" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$G$9:$G$38, COLUMN(AC12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="47" cm="1">
+      <c r="AD12" s="43" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$G$9:$G$38, COLUMN(AD12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="47" cm="1">
+      <c r="AE12" s="43" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$G$9:$G$38, COLUMN(AE12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="47" cm="1">
+      <c r="AF12" s="43" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$G$9:$G$38, COLUMN(AF12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="47" cm="1">
+      <c r="AG12" s="43" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$G$9:$G$38, COLUMN(AG12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="47" cm="1">
+      <c r="AH12" s="43" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$G$9:$G$38, COLUMN(AH12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="47" cm="1">
+      <c r="AI12" s="43" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$G$9:$G$38, COLUMN(AI12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="47" cm="1">
+      <c r="AJ12" s="43" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$G$9:$G$38, COLUMN(AJ12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="47" cm="1">
+      <c r="AK12" s="43" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$G$9:$G$38, COLUMN(AK12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="47" cm="1">
+      <c r="AL12" s="43" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$G$9:$G$38, COLUMN(AL12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="47" cm="1">
+      <c r="AM12" s="43" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$G$9:$G$38, COLUMN(AM12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="47" t="e" cm="1">
+      <c r="AN12" s="43" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$G$9:$G$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO12" s="35" t="e">
+      <c r="AO12" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="45" t="e">
+      <c r="AP12" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="37" t="e">
+      <c r="AQ12" s="33" t="e">
         <f>(AO12-H12)/(3*AP12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="36" t="e">
+      <c r="AR12" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="36" t="e">
+      <c r="AS12" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="24" t="e">
+      <c r="AT12" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-    </row>
-    <row r="13" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="30">
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+    </row>
+    <row r="13" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="29">
         <v>0.1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <v>95.5</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="29">
         <v>91.5</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>99.5</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="48" cm="1">
+      <c r="K13" s="44" cm="1">
         <f t="array" ref="K13">INDEX(Page2!$H$9:$H$38, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="48" cm="1">
+      <c r="L13" s="44" cm="1">
         <f t="array" ref="L13">INDEX(Page2!$H$9:$H$38, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="48" cm="1">
+      <c r="M13" s="44" cm="1">
         <f t="array" ref="M13">INDEX(Page2!$H$9:$H$38, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="48" cm="1">
+      <c r="N13" s="44" cm="1">
         <f t="array" ref="N13">INDEX(Page2!$H$9:$H$38, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="48" cm="1">
+      <c r="O13" s="44" cm="1">
         <f t="array" ref="O13">INDEX(Page2!$H$9:$H$38, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="48" cm="1">
+      <c r="P13" s="44" cm="1">
         <f t="array" ref="P13">INDEX(Page2!$H$9:$H$38, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="48" cm="1">
+      <c r="Q13" s="44" cm="1">
         <f t="array" ref="Q13">INDEX(Page2!$H$9:$H$38, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="48" cm="1">
+      <c r="R13" s="44" cm="1">
         <f t="array" ref="R13">INDEX(Page2!$H$9:$H$38, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="48" cm="1">
+      <c r="S13" s="44" cm="1">
         <f t="array" ref="S13">INDEX(Page2!$H$9:$H$38, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="48" cm="1">
+      <c r="T13" s="44" cm="1">
         <f t="array" ref="T13">INDEX(Page2!$H$9:$H$38, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="48" cm="1">
+      <c r="U13" s="44" cm="1">
         <f t="array" ref="U13">INDEX(Page2!$H$9:$H$38, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="48" cm="1">
+      <c r="V13" s="44" cm="1">
         <f t="array" ref="V13">INDEX(Page2!$H$9:$H$38, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="48" cm="1">
+      <c r="W13" s="44" cm="1">
         <f t="array" ref="W13">INDEX(Page2!$H$9:$H$38, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="48" cm="1">
+      <c r="X13" s="44" cm="1">
         <f t="array" ref="X13">INDEX(Page2!$H$9:$H$38, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="48" cm="1">
+      <c r="Y13" s="44" cm="1">
         <f t="array" ref="Y13">INDEX(Page2!$H$9:$H$38, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="48" cm="1">
+      <c r="Z13" s="44" cm="1">
         <f t="array" ref="Z13">INDEX(Page2!$H$9:$H$38, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="48" cm="1">
+      <c r="AA13" s="44" cm="1">
         <f t="array" ref="AA13">INDEX(Page2!$H$9:$H$38, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="48" cm="1">
+      <c r="AB13" s="44" cm="1">
         <f t="array" ref="AB13">INDEX(Page2!$H$9:$H$38, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="48" cm="1">
+      <c r="AC13" s="44" cm="1">
         <f t="array" ref="AC13">INDEX(Page2!$H$9:$H$38, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="48" cm="1">
+      <c r="AD13" s="44" cm="1">
         <f t="array" ref="AD13">INDEX(Page2!$H$9:$H$38, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="48" cm="1">
+      <c r="AE13" s="44" cm="1">
         <f t="array" ref="AE13">INDEX(Page2!$H$9:$H$38, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="48" cm="1">
+      <c r="AF13" s="44" cm="1">
         <f t="array" ref="AF13">INDEX(Page2!$H$9:$H$38, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="48" cm="1">
+      <c r="AG13" s="44" cm="1">
         <f t="array" ref="AG13">INDEX(Page2!$H$9:$H$38, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="48" cm="1">
+      <c r="AH13" s="44" cm="1">
         <f t="array" ref="AH13">INDEX(Page2!$H$9:$H$38, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="48" cm="1">
+      <c r="AI13" s="44" cm="1">
         <f t="array" ref="AI13">INDEX(Page2!$H$9:$H$38, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="48" cm="1">
+      <c r="AJ13" s="44" cm="1">
         <f t="array" ref="AJ13">INDEX(Page2!$H$9:$H$38, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="48" cm="1">
+      <c r="AK13" s="44" cm="1">
         <f t="array" ref="AK13">INDEX(Page2!$H$9:$H$38, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="48" cm="1">
+      <c r="AL13" s="44" cm="1">
         <f t="array" ref="AL13">INDEX(Page2!$H$9:$H$38, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="48" cm="1">
+      <c r="AM13" s="44" cm="1">
         <f t="array" ref="AM13">INDEX(Page2!$H$9:$H$38, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="48" t="e" cm="1">
+      <c r="AN13" s="44" t="e" cm="1">
         <f t="array" ref="AN13">INDEX(Page2!$H$9:$H$38, COLUMN(AN13)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO13" s="41" t="e">
+      <c r="AO13" s="37" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="36" t="e">
+      <c r="AP13" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ13" s="37" t="e">
+      <c r="AQ13" s="33" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="42" t="e">
+      <c r="AR13" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS13" s="42" t="e">
+      <c r="AS13" s="38" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT13" s="24" t="e">
+      <c r="AT13" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-    </row>
-    <row r="14" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="30">
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+    </row>
+    <row r="14" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <v>0.1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <v>-0.4</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="29">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="29">
         <v>3.6</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="48" cm="1">
+      <c r="K14" s="44" cm="1">
         <f t="array" ref="K14">INDEX(Page2!$I$9:$I$38, COLUMN(K14)-10)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="48" cm="1">
+      <c r="L14" s="44" cm="1">
         <f t="array" ref="L14">INDEX(Page2!$I$9:$I$38, COLUMN(L14)-10)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="48" cm="1">
+      <c r="M14" s="44" cm="1">
         <f t="array" ref="M14">INDEX(Page2!$I$9:$I$38, COLUMN(M14)-10)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="48" cm="1">
+      <c r="N14" s="44" cm="1">
         <f t="array" ref="N14">INDEX(Page2!$I$9:$I$38, COLUMN(N14)-10)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="48" cm="1">
+      <c r="O14" s="44" cm="1">
         <f t="array" ref="O14">INDEX(Page2!$I$9:$I$38, COLUMN(O14)-10)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="48" cm="1">
+      <c r="P14" s="44" cm="1">
         <f t="array" ref="P14">INDEX(Page2!$I$9:$I$38, COLUMN(P14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="48" cm="1">
+      <c r="Q14" s="44" cm="1">
         <f t="array" ref="Q14">INDEX(Page2!$I$9:$I$38, COLUMN(Q14)-10)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="48" cm="1">
+      <c r="R14" s="44" cm="1">
         <f t="array" ref="R14">INDEX(Page2!$I$9:$I$38, COLUMN(R14)-10)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="48" cm="1">
+      <c r="S14" s="44" cm="1">
         <f t="array" ref="S14">INDEX(Page2!$I$9:$I$38, COLUMN(S14)-10)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="48" cm="1">
+      <c r="T14" s="44" cm="1">
         <f t="array" ref="T14">INDEX(Page2!$I$9:$I$38, COLUMN(T14)-10)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="48" cm="1">
+      <c r="U14" s="44" cm="1">
         <f t="array" ref="U14">INDEX(Page2!$I$9:$I$38, COLUMN(U14)-10)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="48" cm="1">
+      <c r="V14" s="44" cm="1">
         <f t="array" ref="V14">INDEX(Page2!$I$9:$I$38, COLUMN(V14)-10)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="48" cm="1">
+      <c r="W14" s="44" cm="1">
         <f t="array" ref="W14">INDEX(Page2!$I$9:$I$38, COLUMN(W14)-10)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="48" cm="1">
+      <c r="X14" s="44" cm="1">
         <f t="array" ref="X14">INDEX(Page2!$I$9:$I$38, COLUMN(X14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="48" cm="1">
+      <c r="Y14" s="44" cm="1">
         <f t="array" ref="Y14">INDEX(Page2!$I$9:$I$38, COLUMN(Y14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="48" cm="1">
+      <c r="Z14" s="44" cm="1">
         <f t="array" ref="Z14">INDEX(Page2!$I$9:$I$38, COLUMN(Z14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="48" cm="1">
+      <c r="AA14" s="44" cm="1">
         <f t="array" ref="AA14">INDEX(Page2!$I$9:$I$38, COLUMN(AA14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="48" cm="1">
+      <c r="AB14" s="44" cm="1">
         <f t="array" ref="AB14">INDEX(Page2!$I$9:$I$38, COLUMN(AB14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="48" cm="1">
+      <c r="AC14" s="44" cm="1">
         <f t="array" ref="AC14">INDEX(Page2!$I$9:$I$38, COLUMN(AC14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="48" cm="1">
+      <c r="AD14" s="44" cm="1">
         <f t="array" ref="AD14">INDEX(Page2!$I$9:$I$38, COLUMN(AD14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="48" cm="1">
+      <c r="AE14" s="44" cm="1">
         <f t="array" ref="AE14">INDEX(Page2!$I$9:$I$38, COLUMN(AE14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="48" cm="1">
+      <c r="AF14" s="44" cm="1">
         <f t="array" ref="AF14">INDEX(Page2!$I$9:$I$38, COLUMN(AF14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="48" cm="1">
+      <c r="AG14" s="44" cm="1">
         <f t="array" ref="AG14">INDEX(Page2!$I$9:$I$38, COLUMN(AG14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="48" cm="1">
+      <c r="AH14" s="44" cm="1">
         <f t="array" ref="AH14">INDEX(Page2!$I$9:$I$38, COLUMN(AH14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="48" cm="1">
+      <c r="AI14" s="44" cm="1">
         <f t="array" ref="AI14">INDEX(Page2!$I$9:$I$38, COLUMN(AI14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="48" cm="1">
+      <c r="AJ14" s="44" cm="1">
         <f t="array" ref="AJ14">INDEX(Page2!$I$9:$I$38, COLUMN(AJ14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="48" cm="1">
+      <c r="AK14" s="44" cm="1">
         <f t="array" ref="AK14">INDEX(Page2!$I$9:$I$38, COLUMN(AK14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="48" cm="1">
+      <c r="AL14" s="44" cm="1">
         <f t="array" ref="AL14">INDEX(Page2!$I$9:$I$38, COLUMN(AL14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="48" cm="1">
+      <c r="AM14" s="44" cm="1">
         <f t="array" ref="AM14">INDEX(Page2!$I$9:$I$38, COLUMN(AM14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="48" t="e" cm="1">
+      <c r="AN14" s="44" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page2!$I$9:$I$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="41" t="e">
+      <c r="AO14" s="37" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="36" t="e">
+      <c r="AP14" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="37" t="e">
+      <c r="AQ14" s="33" t="e">
         <f>MIN((AO14-H14)/(3*AP14), (I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="42" t="e">
+      <c r="AR14" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="42" t="e">
+      <c r="AS14" s="38" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT14" s="24" t="e">
+      <c r="AT14" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-    </row>
-    <row r="15" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="30">
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+    </row>
+    <row r="15" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="29">
         <v>0.1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="29">
         <v>-0.5</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="29">
         <v>-4.5</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="29">
         <v>3.5</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="48" cm="1">
+      <c r="K15" s="44" cm="1">
         <f t="array" ref="K15">INDEX(Page2!$J$9:$J$38, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="48" cm="1">
+      <c r="L15" s="44" cm="1">
         <f t="array" ref="L15">INDEX(Page2!$J$9:$J$38, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="48" cm="1">
+      <c r="M15" s="44" cm="1">
         <f t="array" ref="M15">INDEX(Page2!$J$9:$J$38, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="48" cm="1">
+      <c r="N15" s="44" cm="1">
         <f t="array" ref="N15">INDEX(Page2!$J$9:$J$38, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="48" cm="1">
+      <c r="O15" s="44" cm="1">
         <f t="array" ref="O15">INDEX(Page2!$J$9:$J$38, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="48" cm="1">
+      <c r="P15" s="44" cm="1">
         <f t="array" ref="P15">INDEX(Page2!$J$9:$J$38, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="48" cm="1">
+      <c r="Q15" s="44" cm="1">
         <f t="array" ref="Q15">INDEX(Page2!$J$9:$J$38, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="48" cm="1">
+      <c r="R15" s="44" cm="1">
         <f t="array" ref="R15">INDEX(Page2!$J$9:$J$38, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="48" cm="1">
+      <c r="S15" s="44" cm="1">
         <f t="array" ref="S15">INDEX(Page2!$J$9:$J$38, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="48" cm="1">
+      <c r="T15" s="44" cm="1">
         <f t="array" ref="T15">INDEX(Page2!$J$9:$J$38, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="48" cm="1">
+      <c r="U15" s="44" cm="1">
         <f t="array" ref="U15">INDEX(Page2!$J$9:$J$38, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="48" cm="1">
+      <c r="V15" s="44" cm="1">
         <f t="array" ref="V15">INDEX(Page2!$J$9:$J$38, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="48" cm="1">
+      <c r="W15" s="44" cm="1">
         <f t="array" ref="W15">INDEX(Page2!$J$9:$J$38, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="48" cm="1">
+      <c r="X15" s="44" cm="1">
         <f t="array" ref="X15">INDEX(Page2!$J$9:$J$38, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="48" cm="1">
+      <c r="Y15" s="44" cm="1">
         <f t="array" ref="Y15">INDEX(Page2!$J$9:$J$38, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="48" cm="1">
+      <c r="Z15" s="44" cm="1">
         <f t="array" ref="Z15">INDEX(Page2!$J$9:$J$38, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="48" cm="1">
+      <c r="AA15" s="44" cm="1">
         <f t="array" ref="AA15">INDEX(Page2!$J$9:$J$38, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="48" cm="1">
+      <c r="AB15" s="44" cm="1">
         <f t="array" ref="AB15">INDEX(Page2!$J$9:$J$38, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="48" cm="1">
+      <c r="AC15" s="44" cm="1">
         <f t="array" ref="AC15">INDEX(Page2!$J$9:$J$38, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="48" cm="1">
+      <c r="AD15" s="44" cm="1">
         <f t="array" ref="AD15">INDEX(Page2!$J$9:$J$38, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="48" cm="1">
+      <c r="AE15" s="44" cm="1">
         <f t="array" ref="AE15">INDEX(Page2!$J$9:$J$38, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="48" cm="1">
+      <c r="AF15" s="44" cm="1">
         <f t="array" ref="AF15">INDEX(Page2!$J$9:$J$38, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="48" cm="1">
+      <c r="AG15" s="44" cm="1">
         <f t="array" ref="AG15">INDEX(Page2!$J$9:$J$38, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="48" cm="1">
+      <c r="AH15" s="44" cm="1">
         <f t="array" ref="AH15">INDEX(Page2!$J$9:$J$38, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="48" cm="1">
+      <c r="AI15" s="44" cm="1">
         <f t="array" ref="AI15">INDEX(Page2!$J$9:$J$38, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="48" cm="1">
+      <c r="AJ15" s="44" cm="1">
         <f t="array" ref="AJ15">INDEX(Page2!$J$9:$J$38, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="48" cm="1">
+      <c r="AK15" s="44" cm="1">
         <f t="array" ref="AK15">INDEX(Page2!$J$9:$J$38, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="48" cm="1">
+      <c r="AL15" s="44" cm="1">
         <f t="array" ref="AL15">INDEX(Page2!$J$9:$J$38, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="48" cm="1">
+      <c r="AM15" s="44" cm="1">
         <f t="array" ref="AM15">INDEX(Page2!$J$9:$J$38, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="48" t="e" cm="1">
+      <c r="AN15" s="44" t="e" cm="1">
         <f t="array" ref="AN15">INDEX(Page2!$J$9:$J$38, COLUMN(AN15)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO15" s="41" t="e">
+      <c r="AO15" s="37" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="36" t="e">
+      <c r="AP15" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="37" t="e">
+      <c r="AQ15" s="33" t="e">
         <f>MIN((AO15-H15)/(3*AP15), (I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="42" t="e">
+      <c r="AR15" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="42" t="e">
+      <c r="AS15" s="38" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT15" s="24" t="e">
+      <c r="AT15" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-    </row>
-    <row r="16" spans="1:49" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="30">
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="35"/>
+    </row>
+    <row r="16" spans="1:49" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="29">
         <v>0.01</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="47" cm="1">
+      <c r="K16" s="43" cm="1">
         <f t="array" ref="K16">INDEX(Page2!$K$9:$K$38, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="47" cm="1">
+      <c r="L16" s="43" cm="1">
         <f t="array" ref="L16">INDEX(Page2!$K$9:$K$38, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="47" cm="1">
+      <c r="M16" s="43" cm="1">
         <f t="array" ref="M16">INDEX(Page2!$K$9:$K$38, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="47" cm="1">
+      <c r="N16" s="43" cm="1">
         <f t="array" ref="N16">INDEX(Page2!$K$9:$K$38, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="47" cm="1">
+      <c r="O16" s="43" cm="1">
         <f t="array" ref="O16">INDEX(Page2!$K$9:$K$38, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="47" cm="1">
+      <c r="P16" s="43" cm="1">
         <f t="array" ref="P16">INDEX(Page2!$K$9:$K$38, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="47" cm="1">
+      <c r="Q16" s="43" cm="1">
         <f t="array" ref="Q16">INDEX(Page2!$K$9:$K$38, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="47" cm="1">
+      <c r="R16" s="43" cm="1">
         <f t="array" ref="R16">INDEX(Page2!$K$9:$K$38, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="47" cm="1">
+      <c r="S16" s="43" cm="1">
         <f t="array" ref="S16">INDEX(Page2!$K$9:$K$38, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="47" cm="1">
+      <c r="T16" s="43" cm="1">
         <f t="array" ref="T16">INDEX(Page2!$K$9:$K$38, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="47" cm="1">
+      <c r="U16" s="43" cm="1">
         <f t="array" ref="U16">INDEX(Page2!$K$9:$K$38, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="47" cm="1">
+      <c r="V16" s="43" cm="1">
         <f t="array" ref="V16">INDEX(Page2!$K$9:$K$38, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="47" cm="1">
+      <c r="W16" s="43" cm="1">
         <f t="array" ref="W16">INDEX(Page2!$K$9:$K$38, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="47" cm="1">
+      <c r="X16" s="43" cm="1">
         <f t="array" ref="X16">INDEX(Page2!$K$9:$K$38, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="47" cm="1">
+      <c r="Y16" s="43" cm="1">
         <f t="array" ref="Y16">INDEX(Page2!$K$9:$K$38, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="47" cm="1">
+      <c r="Z16" s="43" cm="1">
         <f t="array" ref="Z16">INDEX(Page2!$K$9:$K$38, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="47" cm="1">
+      <c r="AA16" s="43" cm="1">
         <f t="array" ref="AA16">INDEX(Page2!$K$9:$K$38, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="47" cm="1">
+      <c r="AB16" s="43" cm="1">
         <f t="array" ref="AB16">INDEX(Page2!$K$9:$K$38, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="47" cm="1">
+      <c r="AC16" s="43" cm="1">
         <f t="array" ref="AC16">INDEX(Page2!$K$9:$K$38, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="47" cm="1">
+      <c r="AD16" s="43" cm="1">
         <f t="array" ref="AD16">INDEX(Page2!$K$9:$K$38, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="47" cm="1">
+      <c r="AE16" s="43" cm="1">
         <f t="array" ref="AE16">INDEX(Page2!$K$9:$K$38, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="47" cm="1">
+      <c r="AF16" s="43" cm="1">
         <f t="array" ref="AF16">INDEX(Page2!$K$9:$K$38, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="47" cm="1">
+      <c r="AG16" s="43" cm="1">
         <f t="array" ref="AG16">INDEX(Page2!$K$9:$K$38, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="47" cm="1">
+      <c r="AH16" s="43" cm="1">
         <f t="array" ref="AH16">INDEX(Page2!$K$9:$K$38, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="47" cm="1">
+      <c r="AI16" s="43" cm="1">
         <f t="array" ref="AI16">INDEX(Page2!$K$9:$K$38, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="47" cm="1">
+      <c r="AJ16" s="43" cm="1">
         <f t="array" ref="AJ16">INDEX(Page2!$K$9:$K$38, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="47" cm="1">
+      <c r="AK16" s="43" cm="1">
         <f t="array" ref="AK16">INDEX(Page2!$K$9:$K$38, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="47" cm="1">
+      <c r="AL16" s="43" cm="1">
         <f t="array" ref="AL16">INDEX(Page2!$K$9:$K$38, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="47" cm="1">
+      <c r="AM16" s="43" cm="1">
         <f t="array" ref="AM16">INDEX(Page2!$K$9:$K$38, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="47" t="e" cm="1">
+      <c r="AN16" s="43" t="e" cm="1">
         <f t="array" ref="AN16">INDEX(Page2!$K$9:$K$38, COLUMN(AN16)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO16" s="35" t="e">
+      <c r="AO16" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP16" s="36" t="e">
+      <c r="AP16" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ16" s="37" t="e">
+      <c r="AQ16" s="33" t="e">
         <f>(I16-AO16)/(3*AP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="36" t="e">
+      <c r="AR16" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS16" s="36" t="e">
+      <c r="AS16" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT16" s="24" t="e">
+      <c r="AT16" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
     </row>
     <row r="19" spans="41:49">
       <c r="AV19" s="10"/>
@@ -8837,5 +8845,6 @@
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>